--- a/Phase 2/Project Plan/Project Plan Crawford Long.xlsx
+++ b/Phase 2/Project Plan/Project Plan Crawford Long.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkPeeler\Documents\Mark's School Stuff\MIST7590\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcritt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>Task or Deliverable - WBS</t>
   </si>
@@ -177,9 +177,6 @@
     <t>4.2  Write the Code</t>
   </si>
   <si>
-    <t>4.2.1 &lt;Enter detailed deliverables&gt;</t>
-  </si>
-  <si>
     <t>4.3  Test the Application</t>
   </si>
   <si>
@@ -257,11 +254,32 @@
   <si>
     <t>Ashley, Justin</t>
   </si>
+  <si>
+    <t>4.2.1 Front End Development</t>
+  </si>
+  <si>
+    <t>4.2.2 Back End Development</t>
+  </si>
+  <si>
+    <t>4.2.3 Integration</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Ben Pitts, Justin Ucol, Ashley Reese</t>
+  </si>
+  <si>
+    <t>Daniel Crittenden, John Peeler, Ashley Reese, Justin Ucol</t>
+  </si>
+  <si>
+    <t>Ashley Reese, John Peeler, Justin Ucol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -803,14 +821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19:W19"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -821,7 +839,7 @@
     <col min="5" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="41" customWidth="1"/>
     <col min="11" max="23" width="7.7109375" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" customWidth="1"/>
     <col min="25" max="32" width="7.7109375" customWidth="1"/>
@@ -1084,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
@@ -1146,7 +1164,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" s="23"/>
@@ -1194,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -1254,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="22"/>
@@ -1314,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -1374,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -1434,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1494,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -1554,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -1614,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1765,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -1825,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -1885,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -1993,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -2053,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -2113,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -2173,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -2233,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -2339,7 +2357,7 @@
         <v>0.95</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -2397,7 +2415,7 @@
         <v>0.95</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2455,7 +2473,7 @@
         <v>0.9</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -2603,7 +2621,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="21"/>
       <c r="J31" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -2653,7 +2671,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
       <c r="J32" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -3314,19 +3332,23 @@
       <c r="AQ45" s="24"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" ht="15.75">
+    <row r="46" spans="1:44" ht="31.5">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
+      <c r="E46" s="19">
+        <v>43103</v>
+      </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="39"/>
+      <c r="J46" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -3362,19 +3384,23 @@
       <c r="AQ46" s="24"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" ht="15.75">
+    <row r="47" spans="1:44" ht="47.25">
       <c r="A47" s="16"/>
-      <c r="B47" s="17" t="s">
-        <v>53</v>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>79</v>
       </c>
-      <c r="C47" s="17"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="19">
+        <v>43103</v>
+      </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
-      <c r="J47" s="39"/>
+      <c r="J47" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -3410,19 +3436,23 @@
       <c r="AQ47" s="24"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" ht="15.75">
+    <row r="48" spans="1:44" ht="31.5">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
+      <c r="E48" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="39"/>
+      <c r="J48" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -3448,10 +3478,10 @@
       <c r="AG48" s="25"/>
       <c r="AH48" s="25"/>
       <c r="AI48" s="24"/>
-      <c r="AJ48" s="32"/>
-      <c r="AK48" s="32"/>
-      <c r="AL48" s="32"/>
-      <c r="AM48" s="32"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
       <c r="AO48" s="24"/>
       <c r="AP48" s="24"/>
@@ -3460,10 +3490,10 @@
     </row>
     <row r="49" spans="1:44" ht="15.75">
       <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17" t="s">
-        <v>55</v>
+      <c r="B49" s="17" t="s">
+        <v>52</v>
       </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -3496,10 +3526,10 @@
       <c r="AG49" s="25"/>
       <c r="AH49" s="25"/>
       <c r="AI49" s="24"/>
-      <c r="AJ49" s="32"/>
-      <c r="AK49" s="32"/>
-      <c r="AL49" s="32"/>
-      <c r="AM49" s="32"/>
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="24"/>
+      <c r="AL49" s="24"/>
+      <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
       <c r="AO49" s="24"/>
       <c r="AP49" s="24"/>
@@ -3510,7 +3540,7 @@
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
@@ -3558,7 +3588,7 @@
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
@@ -3604,10 +3634,10 @@
     </row>
     <row r="52" spans="1:44" ht="15.75">
       <c r="A52" s="16"/>
-      <c r="B52" s="17" t="s">
-        <v>58</v>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17" t="s">
+        <v>55</v>
       </c>
-      <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -3640,10 +3670,10 @@
       <c r="AG52" s="25"/>
       <c r="AH52" s="25"/>
       <c r="AI52" s="24"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="24"/>
-      <c r="AL52" s="24"/>
-      <c r="AM52" s="24"/>
+      <c r="AJ52" s="32"/>
+      <c r="AK52" s="32"/>
+      <c r="AL52" s="32"/>
+      <c r="AM52" s="32"/>
       <c r="AN52" s="24"/>
       <c r="AO52" s="24"/>
       <c r="AP52" s="24"/>
@@ -3651,11 +3681,11 @@
       <c r="AR52" s="1"/>
     </row>
     <row r="53" spans="1:44" ht="15.75">
-      <c r="A53" s="16" t="s">
-        <v>59</v>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>56</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -3688,20 +3718,20 @@
       <c r="AG53" s="25"/>
       <c r="AH53" s="25"/>
       <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="24"/>
-      <c r="AL53" s="33"/>
-      <c r="AM53" s="33"/>
-      <c r="AN53" s="33"/>
-      <c r="AO53" s="33"/>
-      <c r="AP53" s="33"/>
-      <c r="AQ53" s="33"/>
+      <c r="AJ53" s="32"/>
+      <c r="AK53" s="32"/>
+      <c r="AL53" s="32"/>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
       <c r="AR53" s="1"/>
     </row>
     <row r="54" spans="1:44" ht="15.75">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
@@ -3738,8 +3768,8 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
       <c r="AK54" s="24"/>
-      <c r="AL54" s="33"/>
-      <c r="AM54" s="33"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
       <c r="AN54" s="24"/>
       <c r="AO54" s="24"/>
       <c r="AP54" s="24"/>
@@ -3747,10 +3777,10 @@
       <c r="AR54" s="1"/>
     </row>
     <row r="55" spans="1:44" ht="15.75">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17" t="s">
-        <v>61</v>
+      <c r="A55" s="16" t="s">
+        <v>58</v>
       </c>
+      <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="19"/>
@@ -3786,18 +3816,18 @@
       <c r="AI55" s="24"/>
       <c r="AJ55" s="24"/>
       <c r="AK55" s="24"/>
-      <c r="AL55" s="24"/>
+      <c r="AL55" s="33"/>
       <c r="AM55" s="33"/>
       <c r="AN55" s="33"/>
       <c r="AO55" s="33"/>
       <c r="AP55" s="33"/>
-      <c r="AQ55" s="24"/>
+      <c r="AQ55" s="33"/>
       <c r="AR55" s="1"/>
     </row>
     <row r="56" spans="1:44" ht="15.75">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
@@ -3834,20 +3864,20 @@
       <c r="AI56" s="24"/>
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
-      <c r="AL56" s="24"/>
-      <c r="AM56" s="24"/>
+      <c r="AL56" s="33"/>
+      <c r="AM56" s="33"/>
       <c r="AN56" s="24"/>
-      <c r="AO56" s="25"/>
-      <c r="AP56" s="25"/>
-      <c r="AQ56" s="33"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
+      <c r="AQ56" s="24"/>
       <c r="AR56" s="1"/>
     </row>
     <row r="57" spans="1:44" ht="15.75">
       <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17" t="s">
-        <v>63</v>
+      <c r="B57" s="17" t="s">
+        <v>60</v>
       </c>
+      <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -3883,19 +3913,19 @@
       <c r="AJ57" s="24"/>
       <c r="AK57" s="24"/>
       <c r="AL57" s="24"/>
-      <c r="AM57" s="24"/>
-      <c r="AN57" s="24"/>
-      <c r="AO57" s="24"/>
+      <c r="AM57" s="33"/>
+      <c r="AN57" s="33"/>
+      <c r="AO57" s="33"/>
       <c r="AP57" s="33"/>
       <c r="AQ57" s="24"/>
       <c r="AR57" s="1"/>
     </row>
     <row r="58" spans="1:44" ht="15.75">
       <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17" t="s">
-        <v>64</v>
+      <c r="B58" s="17" t="s">
+        <v>61</v>
       </c>
+      <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -3933,17 +3963,17 @@
       <c r="AL58" s="24"/>
       <c r="AM58" s="24"/>
       <c r="AN58" s="24"/>
-      <c r="AO58" s="24"/>
-      <c r="AP58" s="24"/>
+      <c r="AO58" s="25"/>
+      <c r="AP58" s="25"/>
       <c r="AQ58" s="33"/>
       <c r="AR58" s="1"/>
     </row>
     <row r="59" spans="1:44" ht="15.75">
-      <c r="A59" s="16" t="s">
-        <v>65</v>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17" t="s">
+        <v>62</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -3953,45 +3983,45 @@
       <c r="J59" s="39"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="36"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="36"/>
-      <c r="AH59" s="36"/>
-      <c r="AI59" s="36"/>
-      <c r="AJ59" s="36"/>
-      <c r="AK59" s="36"/>
-      <c r="AL59" s="36"/>
-      <c r="AM59" s="36"/>
-      <c r="AN59" s="36"/>
-      <c r="AO59" s="36"/>
-      <c r="AP59" s="36"/>
-      <c r="AQ59" s="36"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="24"/>
+      <c r="AJ59" s="24"/>
+      <c r="AK59" s="24"/>
+      <c r="AL59" s="24"/>
+      <c r="AM59" s="24"/>
+      <c r="AN59" s="24"/>
+      <c r="AO59" s="24"/>
+      <c r="AP59" s="33"/>
+      <c r="AQ59" s="24"/>
       <c r="AR59" s="1"/>
     </row>
     <row r="60" spans="1:44" ht="15.75">
       <c r="A60" s="16"/>
-      <c r="B60" s="17" t="s">
-        <v>66</v>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17" t="s">
+        <v>63</v>
       </c>
-      <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -4027,18 +4057,18 @@
       <c r="AJ60" s="24"/>
       <c r="AK60" s="24"/>
       <c r="AL60" s="24"/>
-      <c r="AM60" s="36"/>
-      <c r="AN60" s="36"/>
-      <c r="AO60" s="36"/>
+      <c r="AM60" s="24"/>
+      <c r="AN60" s="24"/>
+      <c r="AO60" s="24"/>
       <c r="AP60" s="24"/>
-      <c r="AQ60" s="24"/>
+      <c r="AQ60" s="33"/>
       <c r="AR60" s="1"/>
     </row>
     <row r="61" spans="1:44" ht="15.75">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
-        <v>67</v>
+      <c r="A61" s="16" t="s">
+        <v>64</v>
       </c>
+      <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
@@ -4049,45 +4079,45 @@
       <c r="J61" s="39"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="24"/>
-      <c r="AA61" s="24"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="25"/>
-      <c r="AH61" s="25"/>
-      <c r="AI61" s="24"/>
-      <c r="AJ61" s="24"/>
-      <c r="AK61" s="24"/>
-      <c r="AL61" s="24"/>
-      <c r="AM61" s="24"/>
-      <c r="AN61" s="24"/>
-      <c r="AO61" s="24"/>
-      <c r="AP61" s="24"/>
-      <c r="AQ61" s="24"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="36"/>
+      <c r="AJ61" s="36"/>
+      <c r="AK61" s="36"/>
+      <c r="AL61" s="36"/>
+      <c r="AM61" s="36"/>
+      <c r="AN61" s="36"/>
+      <c r="AO61" s="36"/>
+      <c r="AP61" s="36"/>
+      <c r="AQ61" s="36"/>
       <c r="AR61" s="1"/>
     </row>
     <row r="62" spans="1:44" ht="15.75">
       <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17" t="s">
-        <v>68</v>
+      <c r="B62" s="17" t="s">
+        <v>65</v>
       </c>
+      <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -4097,18 +4127,18 @@
       <c r="J62" s="39"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="35"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="23"/>
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
       <c r="AA62" s="24"/>
@@ -4123,19 +4153,19 @@
       <c r="AJ62" s="24"/>
       <c r="AK62" s="24"/>
       <c r="AL62" s="24"/>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="24"/>
-      <c r="AO62" s="24"/>
+      <c r="AM62" s="36"/>
+      <c r="AN62" s="36"/>
+      <c r="AO62" s="36"/>
       <c r="AP62" s="24"/>
       <c r="AQ62" s="24"/>
       <c r="AR62" s="1"/>
     </row>
     <row r="63" spans="1:44" ht="15.75">
       <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17" t="s">
-        <v>69</v>
+      <c r="B63" s="17" t="s">
+        <v>66</v>
       </c>
+      <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -4157,24 +4187,24 @@
       <c r="V63" s="18"/>
       <c r="W63" s="18"/>
       <c r="X63" s="23"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
-      <c r="AB63" s="36"/>
-      <c r="AC63" s="36"/>
-      <c r="AD63" s="36"/>
-      <c r="AE63" s="36"/>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="36"/>
-      <c r="AI63" s="36"/>
-      <c r="AJ63" s="36"/>
-      <c r="AK63" s="36"/>
-      <c r="AL63" s="36"/>
-      <c r="AM63" s="36"/>
-      <c r="AN63" s="36"/>
-      <c r="AO63" s="36"/>
-      <c r="AP63" s="36"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="24"/>
+      <c r="AL63" s="24"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
       <c r="AQ63" s="24"/>
       <c r="AR63" s="1"/>
     </row>
@@ -4182,7 +4212,7 @@
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
@@ -4193,18 +4223,18 @@
       <c r="J64" s="39"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="23"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="35"/>
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
       <c r="AA64" s="24"/>
@@ -4221,15 +4251,17 @@
       <c r="AL64" s="24"/>
       <c r="AM64" s="24"/>
       <c r="AN64" s="24"/>
-      <c r="AO64" s="36"/>
-      <c r="AP64" s="36"/>
-      <c r="AQ64" s="36"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
+      <c r="AQ64" s="24"/>
       <c r="AR64" s="1"/>
     </row>
     <row r="65" spans="1:44" ht="15.75">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="C65" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="D65" s="18"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -4251,117 +4283,119 @@
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="23"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="25"/>
-      <c r="AH65" s="25"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="24"/>
-      <c r="AK65" s="24"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="24"/>
-      <c r="AN65" s="24"/>
-      <c r="AO65" s="24"/>
-      <c r="AP65" s="24"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="36"/>
+      <c r="AJ65" s="36"/>
+      <c r="AK65" s="36"/>
+      <c r="AL65" s="36"/>
+      <c r="AM65" s="36"/>
+      <c r="AN65" s="36"/>
+      <c r="AO65" s="36"/>
+      <c r="AP65" s="36"/>
       <c r="AQ65" s="24"/>
       <c r="AR65" s="1"/>
     </row>
     <row r="66" spans="1:44" ht="15.75">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="38"/>
-      <c r="AH66" s="38"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="24"/>
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="36"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="36"/>
       <c r="AR66" s="1"/>
     </row>
     <row r="67" spans="1:44" ht="15.75">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="38"/>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="24"/>
       <c r="AR67" s="1"/>
     </row>
     <row r="68" spans="1:44" ht="15.75">
@@ -47282,6 +47316,98 @@
       <c r="AQ1000" s="1"/>
       <c r="AR1000" s="1"/>
     </row>
+    <row r="1001" spans="1:44" ht="15.75">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="40"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="37"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+      <c r="AA1001" s="1"/>
+      <c r="AB1001" s="1"/>
+      <c r="AC1001" s="1"/>
+      <c r="AD1001" s="1"/>
+      <c r="AE1001" s="1"/>
+      <c r="AF1001" s="1"/>
+      <c r="AG1001" s="38"/>
+      <c r="AH1001" s="38"/>
+      <c r="AI1001" s="1"/>
+      <c r="AJ1001" s="1"/>
+      <c r="AK1001" s="1"/>
+      <c r="AL1001" s="1"/>
+      <c r="AM1001" s="1"/>
+      <c r="AN1001" s="1"/>
+      <c r="AO1001" s="1"/>
+      <c r="AP1001" s="1"/>
+      <c r="AQ1001" s="1"/>
+      <c r="AR1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:44" ht="15.75">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="40"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="37"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
+      <c r="AC1002" s="1"/>
+      <c r="AD1002" s="1"/>
+      <c r="AE1002" s="1"/>
+      <c r="AF1002" s="1"/>
+      <c r="AG1002" s="38"/>
+      <c r="AH1002" s="38"/>
+      <c r="AI1002" s="1"/>
+      <c r="AJ1002" s="1"/>
+      <c r="AK1002" s="1"/>
+      <c r="AL1002" s="1"/>
+      <c r="AM1002" s="1"/>
+      <c r="AN1002" s="1"/>
+      <c r="AO1002" s="1"/>
+      <c r="AP1002" s="1"/>
+      <c r="AQ1002" s="1"/>
+      <c r="AR1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Y1:AH1"/>

--- a/Phase 2/Project Plan/Project Plan Crawford Long.xlsx
+++ b/Phase 2/Project Plan/Project Plan Crawford Long.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcrittenden/Library/Mobile Documents/com~apple~CloudDocs/EPAP/EPAP-Documentation/Phase 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcrittenden/Library/Mobile Documents/com~apple~CloudDocs/EPAP/EPAP-Documentation/Phase 2/Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31160" windowHeight="19560"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31160" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
   <si>
     <t>Task or Deliverable - WBS</t>
   </si>
@@ -476,18 +476,15 @@
   <si>
     <t>4.2.8.1.2.2 View open transfer plan requests sent (don’t show accepted/rejected)</t>
   </si>
-  <si>
-    <t>If time available</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -507,6 +504,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -635,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -708,10 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -721,6 +721,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,14 +1040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1096,18 +1102,18 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="42">
+      <c r="Y1" s="45">
         <v>2018</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
@@ -3611,7 +3617,7 @@
       <c r="B45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -3657,13 +3663,13 @@
     <row r="46" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="47" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="19">
+      <c r="G46" s="48">
         <v>43131</v>
       </c>
       <c r="H46" s="20"/>
@@ -3851,13 +3857,13 @@
     <row r="50" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="47" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="19">
+      <c r="G50" s="48">
         <v>43138</v>
       </c>
       <c r="H50" s="20"/>
@@ -4045,13 +4051,13 @@
     <row r="54" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="47" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="19">
+      <c r="G54" s="48">
         <v>43145</v>
       </c>
       <c r="H54" s="20"/>
@@ -4239,14 +4245,14 @@
     <row r="58" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="19">
-        <v>43152</v>
+      <c r="G58" s="48">
+        <v>43159</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
@@ -4295,7 +4301,9 @@
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="G59" s="19">
+        <v>43152</v>
+      </c>
       <c r="H59" s="20"/>
       <c r="I59" s="21"/>
       <c r="J59" s="39"/>
@@ -4631,7 +4639,9 @@
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
+      <c r="G66" s="19">
+        <v>43152</v>
+      </c>
       <c r="H66" s="20"/>
       <c r="I66" s="21"/>
       <c r="J66" s="39"/>
@@ -4823,7 +4833,9 @@
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
+      <c r="G70" s="19">
+        <v>43159</v>
+      </c>
       <c r="H70" s="20"/>
       <c r="I70" s="21"/>
       <c r="J70" s="39"/>
@@ -5111,7 +5123,9 @@
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="G76" s="19">
+        <v>43159</v>
+      </c>
       <c r="H76" s="20"/>
       <c r="I76" s="21"/>
       <c r="J76" s="39"/>
@@ -5159,7 +5173,9 @@
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="G77" s="19">
+        <v>43159</v>
+      </c>
       <c r="H77" s="20"/>
       <c r="I77" s="21"/>
       <c r="J77" s="39"/>
@@ -5297,14 +5313,14 @@
     <row r="80" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="47" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="19">
-        <v>43159</v>
+      <c r="G80" s="48">
+        <v>43166</v>
       </c>
       <c r="H80" s="20"/>
       <c r="I80" s="21"/>
@@ -5635,14 +5651,14 @@
     <row r="87" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="47" t="s">
         <v>123</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="19">
-        <v>43166</v>
+      <c r="G87" s="48">
+        <v>43173</v>
       </c>
       <c r="H87" s="20"/>
       <c r="I87" s="21"/>
@@ -5734,7 +5750,7 @@
       <c r="A89" s="16"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
-      <c r="D89" s="44" t="s">
+      <c r="D89" s="42" t="s">
         <v>125</v>
       </c>
       <c r="E89" s="19"/>
@@ -5782,7 +5798,7 @@
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="19"/>
@@ -5830,7 +5846,7 @@
       <c r="A91" s="16"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
-      <c r="D91" s="44" t="s">
+      <c r="D91" s="42" t="s">
         <v>127</v>
       </c>
       <c r="E91" s="19"/>
@@ -5926,7 +5942,7 @@
       <c r="A93" s="16"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="42" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="19"/>
@@ -5974,7 +5990,7 @@
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="42" t="s">
         <v>130</v>
       </c>
       <c r="E94" s="19"/>
@@ -6213,14 +6229,14 @@
     <row r="99" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="16"/>
       <c r="B99" s="17"/>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="47" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
-      <c r="G99" s="19">
-        <v>43173</v>
+      <c r="G99" s="48">
+        <v>43180</v>
       </c>
       <c r="H99" s="20"/>
       <c r="I99" s="21"/>
@@ -6407,14 +6423,14 @@
     <row r="103" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="16"/>
       <c r="B103" s="17"/>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="47" t="s">
         <v>140</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
-      <c r="G103" s="19" t="s">
-        <v>152</v>
+      <c r="G103" s="48">
+        <v>43187</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="21"/>
@@ -6506,7 +6522,7 @@
       <c r="A105" s="16"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="43" t="s">
         <v>145</v>
       </c>
       <c r="E105" s="19"/>
@@ -6554,7 +6570,7 @@
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="43" t="s">
         <v>142</v>
       </c>
       <c r="E106" s="19"/>
@@ -6602,7 +6618,7 @@
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="44" t="s">
         <v>150</v>
       </c>
       <c r="E107" s="19"/>
@@ -6650,7 +6666,7 @@
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
-      <c r="D108" s="46" t="s">
+      <c r="D108" s="44" t="s">
         <v>151</v>
       </c>
       <c r="E108" s="19"/>
@@ -6698,7 +6714,7 @@
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
-      <c r="D109" s="45" t="s">
+      <c r="D109" s="43" t="s">
         <v>143</v>
       </c>
       <c r="E109" s="19"/>
@@ -6746,7 +6762,7 @@
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
-      <c r="D110" s="45" t="s">
+      <c r="D110" s="43" t="s">
         <v>144</v>
       </c>
       <c r="E110" s="19"/>
@@ -6842,7 +6858,7 @@
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="43" t="s">
         <v>147</v>
       </c>
       <c r="E112" s="19"/>
@@ -6890,7 +6906,7 @@
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
-      <c r="D113" s="45" t="s">
+      <c r="D113" s="43" t="s">
         <v>148</v>
       </c>
       <c r="E113" s="19"/>
@@ -6938,7 +6954,7 @@
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
-      <c r="D114" s="45" t="s">
+      <c r="D114" s="43" t="s">
         <v>149</v>
       </c>
       <c r="E114" s="19"/>

--- a/Phase 2/Project Plan/Project Plan Crawford Long.xlsx
+++ b/Phase 2/Project Plan/Project Plan Crawford Long.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcrittenden/Library/Mobile Documents/com~apple~CloudDocs/EPAP/EPAP-Documentation/Phase 2/Project Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkPeeler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31160" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
   <si>
     <t>Task or Deliverable - WBS</t>
   </si>
@@ -484,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -721,12 +721,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,40 +1044,40 @@
   <dimension ref="A1:AR1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="41" customWidth="1"/>
-    <col min="11" max="23" width="7.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" customWidth="1"/>
-    <col min="25" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" customWidth="1"/>
-    <col min="35" max="35" width="8.5" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" customWidth="1"/>
-    <col min="37" max="37" width="8.5" customWidth="1"/>
-    <col min="38" max="38" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="41" customWidth="1"/>
+    <col min="11" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="32" width="7.7109375" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" customWidth="1"/>
     <col min="39" max="39" width="8" customWidth="1"/>
-    <col min="40" max="40" width="7.5" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" customWidth="1"/>
     <col min="41" max="41" width="9" customWidth="1"/>
-    <col min="42" max="42" width="9.33203125" customWidth="1"/>
-    <col min="43" max="43" width="9.5" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" customWidth="1"/>
+    <col min="43" max="43" width="9.42578125" customWidth="1"/>
+    <col min="44" max="44" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="15.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1102,18 +1102,18 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="45">
+      <c r="Y1" s="47">
         <v>2018</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
@@ -1125,7 +1125,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="1"/>
     </row>
-    <row r="2" spans="1:44" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" ht="66" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="AR2" s="15"/>
     </row>
-    <row r="3" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="15.75">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="AQ3" s="24"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" ht="15.75">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
@@ -1359,7 +1359,7 @@
       <c r="AQ4" s="24"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" ht="15.75">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
@@ -1409,7 +1409,7 @@
       <c r="AQ5" s="24"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" ht="15.75">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -1469,7 +1469,7 @@
       <c r="AQ6" s="24"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" ht="15.75">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
@@ -1529,7 +1529,7 @@
       <c r="AQ7" s="24"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" ht="15.75">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
@@ -1589,7 +1589,7 @@
       <c r="AQ8" s="24"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" ht="15.75">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
@@ -1649,7 +1649,7 @@
       <c r="AQ9" s="24"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" ht="15.75">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
@@ -1709,7 +1709,7 @@
       <c r="AQ10" s="24"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" ht="15.75">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
@@ -1769,7 +1769,7 @@
       <c r="AQ11" s="24"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" ht="15.75">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1829,7 +1829,7 @@
       <c r="AQ12" s="24"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" ht="15.75">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1889,7 +1889,7 @@
       <c r="AQ13" s="24"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" ht="15.75">
       <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="AQ14" s="24"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>20</v>
@@ -1980,7 +1980,7 @@
       <c r="AQ15" s="24"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -2040,7 +2040,7 @@
       <c r="AQ16" s="24"/>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" ht="15.75">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
@@ -2100,7 +2100,7 @@
       <c r="AQ17" s="24"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
@@ -2160,7 +2160,7 @@
       <c r="AQ18" s="24"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" ht="15.75">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
         <v>24</v>
@@ -2208,7 +2208,7 @@
       <c r="AQ19" s="24"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
@@ -2268,7 +2268,7 @@
       <c r="AQ20" s="24"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2328,7 +2328,7 @@
       <c r="AQ21" s="24"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" ht="15.75">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2388,7 +2388,7 @@
       <c r="AQ22" s="24"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" ht="15.75">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
@@ -2448,7 +2448,7 @@
       <c r="AQ23" s="24"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" ht="15.75">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
@@ -2508,7 +2508,7 @@
       <c r="AQ24" s="24"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" ht="15.75">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
         <v>30</v>
@@ -2556,7 +2556,7 @@
       <c r="AQ25" s="24"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" ht="15.75">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
@@ -2616,7 +2616,7 @@
       <c r="AQ26" s="24"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" ht="15.75">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2676,7 +2676,7 @@
       <c r="AQ27" s="24"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" ht="15.75">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
@@ -2736,7 +2736,7 @@
       <c r="AQ28" s="24"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" ht="15.75">
       <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="AQ29" s="24"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" ht="15.75">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
         <v>36</v>
@@ -2834,7 +2834,7 @@
       <c r="AQ30" s="24"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" ht="31.5">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
@@ -2894,7 +2894,7 @@
       <c r="AQ31" s="24"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
@@ -2954,7 +2954,7 @@
       <c r="AQ32" s="24"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" ht="15.75">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
         <v>39</v>
@@ -3012,7 +3012,7 @@
       <c r="AQ33" s="24"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
@@ -3072,7 +3072,7 @@
       <c r="AQ34" s="24"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" ht="15.75">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
         <v>41</v>
@@ -3119,7 +3119,7 @@
       <c r="AQ35" s="24"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" ht="15.75">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
@@ -3177,7 +3177,7 @@
       <c r="AQ36" s="24"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" ht="15.75">
       <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
         <v>43</v>
@@ -3228,7 +3228,7 @@
       <c r="AQ37" s="24"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" ht="15.75">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
@@ -3288,7 +3288,7 @@
       <c r="AQ38" s="24"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" ht="15.75">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
@@ -3348,7 +3348,7 @@
       <c r="AQ39" s="24"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" ht="15.75">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
@@ -3408,7 +3408,7 @@
       <c r="AQ40" s="24"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" ht="31.5">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
         <v>47</v>
@@ -3468,7 +3468,7 @@
       <c r="AQ41" s="24"/>
       <c r="AR41" s="1"/>
     </row>
-    <row r="42" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" ht="15.75">
       <c r="A42" s="16" t="s">
         <v>48</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="AQ42" s="24"/>
       <c r="AR42" s="1"/>
     </row>
-    <row r="43" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" ht="15.75">
       <c r="A43" s="16"/>
       <c r="B43" s="17" t="s">
         <v>49</v>
@@ -3564,7 +3564,7 @@
       <c r="AQ43" s="24"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" ht="15.75">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
@@ -3612,12 +3612,12 @@
       <c r="AQ44" s="24"/>
       <c r="AR44" s="1"/>
     </row>
-    <row r="45" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" ht="15.75">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="47"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -3660,16 +3660,16 @@
       <c r="AQ45" s="24"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" ht="15.75">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="48">
+      <c r="G46" s="46">
         <v>43131</v>
       </c>
       <c r="H46" s="20"/>
@@ -3710,7 +3710,7 @@
       <c r="AQ46" s="24"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" ht="15.75">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3758,7 +3758,7 @@
       <c r="AQ47" s="24"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" ht="15.75">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3806,7 +3806,7 @@
       <c r="AQ48" s="24"/>
       <c r="AR48" s="1"/>
     </row>
-    <row r="49" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" ht="15.75">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3854,16 +3854,16 @@
       <c r="AQ49" s="24"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" ht="15.75">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="48">
+      <c r="G50" s="46">
         <v>43138</v>
       </c>
       <c r="H50" s="20"/>
@@ -3904,7 +3904,7 @@
       <c r="AQ50" s="24"/>
       <c r="AR50" s="1"/>
     </row>
-    <row r="51" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" ht="15.75">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -3952,7 +3952,7 @@
       <c r="AQ51" s="24"/>
       <c r="AR51" s="1"/>
     </row>
-    <row r="52" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" ht="15.75">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4000,7 +4000,7 @@
       <c r="AQ52" s="24"/>
       <c r="AR52" s="1"/>
     </row>
-    <row r="53" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" ht="15.75">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4048,21 +4048,27 @@
       <c r="AQ53" s="24"/>
       <c r="AR53" s="1"/>
     </row>
-    <row r="54" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" ht="15.75">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="45" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="48">
+      <c r="E54" s="19">
+        <v>43135</v>
+      </c>
+      <c r="F54" s="19">
+        <v>43135</v>
+      </c>
+      <c r="G54" s="46">
         <v>43145</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
-      <c r="J54" s="39"/>
+      <c r="J54" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -4098,7 +4104,7 @@
       <c r="AQ54" s="24"/>
       <c r="AR54" s="1"/>
     </row>
-    <row r="55" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" ht="15.75">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4146,7 +4152,7 @@
       <c r="AQ55" s="24"/>
       <c r="AR55" s="1"/>
     </row>
-    <row r="56" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" ht="15.75">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4194,7 +4200,7 @@
       <c r="AQ56" s="24"/>
       <c r="AR56" s="1"/>
     </row>
-    <row r="57" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" ht="15.75">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4242,16 +4248,16 @@
       <c r="AQ57" s="24"/>
       <c r="AR57" s="1"/>
     </row>
-    <row r="58" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" ht="15.75">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="45" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="48">
+      <c r="G58" s="46">
         <v>43159</v>
       </c>
       <c r="H58" s="20"/>
@@ -4292,7 +4298,7 @@
       <c r="AQ58" s="24"/>
       <c r="AR58" s="1"/>
     </row>
-    <row r="59" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" ht="15.75">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4342,7 +4348,7 @@
       <c r="AQ59" s="24"/>
       <c r="AR59" s="1"/>
     </row>
-    <row r="60" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" ht="15.75">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4390,7 +4396,7 @@
       <c r="AQ60" s="24"/>
       <c r="AR60" s="1"/>
     </row>
-    <row r="61" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" ht="15.75">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4438,7 +4444,7 @@
       <c r="AQ61" s="24"/>
       <c r="AR61" s="1"/>
     </row>
-    <row r="62" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" ht="15.75">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4486,7 +4492,7 @@
       <c r="AQ62" s="24"/>
       <c r="AR62" s="1"/>
     </row>
-    <row r="63" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" ht="15.75">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4534,7 +4540,7 @@
       <c r="AQ63" s="24"/>
       <c r="AR63" s="1"/>
     </row>
-    <row r="64" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" ht="15.75">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4582,7 +4588,7 @@
       <c r="AQ64" s="24"/>
       <c r="AR64" s="1"/>
     </row>
-    <row r="65" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" ht="15.75">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -4630,7 +4636,7 @@
       <c r="AQ65" s="24"/>
       <c r="AR65" s="1"/>
     </row>
-    <row r="66" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" ht="15.75">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -4680,7 +4686,7 @@
       <c r="AQ66" s="24"/>
       <c r="AR66" s="1"/>
     </row>
-    <row r="67" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" ht="15.75">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -4728,7 +4734,7 @@
       <c r="AQ67" s="24"/>
       <c r="AR67" s="1"/>
     </row>
-    <row r="68" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" ht="15.75">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -4776,7 +4782,7 @@
       <c r="AQ68" s="24"/>
       <c r="AR68" s="1"/>
     </row>
-    <row r="69" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" ht="15.75">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -4824,7 +4830,7 @@
       <c r="AQ69" s="24"/>
       <c r="AR69" s="1"/>
     </row>
-    <row r="70" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" ht="15.75">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -4874,7 +4880,7 @@
       <c r="AQ70" s="24"/>
       <c r="AR70" s="1"/>
     </row>
-    <row r="71" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" ht="15.75">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4922,7 +4928,7 @@
       <c r="AQ71" s="24"/>
       <c r="AR71" s="1"/>
     </row>
-    <row r="72" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" ht="15.75">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -4970,7 +4976,7 @@
       <c r="AQ72" s="24"/>
       <c r="AR72" s="1"/>
     </row>
-    <row r="73" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" ht="15.75">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -5018,7 +5024,7 @@
       <c r="AQ73" s="24"/>
       <c r="AR73" s="1"/>
     </row>
-    <row r="74" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" ht="15.75">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -5066,7 +5072,7 @@
       <c r="AQ74" s="24"/>
       <c r="AR74" s="1"/>
     </row>
-    <row r="75" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" ht="15.75">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -5114,7 +5120,7 @@
       <c r="AQ75" s="24"/>
       <c r="AR75" s="1"/>
     </row>
-    <row r="76" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" ht="15.75">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -5164,7 +5170,7 @@
       <c r="AQ76" s="24"/>
       <c r="AR76" s="1"/>
     </row>
-    <row r="77" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" ht="15.75">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -5214,7 +5220,7 @@
       <c r="AQ77" s="24"/>
       <c r="AR77" s="1"/>
     </row>
-    <row r="78" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" ht="15.75">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -5262,7 +5268,7 @@
       <c r="AQ78" s="24"/>
       <c r="AR78" s="1"/>
     </row>
-    <row r="79" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" ht="15.75">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -5310,16 +5316,16 @@
       <c r="AQ79" s="24"/>
       <c r="AR79" s="1"/>
     </row>
-    <row r="80" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" ht="15.75">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="48">
+      <c r="G80" s="46">
         <v>43166</v>
       </c>
       <c r="H80" s="20"/>
@@ -5360,7 +5366,7 @@
       <c r="AQ80" s="24"/>
       <c r="AR80" s="1"/>
     </row>
-    <row r="81" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" ht="15.75">
       <c r="A81" s="16"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -5408,7 +5414,7 @@
       <c r="AQ81" s="24"/>
       <c r="AR81" s="1"/>
     </row>
-    <row r="82" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" ht="15.75">
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -5456,7 +5462,7 @@
       <c r="AQ82" s="24"/>
       <c r="AR82" s="1"/>
     </row>
-    <row r="83" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" ht="15.75">
       <c r="A83" s="16"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -5504,7 +5510,7 @@
       <c r="AQ83" s="24"/>
       <c r="AR83" s="1"/>
     </row>
-    <row r="84" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" ht="15.75">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -5552,7 +5558,7 @@
       <c r="AQ84" s="24"/>
       <c r="AR84" s="1"/>
     </row>
-    <row r="85" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" ht="15.75">
       <c r="A85" s="16"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -5600,7 +5606,7 @@
       <c r="AQ85" s="24"/>
       <c r="AR85" s="1"/>
     </row>
-    <row r="86" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" ht="15.75">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -5648,16 +5654,16 @@
       <c r="AQ86" s="24"/>
       <c r="AR86" s="1"/>
     </row>
-    <row r="87" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" ht="15.75">
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="45" t="s">
         <v>123</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="48">
+      <c r="G87" s="46">
         <v>43173</v>
       </c>
       <c r="H87" s="20"/>
@@ -5698,7 +5704,7 @@
       <c r="AQ87" s="24"/>
       <c r="AR87" s="1"/>
     </row>
-    <row r="88" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" ht="15.75">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -5746,7 +5752,7 @@
       <c r="AQ88" s="24"/>
       <c r="AR88" s="1"/>
     </row>
-    <row r="89" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" ht="15.75">
       <c r="A89" s="16"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -5794,7 +5800,7 @@
       <c r="AQ89" s="24"/>
       <c r="AR89" s="1"/>
     </row>
-    <row r="90" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" ht="15.75">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -5842,7 +5848,7 @@
       <c r="AQ90" s="24"/>
       <c r="AR90" s="1"/>
     </row>
-    <row r="91" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" ht="15.75">
       <c r="A91" s="16"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -5890,7 +5896,7 @@
       <c r="AQ91" s="24"/>
       <c r="AR91" s="1"/>
     </row>
-    <row r="92" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" ht="15.75">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -5938,7 +5944,7 @@
       <c r="AQ92" s="24"/>
       <c r="AR92" s="1"/>
     </row>
-    <row r="93" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" ht="15.75">
       <c r="A93" s="16"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -5986,7 +5992,7 @@
       <c r="AQ93" s="24"/>
       <c r="AR93" s="1"/>
     </row>
-    <row r="94" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" ht="15.75">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -6034,7 +6040,7 @@
       <c r="AQ94" s="24"/>
       <c r="AR94" s="1"/>
     </row>
-    <row r="95" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" ht="15.75">
       <c r="A95" s="16"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -6082,7 +6088,7 @@
       <c r="AQ95" s="24"/>
       <c r="AR95" s="1"/>
     </row>
-    <row r="96" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" ht="15.75">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -6130,7 +6136,7 @@
       <c r="AQ96" s="24"/>
       <c r="AR96" s="1"/>
     </row>
-    <row r="97" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" ht="15.75">
       <c r="A97" s="16"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -6178,7 +6184,7 @@
       <c r="AQ97" s="24"/>
       <c r="AR97" s="1"/>
     </row>
-    <row r="98" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" ht="15.75">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -6226,16 +6232,16 @@
       <c r="AQ98" s="24"/>
       <c r="AR98" s="1"/>
     </row>
-    <row r="99" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" ht="15.75">
       <c r="A99" s="16"/>
       <c r="B99" s="17"/>
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="45" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
-      <c r="G99" s="48">
+      <c r="G99" s="46">
         <v>43180</v>
       </c>
       <c r="H99" s="20"/>
@@ -6276,7 +6282,7 @@
       <c r="AQ99" s="24"/>
       <c r="AR99" s="1"/>
     </row>
-    <row r="100" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" ht="15.75">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -6324,7 +6330,7 @@
       <c r="AQ100" s="24"/>
       <c r="AR100" s="1"/>
     </row>
-    <row r="101" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" ht="15.75">
       <c r="A101" s="16"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -6372,7 +6378,7 @@
       <c r="AQ101" s="24"/>
       <c r="AR101" s="1"/>
     </row>
-    <row r="102" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" ht="15.75">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -6420,16 +6426,16 @@
       <c r="AQ102" s="24"/>
       <c r="AR102" s="1"/>
     </row>
-    <row r="103" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" ht="15.75">
       <c r="A103" s="16"/>
       <c r="B103" s="17"/>
-      <c r="C103" s="47" t="s">
+      <c r="C103" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
-      <c r="G103" s="48">
+      <c r="G103" s="46">
         <v>43187</v>
       </c>
       <c r="H103" s="20"/>
@@ -6470,7 +6476,7 @@
       <c r="AQ103" s="24"/>
       <c r="AR103" s="1"/>
     </row>
-    <row r="104" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" ht="15.75">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -6518,7 +6524,7 @@
       <c r="AQ104" s="24"/>
       <c r="AR104" s="1"/>
     </row>
-    <row r="105" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" ht="15.75">
       <c r="A105" s="16"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -6566,7 +6572,7 @@
       <c r="AQ105" s="24"/>
       <c r="AR105" s="1"/>
     </row>
-    <row r="106" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" ht="15.75">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -6614,7 +6620,7 @@
       <c r="AQ106" s="24"/>
       <c r="AR106" s="1"/>
     </row>
-    <row r="107" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" ht="15.75">
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -6662,7 +6668,7 @@
       <c r="AQ107" s="24"/>
       <c r="AR107" s="1"/>
     </row>
-    <row r="108" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" ht="15.75">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -6710,7 +6716,7 @@
       <c r="AQ108" s="24"/>
       <c r="AR108" s="1"/>
     </row>
-    <row r="109" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" ht="15.75">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -6758,7 +6764,7 @@
       <c r="AQ109" s="24"/>
       <c r="AR109" s="1"/>
     </row>
-    <row r="110" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" ht="15.75">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -6806,7 +6812,7 @@
       <c r="AQ110" s="24"/>
       <c r="AR110" s="1"/>
     </row>
-    <row r="111" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" ht="15.75">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -6854,7 +6860,7 @@
       <c r="AQ111" s="24"/>
       <c r="AR111" s="1"/>
     </row>
-    <row r="112" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" ht="15.75">
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -6902,7 +6908,7 @@
       <c r="AQ112" s="24"/>
       <c r="AR112" s="1"/>
     </row>
-    <row r="113" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:44" ht="15.75">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -6950,7 +6956,7 @@
       <c r="AQ113" s="24"/>
       <c r="AR113" s="1"/>
     </row>
-    <row r="114" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:44" ht="15.75">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -6998,7 +7004,7 @@
       <c r="AQ114" s="24"/>
       <c r="AR114" s="1"/>
     </row>
-    <row r="115" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:44" ht="15.75">
       <c r="A115" s="16"/>
       <c r="B115" s="17" t="s">
         <v>52</v>
@@ -7046,7 +7052,7 @@
       <c r="AQ115" s="24"/>
       <c r="AR115" s="1"/>
     </row>
-    <row r="116" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" ht="15.75">
       <c r="A116" s="16"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17" t="s">
@@ -7094,7 +7100,7 @@
       <c r="AQ116" s="24"/>
       <c r="AR116" s="1"/>
     </row>
-    <row r="117" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" ht="15.75">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17" t="s">
@@ -7142,7 +7148,7 @@
       <c r="AQ117" s="24"/>
       <c r="AR117" s="1"/>
     </row>
-    <row r="118" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:44" ht="15.75">
       <c r="A118" s="16"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17" t="s">
@@ -7190,7 +7196,7 @@
       <c r="AQ118" s="24"/>
       <c r="AR118" s="1"/>
     </row>
-    <row r="119" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:44" ht="15.75">
       <c r="A119" s="16"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17" t="s">
@@ -7238,7 +7244,7 @@
       <c r="AQ119" s="24"/>
       <c r="AR119" s="1"/>
     </row>
-    <row r="120" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:44" ht="15.75">
       <c r="A120" s="16"/>
       <c r="B120" s="17" t="s">
         <v>57</v>
@@ -7286,7 +7292,7 @@
       <c r="AQ120" s="24"/>
       <c r="AR120" s="1"/>
     </row>
-    <row r="121" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:44" ht="15.75">
       <c r="A121" s="16" t="s">
         <v>58</v>
       </c>
@@ -7334,7 +7340,7 @@
       <c r="AQ121" s="33"/>
       <c r="AR121" s="1"/>
     </row>
-    <row r="122" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:44" ht="15.75">
       <c r="A122" s="16"/>
       <c r="B122" s="17" t="s">
         <v>59</v>
@@ -7382,7 +7388,7 @@
       <c r="AQ122" s="24"/>
       <c r="AR122" s="1"/>
     </row>
-    <row r="123" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:44" ht="15.75">
       <c r="A123" s="16"/>
       <c r="B123" s="17" t="s">
         <v>60</v>
@@ -7430,7 +7436,7 @@
       <c r="AQ123" s="24"/>
       <c r="AR123" s="1"/>
     </row>
-    <row r="124" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:44" ht="15.75">
       <c r="A124" s="16"/>
       <c r="B124" s="17" t="s">
         <v>61</v>
@@ -7478,7 +7484,7 @@
       <c r="AQ124" s="33"/>
       <c r="AR124" s="1"/>
     </row>
-    <row r="125" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:44" ht="15.75">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17" t="s">
@@ -7526,7 +7532,7 @@
       <c r="AQ125" s="24"/>
       <c r="AR125" s="1"/>
     </row>
-    <row r="126" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:44" ht="15.75">
       <c r="A126" s="16"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17" t="s">
@@ -7574,7 +7580,7 @@
       <c r="AQ126" s="33"/>
       <c r="AR126" s="1"/>
     </row>
-    <row r="127" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:44" ht="15.75">
       <c r="A127" s="16" t="s">
         <v>64</v>
       </c>
@@ -7622,7 +7628,7 @@
       <c r="AQ127" s="36"/>
       <c r="AR127" s="1"/>
     </row>
-    <row r="128" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:44" ht="15.75">
       <c r="A128" s="16"/>
       <c r="B128" s="17" t="s">
         <v>65</v>
@@ -7670,7 +7676,7 @@
       <c r="AQ128" s="24"/>
       <c r="AR128" s="1"/>
     </row>
-    <row r="129" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:44" ht="15.75">
       <c r="A129" s="16"/>
       <c r="B129" s="17" t="s">
         <v>66</v>
@@ -7718,7 +7724,7 @@
       <c r="AQ129" s="24"/>
       <c r="AR129" s="1"/>
     </row>
-    <row r="130" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:44" ht="15.75">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17" t="s">
@@ -7766,7 +7772,7 @@
       <c r="AQ130" s="24"/>
       <c r="AR130" s="1"/>
     </row>
-    <row r="131" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:44" ht="15.75">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17" t="s">
@@ -7814,7 +7820,7 @@
       <c r="AQ131" s="24"/>
       <c r="AR131" s="1"/>
     </row>
-    <row r="132" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:44" ht="15.75">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17" t="s">
@@ -7862,7 +7868,7 @@
       <c r="AQ132" s="36"/>
       <c r="AR132" s="1"/>
     </row>
-    <row r="133" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:44" ht="15.75">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -7908,7 +7914,7 @@
       <c r="AQ133" s="24"/>
       <c r="AR133" s="1"/>
     </row>
-    <row r="134" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" ht="15.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7954,7 +7960,7 @@
       <c r="AQ134" s="1"/>
       <c r="AR134" s="1"/>
     </row>
-    <row r="135" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" ht="15.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8000,7 +8006,7 @@
       <c r="AQ135" s="1"/>
       <c r="AR135" s="1"/>
     </row>
-    <row r="136" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" ht="15.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8046,7 +8052,7 @@
       <c r="AQ136" s="1"/>
       <c r="AR136" s="1"/>
     </row>
-    <row r="137" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" ht="15.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8092,7 +8098,7 @@
       <c r="AQ137" s="1"/>
       <c r="AR137" s="1"/>
     </row>
-    <row r="138" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" ht="15.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8138,7 +8144,7 @@
       <c r="AQ138" s="1"/>
       <c r="AR138" s="1"/>
     </row>
-    <row r="139" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" ht="15.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8184,7 +8190,7 @@
       <c r="AQ139" s="1"/>
       <c r="AR139" s="1"/>
     </row>
-    <row r="140" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:44" ht="15.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8230,7 +8236,7 @@
       <c r="AQ140" s="1"/>
       <c r="AR140" s="1"/>
     </row>
-    <row r="141" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:44" ht="15.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8276,7 +8282,7 @@
       <c r="AQ141" s="1"/>
       <c r="AR141" s="1"/>
     </row>
-    <row r="142" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:44" ht="15.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8322,7 +8328,7 @@
       <c r="AQ142" s="1"/>
       <c r="AR142" s="1"/>
     </row>
-    <row r="143" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:44" ht="15.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8368,7 +8374,7 @@
       <c r="AQ143" s="1"/>
       <c r="AR143" s="1"/>
     </row>
-    <row r="144" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:44" ht="15.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8414,7 +8420,7 @@
       <c r="AQ144" s="1"/>
       <c r="AR144" s="1"/>
     </row>
-    <row r="145" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" ht="15.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8460,7 +8466,7 @@
       <c r="AQ145" s="1"/>
       <c r="AR145" s="1"/>
     </row>
-    <row r="146" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:44" ht="15.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8506,7 +8512,7 @@
       <c r="AQ146" s="1"/>
       <c r="AR146" s="1"/>
     </row>
-    <row r="147" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" ht="15.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8552,7 +8558,7 @@
       <c r="AQ147" s="1"/>
       <c r="AR147" s="1"/>
     </row>
-    <row r="148" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:44" ht="15.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8598,7 +8604,7 @@
       <c r="AQ148" s="1"/>
       <c r="AR148" s="1"/>
     </row>
-    <row r="149" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:44" ht="15.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8644,7 +8650,7 @@
       <c r="AQ149" s="1"/>
       <c r="AR149" s="1"/>
     </row>
-    <row r="150" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:44" ht="15.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8690,7 +8696,7 @@
       <c r="AQ150" s="1"/>
       <c r="AR150" s="1"/>
     </row>
-    <row r="151" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" ht="15.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8736,7 +8742,7 @@
       <c r="AQ151" s="1"/>
       <c r="AR151" s="1"/>
     </row>
-    <row r="152" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:44" ht="15.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8782,7 +8788,7 @@
       <c r="AQ152" s="1"/>
       <c r="AR152" s="1"/>
     </row>
-    <row r="153" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:44" ht="15.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8828,7 +8834,7 @@
       <c r="AQ153" s="1"/>
       <c r="AR153" s="1"/>
     </row>
-    <row r="154" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:44" ht="15.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8874,7 +8880,7 @@
       <c r="AQ154" s="1"/>
       <c r="AR154" s="1"/>
     </row>
-    <row r="155" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:44" ht="15.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8920,7 +8926,7 @@
       <c r="AQ155" s="1"/>
       <c r="AR155" s="1"/>
     </row>
-    <row r="156" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:44" ht="15.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8966,7 +8972,7 @@
       <c r="AQ156" s="1"/>
       <c r="AR156" s="1"/>
     </row>
-    <row r="157" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:44" ht="15.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9012,7 +9018,7 @@
       <c r="AQ157" s="1"/>
       <c r="AR157" s="1"/>
     </row>
-    <row r="158" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" ht="15.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9058,7 +9064,7 @@
       <c r="AQ158" s="1"/>
       <c r="AR158" s="1"/>
     </row>
-    <row r="159" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:44" ht="15.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9104,7 +9110,7 @@
       <c r="AQ159" s="1"/>
       <c r="AR159" s="1"/>
     </row>
-    <row r="160" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:44" ht="15.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9150,7 +9156,7 @@
       <c r="AQ160" s="1"/>
       <c r="AR160" s="1"/>
     </row>
-    <row r="161" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" ht="15.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9196,7 +9202,7 @@
       <c r="AQ161" s="1"/>
       <c r="AR161" s="1"/>
     </row>
-    <row r="162" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" ht="15.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9242,7 +9248,7 @@
       <c r="AQ162" s="1"/>
       <c r="AR162" s="1"/>
     </row>
-    <row r="163" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" ht="15.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9288,7 +9294,7 @@
       <c r="AQ163" s="1"/>
       <c r="AR163" s="1"/>
     </row>
-    <row r="164" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" ht="15.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9334,7 +9340,7 @@
       <c r="AQ164" s="1"/>
       <c r="AR164" s="1"/>
     </row>
-    <row r="165" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" ht="15.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9380,7 +9386,7 @@
       <c r="AQ165" s="1"/>
       <c r="AR165" s="1"/>
     </row>
-    <row r="166" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:44" ht="15.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9426,7 +9432,7 @@
       <c r="AQ166" s="1"/>
       <c r="AR166" s="1"/>
     </row>
-    <row r="167" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:44" ht="15.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9472,7 +9478,7 @@
       <c r="AQ167" s="1"/>
       <c r="AR167" s="1"/>
     </row>
-    <row r="168" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:44" ht="15.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9518,7 +9524,7 @@
       <c r="AQ168" s="1"/>
       <c r="AR168" s="1"/>
     </row>
-    <row r="169" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:44" ht="15.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9564,7 +9570,7 @@
       <c r="AQ169" s="1"/>
       <c r="AR169" s="1"/>
     </row>
-    <row r="170" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" ht="15.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9610,7 +9616,7 @@
       <c r="AQ170" s="1"/>
       <c r="AR170" s="1"/>
     </row>
-    <row r="171" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" ht="15.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9656,7 +9662,7 @@
       <c r="AQ171" s="1"/>
       <c r="AR171" s="1"/>
     </row>
-    <row r="172" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" ht="15.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9702,7 +9708,7 @@
       <c r="AQ172" s="1"/>
       <c r="AR172" s="1"/>
     </row>
-    <row r="173" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" ht="15.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9748,7 +9754,7 @@
       <c r="AQ173" s="1"/>
       <c r="AR173" s="1"/>
     </row>
-    <row r="174" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" ht="15.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9794,7 +9800,7 @@
       <c r="AQ174" s="1"/>
       <c r="AR174" s="1"/>
     </row>
-    <row r="175" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" ht="15.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9840,7 +9846,7 @@
       <c r="AQ175" s="1"/>
       <c r="AR175" s="1"/>
     </row>
-    <row r="176" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" ht="15.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9886,7 +9892,7 @@
       <c r="AQ176" s="1"/>
       <c r="AR176" s="1"/>
     </row>
-    <row r="177" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:44" ht="15.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9932,7 +9938,7 @@
       <c r="AQ177" s="1"/>
       <c r="AR177" s="1"/>
     </row>
-    <row r="178" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:44" ht="15.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9978,7 +9984,7 @@
       <c r="AQ178" s="1"/>
       <c r="AR178" s="1"/>
     </row>
-    <row r="179" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:44" ht="15.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10024,7 +10030,7 @@
       <c r="AQ179" s="1"/>
       <c r="AR179" s="1"/>
     </row>
-    <row r="180" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" ht="15.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10070,7 +10076,7 @@
       <c r="AQ180" s="1"/>
       <c r="AR180" s="1"/>
     </row>
-    <row r="181" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" ht="15.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10116,7 +10122,7 @@
       <c r="AQ181" s="1"/>
       <c r="AR181" s="1"/>
     </row>
-    <row r="182" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:44" ht="15.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10162,7 +10168,7 @@
       <c r="AQ182" s="1"/>
       <c r="AR182" s="1"/>
     </row>
-    <row r="183" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:44" ht="15.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10208,7 +10214,7 @@
       <c r="AQ183" s="1"/>
       <c r="AR183" s="1"/>
     </row>
-    <row r="184" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:44" ht="15.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10254,7 +10260,7 @@
       <c r="AQ184" s="1"/>
       <c r="AR184" s="1"/>
     </row>
-    <row r="185" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:44" ht="15.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10300,7 +10306,7 @@
       <c r="AQ185" s="1"/>
       <c r="AR185" s="1"/>
     </row>
-    <row r="186" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:44" ht="15.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10346,7 +10352,7 @@
       <c r="AQ186" s="1"/>
       <c r="AR186" s="1"/>
     </row>
-    <row r="187" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:44" ht="15.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10392,7 +10398,7 @@
       <c r="AQ187" s="1"/>
       <c r="AR187" s="1"/>
     </row>
-    <row r="188" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:44" ht="15.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10438,7 +10444,7 @@
       <c r="AQ188" s="1"/>
       <c r="AR188" s="1"/>
     </row>
-    <row r="189" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:44" ht="15.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10484,7 +10490,7 @@
       <c r="AQ189" s="1"/>
       <c r="AR189" s="1"/>
     </row>
-    <row r="190" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:44" ht="15.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10530,7 +10536,7 @@
       <c r="AQ190" s="1"/>
       <c r="AR190" s="1"/>
     </row>
-    <row r="191" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:44" ht="15.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10576,7 +10582,7 @@
       <c r="AQ191" s="1"/>
       <c r="AR191" s="1"/>
     </row>
-    <row r="192" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:44" ht="15.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10622,7 +10628,7 @@
       <c r="AQ192" s="1"/>
       <c r="AR192" s="1"/>
     </row>
-    <row r="193" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" ht="15.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10668,7 +10674,7 @@
       <c r="AQ193" s="1"/>
       <c r="AR193" s="1"/>
     </row>
-    <row r="194" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" ht="15.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10714,7 +10720,7 @@
       <c r="AQ194" s="1"/>
       <c r="AR194" s="1"/>
     </row>
-    <row r="195" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" ht="15.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10760,7 +10766,7 @@
       <c r="AQ195" s="1"/>
       <c r="AR195" s="1"/>
     </row>
-    <row r="196" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" ht="15.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10806,7 +10812,7 @@
       <c r="AQ196" s="1"/>
       <c r="AR196" s="1"/>
     </row>
-    <row r="197" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" ht="15.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10852,7 +10858,7 @@
       <c r="AQ197" s="1"/>
       <c r="AR197" s="1"/>
     </row>
-    <row r="198" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" ht="15.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10898,7 +10904,7 @@
       <c r="AQ198" s="1"/>
       <c r="AR198" s="1"/>
     </row>
-    <row r="199" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" ht="15.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10944,7 +10950,7 @@
       <c r="AQ199" s="1"/>
       <c r="AR199" s="1"/>
     </row>
-    <row r="200" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" ht="15.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10990,7 +10996,7 @@
       <c r="AQ200" s="1"/>
       <c r="AR200" s="1"/>
     </row>
-    <row r="201" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" ht="15.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11036,7 +11042,7 @@
       <c r="AQ201" s="1"/>
       <c r="AR201" s="1"/>
     </row>
-    <row r="202" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" ht="15.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11082,7 +11088,7 @@
       <c r="AQ202" s="1"/>
       <c r="AR202" s="1"/>
     </row>
-    <row r="203" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" ht="15.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -11128,7 +11134,7 @@
       <c r="AQ203" s="1"/>
       <c r="AR203" s="1"/>
     </row>
-    <row r="204" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" ht="15.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -11174,7 +11180,7 @@
       <c r="AQ204" s="1"/>
       <c r="AR204" s="1"/>
     </row>
-    <row r="205" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" ht="15.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11220,7 +11226,7 @@
       <c r="AQ205" s="1"/>
       <c r="AR205" s="1"/>
     </row>
-    <row r="206" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" ht="15.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -11266,7 +11272,7 @@
       <c r="AQ206" s="1"/>
       <c r="AR206" s="1"/>
     </row>
-    <row r="207" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" ht="15.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11312,7 +11318,7 @@
       <c r="AQ207" s="1"/>
       <c r="AR207" s="1"/>
     </row>
-    <row r="208" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" ht="15.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -11358,7 +11364,7 @@
       <c r="AQ208" s="1"/>
       <c r="AR208" s="1"/>
     </row>
-    <row r="209" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" ht="15.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -11404,7 +11410,7 @@
       <c r="AQ209" s="1"/>
       <c r="AR209" s="1"/>
     </row>
-    <row r="210" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" ht="15.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11450,7 +11456,7 @@
       <c r="AQ210" s="1"/>
       <c r="AR210" s="1"/>
     </row>
-    <row r="211" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" ht="15.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -11496,7 +11502,7 @@
       <c r="AQ211" s="1"/>
       <c r="AR211" s="1"/>
     </row>
-    <row r="212" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" ht="15.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -11542,7 +11548,7 @@
       <c r="AQ212" s="1"/>
       <c r="AR212" s="1"/>
     </row>
-    <row r="213" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:44" ht="15.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -11588,7 +11594,7 @@
       <c r="AQ213" s="1"/>
       <c r="AR213" s="1"/>
     </row>
-    <row r="214" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:44" ht="15.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -11634,7 +11640,7 @@
       <c r="AQ214" s="1"/>
       <c r="AR214" s="1"/>
     </row>
-    <row r="215" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:44" ht="15.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -11680,7 +11686,7 @@
       <c r="AQ215" s="1"/>
       <c r="AR215" s="1"/>
     </row>
-    <row r="216" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:44" ht="15.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -11726,7 +11732,7 @@
       <c r="AQ216" s="1"/>
       <c r="AR216" s="1"/>
     </row>
-    <row r="217" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:44" ht="15.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -11772,7 +11778,7 @@
       <c r="AQ217" s="1"/>
       <c r="AR217" s="1"/>
     </row>
-    <row r="218" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:44" ht="15.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -11818,7 +11824,7 @@
       <c r="AQ218" s="1"/>
       <c r="AR218" s="1"/>
     </row>
-    <row r="219" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:44" ht="15.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -11864,7 +11870,7 @@
       <c r="AQ219" s="1"/>
       <c r="AR219" s="1"/>
     </row>
-    <row r="220" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:44" ht="15.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -11910,7 +11916,7 @@
       <c r="AQ220" s="1"/>
       <c r="AR220" s="1"/>
     </row>
-    <row r="221" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:44" ht="15.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -11956,7 +11962,7 @@
       <c r="AQ221" s="1"/>
       <c r="AR221" s="1"/>
     </row>
-    <row r="222" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:44" ht="15.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -12002,7 +12008,7 @@
       <c r="AQ222" s="1"/>
       <c r="AR222" s="1"/>
     </row>
-    <row r="223" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:44" ht="15.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -12048,7 +12054,7 @@
       <c r="AQ223" s="1"/>
       <c r="AR223" s="1"/>
     </row>
-    <row r="224" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:44" ht="15.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -12094,7 +12100,7 @@
       <c r="AQ224" s="1"/>
       <c r="AR224" s="1"/>
     </row>
-    <row r="225" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:44" ht="15.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -12140,7 +12146,7 @@
       <c r="AQ225" s="1"/>
       <c r="AR225" s="1"/>
     </row>
-    <row r="226" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:44" ht="15.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -12186,7 +12192,7 @@
       <c r="AQ226" s="1"/>
       <c r="AR226" s="1"/>
     </row>
-    <row r="227" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" ht="15.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -12232,7 +12238,7 @@
       <c r="AQ227" s="1"/>
       <c r="AR227" s="1"/>
     </row>
-    <row r="228" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" ht="15.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -12278,7 +12284,7 @@
       <c r="AQ228" s="1"/>
       <c r="AR228" s="1"/>
     </row>
-    <row r="229" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" ht="15.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -12324,7 +12330,7 @@
       <c r="AQ229" s="1"/>
       <c r="AR229" s="1"/>
     </row>
-    <row r="230" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" ht="15.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -12370,7 +12376,7 @@
       <c r="AQ230" s="1"/>
       <c r="AR230" s="1"/>
     </row>
-    <row r="231" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" ht="15.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -12416,7 +12422,7 @@
       <c r="AQ231" s="1"/>
       <c r="AR231" s="1"/>
     </row>
-    <row r="232" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" ht="15.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -12462,7 +12468,7 @@
       <c r="AQ232" s="1"/>
       <c r="AR232" s="1"/>
     </row>
-    <row r="233" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" ht="15.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -12508,7 +12514,7 @@
       <c r="AQ233" s="1"/>
       <c r="AR233" s="1"/>
     </row>
-    <row r="234" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" ht="15.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -12554,7 +12560,7 @@
       <c r="AQ234" s="1"/>
       <c r="AR234" s="1"/>
     </row>
-    <row r="235" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" ht="15.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -12600,7 +12606,7 @@
       <c r="AQ235" s="1"/>
       <c r="AR235" s="1"/>
     </row>
-    <row r="236" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" ht="15.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -12646,7 +12652,7 @@
       <c r="AQ236" s="1"/>
       <c r="AR236" s="1"/>
     </row>
-    <row r="237" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" ht="15.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -12692,7 +12698,7 @@
       <c r="AQ237" s="1"/>
       <c r="AR237" s="1"/>
     </row>
-    <row r="238" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" ht="15.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -12738,7 +12744,7 @@
       <c r="AQ238" s="1"/>
       <c r="AR238" s="1"/>
     </row>
-    <row r="239" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" ht="15.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -12784,7 +12790,7 @@
       <c r="AQ239" s="1"/>
       <c r="AR239" s="1"/>
     </row>
-    <row r="240" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" ht="15.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -12830,7 +12836,7 @@
       <c r="AQ240" s="1"/>
       <c r="AR240" s="1"/>
     </row>
-    <row r="241" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" ht="15.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -12876,7 +12882,7 @@
       <c r="AQ241" s="1"/>
       <c r="AR241" s="1"/>
     </row>
-    <row r="242" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:44" ht="15.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -12922,7 +12928,7 @@
       <c r="AQ242" s="1"/>
       <c r="AR242" s="1"/>
     </row>
-    <row r="243" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:44" ht="15.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -12968,7 +12974,7 @@
       <c r="AQ243" s="1"/>
       <c r="AR243" s="1"/>
     </row>
-    <row r="244" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:44" ht="15.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -13014,7 +13020,7 @@
       <c r="AQ244" s="1"/>
       <c r="AR244" s="1"/>
     </row>
-    <row r="245" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:44" ht="15.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -13060,7 +13066,7 @@
       <c r="AQ245" s="1"/>
       <c r="AR245" s="1"/>
     </row>
-    <row r="246" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:44" ht="15.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -13106,7 +13112,7 @@
       <c r="AQ246" s="1"/>
       <c r="AR246" s="1"/>
     </row>
-    <row r="247" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:44" ht="15.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13152,7 +13158,7 @@
       <c r="AQ247" s="1"/>
       <c r="AR247" s="1"/>
     </row>
-    <row r="248" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:44" ht="15.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -13198,7 +13204,7 @@
       <c r="AQ248" s="1"/>
       <c r="AR248" s="1"/>
     </row>
-    <row r="249" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:44" ht="15.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -13244,7 +13250,7 @@
       <c r="AQ249" s="1"/>
       <c r="AR249" s="1"/>
     </row>
-    <row r="250" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:44" ht="15.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -13290,7 +13296,7 @@
       <c r="AQ250" s="1"/>
       <c r="AR250" s="1"/>
     </row>
-    <row r="251" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:44" ht="15.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -13336,7 +13342,7 @@
       <c r="AQ251" s="1"/>
       <c r="AR251" s="1"/>
     </row>
-    <row r="252" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:44" ht="15.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -13382,7 +13388,7 @@
       <c r="AQ252" s="1"/>
       <c r="AR252" s="1"/>
     </row>
-    <row r="253" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:44" ht="15.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -13428,7 +13434,7 @@
       <c r="AQ253" s="1"/>
       <c r="AR253" s="1"/>
     </row>
-    <row r="254" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:44" ht="15.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -13474,7 +13480,7 @@
       <c r="AQ254" s="1"/>
       <c r="AR254" s="1"/>
     </row>
-    <row r="255" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:44" ht="15.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -13520,7 +13526,7 @@
       <c r="AQ255" s="1"/>
       <c r="AR255" s="1"/>
     </row>
-    <row r="256" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:44" ht="15.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -13566,7 +13572,7 @@
       <c r="AQ256" s="1"/>
       <c r="AR256" s="1"/>
     </row>
-    <row r="257" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:44" ht="15.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -13612,7 +13618,7 @@
       <c r="AQ257" s="1"/>
       <c r="AR257" s="1"/>
     </row>
-    <row r="258" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:44" ht="15.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -13658,7 +13664,7 @@
       <c r="AQ258" s="1"/>
       <c r="AR258" s="1"/>
     </row>
-    <row r="259" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:44" ht="15.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -13704,7 +13710,7 @@
       <c r="AQ259" s="1"/>
       <c r="AR259" s="1"/>
     </row>
-    <row r="260" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:44" ht="15.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -13750,7 +13756,7 @@
       <c r="AQ260" s="1"/>
       <c r="AR260" s="1"/>
     </row>
-    <row r="261" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:44" ht="15.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -13796,7 +13802,7 @@
       <c r="AQ261" s="1"/>
       <c r="AR261" s="1"/>
     </row>
-    <row r="262" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:44" ht="15.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -13842,7 +13848,7 @@
       <c r="AQ262" s="1"/>
       <c r="AR262" s="1"/>
     </row>
-    <row r="263" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:44" ht="15.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -13888,7 +13894,7 @@
       <c r="AQ263" s="1"/>
       <c r="AR263" s="1"/>
     </row>
-    <row r="264" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:44" ht="15.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -13934,7 +13940,7 @@
       <c r="AQ264" s="1"/>
       <c r="AR264" s="1"/>
     </row>
-    <row r="265" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:44" ht="15.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -13980,7 +13986,7 @@
       <c r="AQ265" s="1"/>
       <c r="AR265" s="1"/>
     </row>
-    <row r="266" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:44" ht="15.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -14026,7 +14032,7 @@
       <c r="AQ266" s="1"/>
       <c r="AR266" s="1"/>
     </row>
-    <row r="267" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:44" ht="15.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -14072,7 +14078,7 @@
       <c r="AQ267" s="1"/>
       <c r="AR267" s="1"/>
     </row>
-    <row r="268" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:44" ht="15.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -14118,7 +14124,7 @@
       <c r="AQ268" s="1"/>
       <c r="AR268" s="1"/>
     </row>
-    <row r="269" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:44" ht="15.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -14164,7 +14170,7 @@
       <c r="AQ269" s="1"/>
       <c r="AR269" s="1"/>
     </row>
-    <row r="270" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:44" ht="15.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -14210,7 +14216,7 @@
       <c r="AQ270" s="1"/>
       <c r="AR270" s="1"/>
     </row>
-    <row r="271" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:44" ht="15.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -14256,7 +14262,7 @@
       <c r="AQ271" s="1"/>
       <c r="AR271" s="1"/>
     </row>
-    <row r="272" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:44" ht="15.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -14302,7 +14308,7 @@
       <c r="AQ272" s="1"/>
       <c r="AR272" s="1"/>
     </row>
-    <row r="273" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:44" ht="15.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14348,7 +14354,7 @@
       <c r="AQ273" s="1"/>
       <c r="AR273" s="1"/>
     </row>
-    <row r="274" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:44" ht="15.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14394,7 +14400,7 @@
       <c r="AQ274" s="1"/>
       <c r="AR274" s="1"/>
     </row>
-    <row r="275" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:44" ht="15.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -14440,7 +14446,7 @@
       <c r="AQ275" s="1"/>
       <c r="AR275" s="1"/>
     </row>
-    <row r="276" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:44" ht="15.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -14486,7 +14492,7 @@
       <c r="AQ276" s="1"/>
       <c r="AR276" s="1"/>
     </row>
-    <row r="277" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:44" ht="15.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -14532,7 +14538,7 @@
       <c r="AQ277" s="1"/>
       <c r="AR277" s="1"/>
     </row>
-    <row r="278" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:44" ht="15.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -14578,7 +14584,7 @@
       <c r="AQ278" s="1"/>
       <c r="AR278" s="1"/>
     </row>
-    <row r="279" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:44" ht="15.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -14624,7 +14630,7 @@
       <c r="AQ279" s="1"/>
       <c r="AR279" s="1"/>
     </row>
-    <row r="280" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:44" ht="15.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14670,7 +14676,7 @@
       <c r="AQ280" s="1"/>
       <c r="AR280" s="1"/>
     </row>
-    <row r="281" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:44" ht="15.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14716,7 +14722,7 @@
       <c r="AQ281" s="1"/>
       <c r="AR281" s="1"/>
     </row>
-    <row r="282" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:44" ht="15.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -14762,7 +14768,7 @@
       <c r="AQ282" s="1"/>
       <c r="AR282" s="1"/>
     </row>
-    <row r="283" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:44" ht="15.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -14808,7 +14814,7 @@
       <c r="AQ283" s="1"/>
       <c r="AR283" s="1"/>
     </row>
-    <row r="284" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:44" ht="15.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -14854,7 +14860,7 @@
       <c r="AQ284" s="1"/>
       <c r="AR284" s="1"/>
     </row>
-    <row r="285" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:44" ht="15.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -14900,7 +14906,7 @@
       <c r="AQ285" s="1"/>
       <c r="AR285" s="1"/>
     </row>
-    <row r="286" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:44" ht="15.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -14946,7 +14952,7 @@
       <c r="AQ286" s="1"/>
       <c r="AR286" s="1"/>
     </row>
-    <row r="287" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:44" ht="15.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -14992,7 +14998,7 @@
       <c r="AQ287" s="1"/>
       <c r="AR287" s="1"/>
     </row>
-    <row r="288" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:44" ht="15.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -15038,7 +15044,7 @@
       <c r="AQ288" s="1"/>
       <c r="AR288" s="1"/>
     </row>
-    <row r="289" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:44" ht="15.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -15084,7 +15090,7 @@
       <c r="AQ289" s="1"/>
       <c r="AR289" s="1"/>
     </row>
-    <row r="290" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:44" ht="15.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -15130,7 +15136,7 @@
       <c r="AQ290" s="1"/>
       <c r="AR290" s="1"/>
     </row>
-    <row r="291" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:44" ht="15.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15176,7 +15182,7 @@
       <c r="AQ291" s="1"/>
       <c r="AR291" s="1"/>
     </row>
-    <row r="292" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:44" ht="15.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -15222,7 +15228,7 @@
       <c r="AQ292" s="1"/>
       <c r="AR292" s="1"/>
     </row>
-    <row r="293" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:44" ht="15.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -15268,7 +15274,7 @@
       <c r="AQ293" s="1"/>
       <c r="AR293" s="1"/>
     </row>
-    <row r="294" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:44" ht="15.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -15314,7 +15320,7 @@
       <c r="AQ294" s="1"/>
       <c r="AR294" s="1"/>
     </row>
-    <row r="295" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:44" ht="15.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -15360,7 +15366,7 @@
       <c r="AQ295" s="1"/>
       <c r="AR295" s="1"/>
     </row>
-    <row r="296" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:44" ht="15.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -15406,7 +15412,7 @@
       <c r="AQ296" s="1"/>
       <c r="AR296" s="1"/>
     </row>
-    <row r="297" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:44" ht="15.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -15452,7 +15458,7 @@
       <c r="AQ297" s="1"/>
       <c r="AR297" s="1"/>
     </row>
-    <row r="298" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:44" ht="15.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -15498,7 +15504,7 @@
       <c r="AQ298" s="1"/>
       <c r="AR298" s="1"/>
     </row>
-    <row r="299" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:44" ht="15.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -15544,7 +15550,7 @@
       <c r="AQ299" s="1"/>
       <c r="AR299" s="1"/>
     </row>
-    <row r="300" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:44" ht="15.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -15590,7 +15596,7 @@
       <c r="AQ300" s="1"/>
       <c r="AR300" s="1"/>
     </row>
-    <row r="301" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:44" ht="15.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -15636,7 +15642,7 @@
       <c r="AQ301" s="1"/>
       <c r="AR301" s="1"/>
     </row>
-    <row r="302" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:44" ht="15.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15682,7 +15688,7 @@
       <c r="AQ302" s="1"/>
       <c r="AR302" s="1"/>
     </row>
-    <row r="303" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:44" ht="15.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -15728,7 +15734,7 @@
       <c r="AQ303" s="1"/>
       <c r="AR303" s="1"/>
     </row>
-    <row r="304" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:44" ht="15.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -15774,7 +15780,7 @@
       <c r="AQ304" s="1"/>
       <c r="AR304" s="1"/>
     </row>
-    <row r="305" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:44" ht="15.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -15820,7 +15826,7 @@
       <c r="AQ305" s="1"/>
       <c r="AR305" s="1"/>
     </row>
-    <row r="306" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:44" ht="15.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -15866,7 +15872,7 @@
       <c r="AQ306" s="1"/>
       <c r="AR306" s="1"/>
     </row>
-    <row r="307" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:44" ht="15.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -15912,7 +15918,7 @@
       <c r="AQ307" s="1"/>
       <c r="AR307" s="1"/>
     </row>
-    <row r="308" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:44" ht="15.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -15958,7 +15964,7 @@
       <c r="AQ308" s="1"/>
       <c r="AR308" s="1"/>
     </row>
-    <row r="309" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:44" ht="15.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -16004,7 +16010,7 @@
       <c r="AQ309" s="1"/>
       <c r="AR309" s="1"/>
     </row>
-    <row r="310" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:44" ht="15.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -16050,7 +16056,7 @@
       <c r="AQ310" s="1"/>
       <c r="AR310" s="1"/>
     </row>
-    <row r="311" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:44" ht="15.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -16096,7 +16102,7 @@
       <c r="AQ311" s="1"/>
       <c r="AR311" s="1"/>
     </row>
-    <row r="312" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:44" ht="15.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -16142,7 +16148,7 @@
       <c r="AQ312" s="1"/>
       <c r="AR312" s="1"/>
     </row>
-    <row r="313" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:44" ht="15.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -16188,7 +16194,7 @@
       <c r="AQ313" s="1"/>
       <c r="AR313" s="1"/>
     </row>
-    <row r="314" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:44" ht="15.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -16234,7 +16240,7 @@
       <c r="AQ314" s="1"/>
       <c r="AR314" s="1"/>
     </row>
-    <row r="315" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:44" ht="15.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -16280,7 +16286,7 @@
       <c r="AQ315" s="1"/>
       <c r="AR315" s="1"/>
     </row>
-    <row r="316" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:44" ht="15.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16326,7 +16332,7 @@
       <c r="AQ316" s="1"/>
       <c r="AR316" s="1"/>
     </row>
-    <row r="317" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:44" ht="15.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -16372,7 +16378,7 @@
       <c r="AQ317" s="1"/>
       <c r="AR317" s="1"/>
     </row>
-    <row r="318" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:44" ht="15.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -16418,7 +16424,7 @@
       <c r="AQ318" s="1"/>
       <c r="AR318" s="1"/>
     </row>
-    <row r="319" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:44" ht="15.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -16464,7 +16470,7 @@
       <c r="AQ319" s="1"/>
       <c r="AR319" s="1"/>
     </row>
-    <row r="320" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:44" ht="15.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -16510,7 +16516,7 @@
       <c r="AQ320" s="1"/>
       <c r="AR320" s="1"/>
     </row>
-    <row r="321" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:44" ht="15.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -16556,7 +16562,7 @@
       <c r="AQ321" s="1"/>
       <c r="AR321" s="1"/>
     </row>
-    <row r="322" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:44" ht="15.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -16602,7 +16608,7 @@
       <c r="AQ322" s="1"/>
       <c r="AR322" s="1"/>
     </row>
-    <row r="323" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:44" ht="15.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -16648,7 +16654,7 @@
       <c r="AQ323" s="1"/>
       <c r="AR323" s="1"/>
     </row>
-    <row r="324" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:44" ht="15.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -16694,7 +16700,7 @@
       <c r="AQ324" s="1"/>
       <c r="AR324" s="1"/>
     </row>
-    <row r="325" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:44" ht="15.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -16740,7 +16746,7 @@
       <c r="AQ325" s="1"/>
       <c r="AR325" s="1"/>
     </row>
-    <row r="326" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:44" ht="15.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -16786,7 +16792,7 @@
       <c r="AQ326" s="1"/>
       <c r="AR326" s="1"/>
     </row>
-    <row r="327" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:44" ht="15.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -16832,7 +16838,7 @@
       <c r="AQ327" s="1"/>
       <c r="AR327" s="1"/>
     </row>
-    <row r="328" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:44" ht="15.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -16878,7 +16884,7 @@
       <c r="AQ328" s="1"/>
       <c r="AR328" s="1"/>
     </row>
-    <row r="329" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:44" ht="15.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -16924,7 +16930,7 @@
       <c r="AQ329" s="1"/>
       <c r="AR329" s="1"/>
     </row>
-    <row r="330" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:44" ht="15.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -16970,7 +16976,7 @@
       <c r="AQ330" s="1"/>
       <c r="AR330" s="1"/>
     </row>
-    <row r="331" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:44" ht="15.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -17016,7 +17022,7 @@
       <c r="AQ331" s="1"/>
       <c r="AR331" s="1"/>
     </row>
-    <row r="332" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:44" ht="15.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -17062,7 +17068,7 @@
       <c r="AQ332" s="1"/>
       <c r="AR332" s="1"/>
     </row>
-    <row r="333" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:44" ht="15.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -17108,7 +17114,7 @@
       <c r="AQ333" s="1"/>
       <c r="AR333" s="1"/>
     </row>
-    <row r="334" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:44" ht="15.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -17154,7 +17160,7 @@
       <c r="AQ334" s="1"/>
       <c r="AR334" s="1"/>
     </row>
-    <row r="335" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:44" ht="15.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -17200,7 +17206,7 @@
       <c r="AQ335" s="1"/>
       <c r="AR335" s="1"/>
     </row>
-    <row r="336" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:44" ht="15.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -17246,7 +17252,7 @@
       <c r="AQ336" s="1"/>
       <c r="AR336" s="1"/>
     </row>
-    <row r="337" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:44" ht="15.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -17292,7 +17298,7 @@
       <c r="AQ337" s="1"/>
       <c r="AR337" s="1"/>
     </row>
-    <row r="338" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:44" ht="15.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -17338,7 +17344,7 @@
       <c r="AQ338" s="1"/>
       <c r="AR338" s="1"/>
     </row>
-    <row r="339" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:44" ht="15.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -17384,7 +17390,7 @@
       <c r="AQ339" s="1"/>
       <c r="AR339" s="1"/>
     </row>
-    <row r="340" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:44" ht="15.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -17430,7 +17436,7 @@
       <c r="AQ340" s="1"/>
       <c r="AR340" s="1"/>
     </row>
-    <row r="341" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:44" ht="15.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -17476,7 +17482,7 @@
       <c r="AQ341" s="1"/>
       <c r="AR341" s="1"/>
     </row>
-    <row r="342" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:44" ht="15.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -17522,7 +17528,7 @@
       <c r="AQ342" s="1"/>
       <c r="AR342" s="1"/>
     </row>
-    <row r="343" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:44" ht="15.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -17568,7 +17574,7 @@
       <c r="AQ343" s="1"/>
       <c r="AR343" s="1"/>
     </row>
-    <row r="344" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:44" ht="15.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -17614,7 +17620,7 @@
       <c r="AQ344" s="1"/>
       <c r="AR344" s="1"/>
     </row>
-    <row r="345" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:44" ht="15.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -17660,7 +17666,7 @@
       <c r="AQ345" s="1"/>
       <c r="AR345" s="1"/>
     </row>
-    <row r="346" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:44" ht="15.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -17706,7 +17712,7 @@
       <c r="AQ346" s="1"/>
       <c r="AR346" s="1"/>
     </row>
-    <row r="347" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:44" ht="15.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -17752,7 +17758,7 @@
       <c r="AQ347" s="1"/>
       <c r="AR347" s="1"/>
     </row>
-    <row r="348" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:44" ht="15.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -17798,7 +17804,7 @@
       <c r="AQ348" s="1"/>
       <c r="AR348" s="1"/>
     </row>
-    <row r="349" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:44" ht="15.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -17844,7 +17850,7 @@
       <c r="AQ349" s="1"/>
       <c r="AR349" s="1"/>
     </row>
-    <row r="350" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:44" ht="15.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -17890,7 +17896,7 @@
       <c r="AQ350" s="1"/>
       <c r="AR350" s="1"/>
     </row>
-    <row r="351" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:44" ht="15.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -17936,7 +17942,7 @@
       <c r="AQ351" s="1"/>
       <c r="AR351" s="1"/>
     </row>
-    <row r="352" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:44" ht="15.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -17982,7 +17988,7 @@
       <c r="AQ352" s="1"/>
       <c r="AR352" s="1"/>
     </row>
-    <row r="353" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:44" ht="15.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -18028,7 +18034,7 @@
       <c r="AQ353" s="1"/>
       <c r="AR353" s="1"/>
     </row>
-    <row r="354" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:44" ht="15.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -18074,7 +18080,7 @@
       <c r="AQ354" s="1"/>
       <c r="AR354" s="1"/>
     </row>
-    <row r="355" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:44" ht="15.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -18120,7 +18126,7 @@
       <c r="AQ355" s="1"/>
       <c r="AR355" s="1"/>
     </row>
-    <row r="356" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:44" ht="15.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -18166,7 +18172,7 @@
       <c r="AQ356" s="1"/>
       <c r="AR356" s="1"/>
     </row>
-    <row r="357" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:44" ht="15.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -18212,7 +18218,7 @@
       <c r="AQ357" s="1"/>
       <c r="AR357" s="1"/>
     </row>
-    <row r="358" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:44" ht="15.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -18258,7 +18264,7 @@
       <c r="AQ358" s="1"/>
       <c r="AR358" s="1"/>
     </row>
-    <row r="359" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:44" ht="15.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -18304,7 +18310,7 @@
       <c r="AQ359" s="1"/>
       <c r="AR359" s="1"/>
     </row>
-    <row r="360" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:44" ht="15.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -18350,7 +18356,7 @@
       <c r="AQ360" s="1"/>
       <c r="AR360" s="1"/>
     </row>
-    <row r="361" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:44" ht="15.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -18396,7 +18402,7 @@
       <c r="AQ361" s="1"/>
       <c r="AR361" s="1"/>
     </row>
-    <row r="362" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:44" ht="15.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -18442,7 +18448,7 @@
       <c r="AQ362" s="1"/>
       <c r="AR362" s="1"/>
     </row>
-    <row r="363" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:44" ht="15.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -18488,7 +18494,7 @@
       <c r="AQ363" s="1"/>
       <c r="AR363" s="1"/>
     </row>
-    <row r="364" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:44" ht="15.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -18534,7 +18540,7 @@
       <c r="AQ364" s="1"/>
       <c r="AR364" s="1"/>
     </row>
-    <row r="365" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:44" ht="15.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -18580,7 +18586,7 @@
       <c r="AQ365" s="1"/>
       <c r="AR365" s="1"/>
     </row>
-    <row r="366" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:44" ht="15.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -18626,7 +18632,7 @@
       <c r="AQ366" s="1"/>
       <c r="AR366" s="1"/>
     </row>
-    <row r="367" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:44" ht="15.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -18672,7 +18678,7 @@
       <c r="AQ367" s="1"/>
       <c r="AR367" s="1"/>
     </row>
-    <row r="368" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:44" ht="15.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -18718,7 +18724,7 @@
       <c r="AQ368" s="1"/>
       <c r="AR368" s="1"/>
     </row>
-    <row r="369" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:44" ht="15.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -18764,7 +18770,7 @@
       <c r="AQ369" s="1"/>
       <c r="AR369" s="1"/>
     </row>
-    <row r="370" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:44" ht="15.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -18810,7 +18816,7 @@
       <c r="AQ370" s="1"/>
       <c r="AR370" s="1"/>
     </row>
-    <row r="371" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:44" ht="15.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -18856,7 +18862,7 @@
       <c r="AQ371" s="1"/>
       <c r="AR371" s="1"/>
     </row>
-    <row r="372" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:44" ht="15.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -18902,7 +18908,7 @@
       <c r="AQ372" s="1"/>
       <c r="AR372" s="1"/>
     </row>
-    <row r="373" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:44" ht="15.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -18948,7 +18954,7 @@
       <c r="AQ373" s="1"/>
       <c r="AR373" s="1"/>
     </row>
-    <row r="374" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:44" ht="15.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -18994,7 +19000,7 @@
       <c r="AQ374" s="1"/>
       <c r="AR374" s="1"/>
     </row>
-    <row r="375" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:44" ht="15.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -19040,7 +19046,7 @@
       <c r="AQ375" s="1"/>
       <c r="AR375" s="1"/>
     </row>
-    <row r="376" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:44" ht="15.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -19086,7 +19092,7 @@
       <c r="AQ376" s="1"/>
       <c r="AR376" s="1"/>
     </row>
-    <row r="377" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:44" ht="15.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -19132,7 +19138,7 @@
       <c r="AQ377" s="1"/>
       <c r="AR377" s="1"/>
     </row>
-    <row r="378" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:44" ht="15.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -19178,7 +19184,7 @@
       <c r="AQ378" s="1"/>
       <c r="AR378" s="1"/>
     </row>
-    <row r="379" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:44" ht="15.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -19224,7 +19230,7 @@
       <c r="AQ379" s="1"/>
       <c r="AR379" s="1"/>
     </row>
-    <row r="380" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:44" ht="15.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -19270,7 +19276,7 @@
       <c r="AQ380" s="1"/>
       <c r="AR380" s="1"/>
     </row>
-    <row r="381" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:44" ht="15.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -19316,7 +19322,7 @@
       <c r="AQ381" s="1"/>
       <c r="AR381" s="1"/>
     </row>
-    <row r="382" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:44" ht="15.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -19362,7 +19368,7 @@
       <c r="AQ382" s="1"/>
       <c r="AR382" s="1"/>
     </row>
-    <row r="383" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:44" ht="15.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -19408,7 +19414,7 @@
       <c r="AQ383" s="1"/>
       <c r="AR383" s="1"/>
     </row>
-    <row r="384" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:44" ht="15.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -19454,7 +19460,7 @@
       <c r="AQ384" s="1"/>
       <c r="AR384" s="1"/>
     </row>
-    <row r="385" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:44" ht="15.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -19500,7 +19506,7 @@
       <c r="AQ385" s="1"/>
       <c r="AR385" s="1"/>
     </row>
-    <row r="386" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:44" ht="15.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -19546,7 +19552,7 @@
       <c r="AQ386" s="1"/>
       <c r="AR386" s="1"/>
     </row>
-    <row r="387" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:44" ht="15.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -19592,7 +19598,7 @@
       <c r="AQ387" s="1"/>
       <c r="AR387" s="1"/>
     </row>
-    <row r="388" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:44" ht="15.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -19638,7 +19644,7 @@
       <c r="AQ388" s="1"/>
       <c r="AR388" s="1"/>
     </row>
-    <row r="389" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:44" ht="15.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -19684,7 +19690,7 @@
       <c r="AQ389" s="1"/>
       <c r="AR389" s="1"/>
     </row>
-    <row r="390" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:44" ht="15.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -19730,7 +19736,7 @@
       <c r="AQ390" s="1"/>
       <c r="AR390" s="1"/>
     </row>
-    <row r="391" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:44" ht="15.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -19776,7 +19782,7 @@
       <c r="AQ391" s="1"/>
       <c r="AR391" s="1"/>
     </row>
-    <row r="392" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:44" ht="15.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -19822,7 +19828,7 @@
       <c r="AQ392" s="1"/>
       <c r="AR392" s="1"/>
     </row>
-    <row r="393" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:44" ht="15.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -19868,7 +19874,7 @@
       <c r="AQ393" s="1"/>
       <c r="AR393" s="1"/>
     </row>
-    <row r="394" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:44" ht="15.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -19914,7 +19920,7 @@
       <c r="AQ394" s="1"/>
       <c r="AR394" s="1"/>
     </row>
-    <row r="395" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:44" ht="15.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -19960,7 +19966,7 @@
       <c r="AQ395" s="1"/>
       <c r="AR395" s="1"/>
     </row>
-    <row r="396" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:44" ht="15.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -20006,7 +20012,7 @@
       <c r="AQ396" s="1"/>
       <c r="AR396" s="1"/>
     </row>
-    <row r="397" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:44" ht="15.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -20052,7 +20058,7 @@
       <c r="AQ397" s="1"/>
       <c r="AR397" s="1"/>
     </row>
-    <row r="398" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:44" ht="15.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -20098,7 +20104,7 @@
       <c r="AQ398" s="1"/>
       <c r="AR398" s="1"/>
     </row>
-    <row r="399" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:44" ht="15.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -20144,7 +20150,7 @@
       <c r="AQ399" s="1"/>
       <c r="AR399" s="1"/>
     </row>
-    <row r="400" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:44" ht="15.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -20190,7 +20196,7 @@
       <c r="AQ400" s="1"/>
       <c r="AR400" s="1"/>
     </row>
-    <row r="401" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:44" ht="15.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -20236,7 +20242,7 @@
       <c r="AQ401" s="1"/>
       <c r="AR401" s="1"/>
     </row>
-    <row r="402" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:44" ht="15.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -20282,7 +20288,7 @@
       <c r="AQ402" s="1"/>
       <c r="AR402" s="1"/>
     </row>
-    <row r="403" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:44" ht="15.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -20328,7 +20334,7 @@
       <c r="AQ403" s="1"/>
       <c r="AR403" s="1"/>
     </row>
-    <row r="404" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:44" ht="15.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -20374,7 +20380,7 @@
       <c r="AQ404" s="1"/>
       <c r="AR404" s="1"/>
     </row>
-    <row r="405" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:44" ht="15.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -20420,7 +20426,7 @@
       <c r="AQ405" s="1"/>
       <c r="AR405" s="1"/>
     </row>
-    <row r="406" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:44" ht="15.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -20466,7 +20472,7 @@
       <c r="AQ406" s="1"/>
       <c r="AR406" s="1"/>
     </row>
-    <row r="407" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:44" ht="15.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -20512,7 +20518,7 @@
       <c r="AQ407" s="1"/>
       <c r="AR407" s="1"/>
     </row>
-    <row r="408" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:44" ht="15.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -20558,7 +20564,7 @@
       <c r="AQ408" s="1"/>
       <c r="AR408" s="1"/>
     </row>
-    <row r="409" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:44" ht="15.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -20604,7 +20610,7 @@
       <c r="AQ409" s="1"/>
       <c r="AR409" s="1"/>
     </row>
-    <row r="410" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:44" ht="15.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -20650,7 +20656,7 @@
       <c r="AQ410" s="1"/>
       <c r="AR410" s="1"/>
     </row>
-    <row r="411" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:44" ht="15.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -20696,7 +20702,7 @@
       <c r="AQ411" s="1"/>
       <c r="AR411" s="1"/>
     </row>
-    <row r="412" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:44" ht="15.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -20742,7 +20748,7 @@
       <c r="AQ412" s="1"/>
       <c r="AR412" s="1"/>
     </row>
-    <row r="413" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:44" ht="15.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -20788,7 +20794,7 @@
       <c r="AQ413" s="1"/>
       <c r="AR413" s="1"/>
     </row>
-    <row r="414" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:44" ht="15.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -20834,7 +20840,7 @@
       <c r="AQ414" s="1"/>
       <c r="AR414" s="1"/>
     </row>
-    <row r="415" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:44" ht="15.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -20880,7 +20886,7 @@
       <c r="AQ415" s="1"/>
       <c r="AR415" s="1"/>
     </row>
-    <row r="416" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:44" ht="15.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -20926,7 +20932,7 @@
       <c r="AQ416" s="1"/>
       <c r="AR416" s="1"/>
     </row>
-    <row r="417" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:44" ht="15.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -20972,7 +20978,7 @@
       <c r="AQ417" s="1"/>
       <c r="AR417" s="1"/>
     </row>
-    <row r="418" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:44" ht="15.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -21018,7 +21024,7 @@
       <c r="AQ418" s="1"/>
       <c r="AR418" s="1"/>
     </row>
-    <row r="419" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:44" ht="15.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -21064,7 +21070,7 @@
       <c r="AQ419" s="1"/>
       <c r="AR419" s="1"/>
     </row>
-    <row r="420" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:44" ht="15.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -21110,7 +21116,7 @@
       <c r="AQ420" s="1"/>
       <c r="AR420" s="1"/>
     </row>
-    <row r="421" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:44" ht="15.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -21156,7 +21162,7 @@
       <c r="AQ421" s="1"/>
       <c r="AR421" s="1"/>
     </row>
-    <row r="422" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:44" ht="15.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -21202,7 +21208,7 @@
       <c r="AQ422" s="1"/>
       <c r="AR422" s="1"/>
     </row>
-    <row r="423" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:44" ht="15.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -21248,7 +21254,7 @@
       <c r="AQ423" s="1"/>
       <c r="AR423" s="1"/>
     </row>
-    <row r="424" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:44" ht="15.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -21294,7 +21300,7 @@
       <c r="AQ424" s="1"/>
       <c r="AR424" s="1"/>
     </row>
-    <row r="425" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:44" ht="15.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -21340,7 +21346,7 @@
       <c r="AQ425" s="1"/>
       <c r="AR425" s="1"/>
     </row>
-    <row r="426" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:44" ht="15.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -21386,7 +21392,7 @@
       <c r="AQ426" s="1"/>
       <c r="AR426" s="1"/>
     </row>
-    <row r="427" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:44" ht="15.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -21432,7 +21438,7 @@
       <c r="AQ427" s="1"/>
       <c r="AR427" s="1"/>
     </row>
-    <row r="428" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:44" ht="15.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -21478,7 +21484,7 @@
       <c r="AQ428" s="1"/>
       <c r="AR428" s="1"/>
     </row>
-    <row r="429" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:44" ht="15.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -21524,7 +21530,7 @@
       <c r="AQ429" s="1"/>
       <c r="AR429" s="1"/>
     </row>
-    <row r="430" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:44" ht="15.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -21570,7 +21576,7 @@
       <c r="AQ430" s="1"/>
       <c r="AR430" s="1"/>
     </row>
-    <row r="431" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:44" ht="15.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -21616,7 +21622,7 @@
       <c r="AQ431" s="1"/>
       <c r="AR431" s="1"/>
     </row>
-    <row r="432" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:44" ht="15.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -21662,7 +21668,7 @@
       <c r="AQ432" s="1"/>
       <c r="AR432" s="1"/>
     </row>
-    <row r="433" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:44" ht="15.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -21708,7 +21714,7 @@
       <c r="AQ433" s="1"/>
       <c r="AR433" s="1"/>
     </row>
-    <row r="434" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:44" ht="15.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -21754,7 +21760,7 @@
       <c r="AQ434" s="1"/>
       <c r="AR434" s="1"/>
     </row>
-    <row r="435" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:44" ht="15.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -21800,7 +21806,7 @@
       <c r="AQ435" s="1"/>
       <c r="AR435" s="1"/>
     </row>
-    <row r="436" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:44" ht="15.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -21846,7 +21852,7 @@
       <c r="AQ436" s="1"/>
       <c r="AR436" s="1"/>
     </row>
-    <row r="437" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:44" ht="15.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -21892,7 +21898,7 @@
       <c r="AQ437" s="1"/>
       <c r="AR437" s="1"/>
     </row>
-    <row r="438" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:44" ht="15.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -21938,7 +21944,7 @@
       <c r="AQ438" s="1"/>
       <c r="AR438" s="1"/>
     </row>
-    <row r="439" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:44" ht="15.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -21984,7 +21990,7 @@
       <c r="AQ439" s="1"/>
       <c r="AR439" s="1"/>
     </row>
-    <row r="440" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:44" ht="15.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -22030,7 +22036,7 @@
       <c r="AQ440" s="1"/>
       <c r="AR440" s="1"/>
     </row>
-    <row r="441" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:44" ht="15.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -22076,7 +22082,7 @@
       <c r="AQ441" s="1"/>
       <c r="AR441" s="1"/>
     </row>
-    <row r="442" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:44" ht="15.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -22122,7 +22128,7 @@
       <c r="AQ442" s="1"/>
       <c r="AR442" s="1"/>
     </row>
-    <row r="443" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:44" ht="15.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -22168,7 +22174,7 @@
       <c r="AQ443" s="1"/>
       <c r="AR443" s="1"/>
     </row>
-    <row r="444" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:44" ht="15.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -22214,7 +22220,7 @@
       <c r="AQ444" s="1"/>
       <c r="AR444" s="1"/>
     </row>
-    <row r="445" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:44" ht="15.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -22260,7 +22266,7 @@
       <c r="AQ445" s="1"/>
       <c r="AR445" s="1"/>
     </row>
-    <row r="446" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:44" ht="15.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -22306,7 +22312,7 @@
       <c r="AQ446" s="1"/>
       <c r="AR446" s="1"/>
     </row>
-    <row r="447" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:44" ht="15.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -22352,7 +22358,7 @@
       <c r="AQ447" s="1"/>
       <c r="AR447" s="1"/>
     </row>
-    <row r="448" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:44" ht="15.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -22398,7 +22404,7 @@
       <c r="AQ448" s="1"/>
       <c r="AR448" s="1"/>
     </row>
-    <row r="449" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:44" ht="15.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -22444,7 +22450,7 @@
       <c r="AQ449" s="1"/>
       <c r="AR449" s="1"/>
     </row>
-    <row r="450" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:44" ht="15.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -22490,7 +22496,7 @@
       <c r="AQ450" s="1"/>
       <c r="AR450" s="1"/>
     </row>
-    <row r="451" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:44" ht="15.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -22536,7 +22542,7 @@
       <c r="AQ451" s="1"/>
       <c r="AR451" s="1"/>
     </row>
-    <row r="452" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:44" ht="15.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -22582,7 +22588,7 @@
       <c r="AQ452" s="1"/>
       <c r="AR452" s="1"/>
     </row>
-    <row r="453" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:44" ht="15.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -22628,7 +22634,7 @@
       <c r="AQ453" s="1"/>
       <c r="AR453" s="1"/>
     </row>
-    <row r="454" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:44" ht="15.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -22674,7 +22680,7 @@
       <c r="AQ454" s="1"/>
       <c r="AR454" s="1"/>
     </row>
-    <row r="455" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:44" ht="15.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -22720,7 +22726,7 @@
       <c r="AQ455" s="1"/>
       <c r="AR455" s="1"/>
     </row>
-    <row r="456" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:44" ht="15.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -22766,7 +22772,7 @@
       <c r="AQ456" s="1"/>
       <c r="AR456" s="1"/>
     </row>
-    <row r="457" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:44" ht="15.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -22812,7 +22818,7 @@
       <c r="AQ457" s="1"/>
       <c r="AR457" s="1"/>
     </row>
-    <row r="458" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:44" ht="15.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -22858,7 +22864,7 @@
       <c r="AQ458" s="1"/>
       <c r="AR458" s="1"/>
     </row>
-    <row r="459" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:44" ht="15.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -22904,7 +22910,7 @@
       <c r="AQ459" s="1"/>
       <c r="AR459" s="1"/>
     </row>
-    <row r="460" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:44" ht="15.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -22950,7 +22956,7 @@
       <c r="AQ460" s="1"/>
       <c r="AR460" s="1"/>
     </row>
-    <row r="461" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:44" ht="15.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -22996,7 +23002,7 @@
       <c r="AQ461" s="1"/>
       <c r="AR461" s="1"/>
     </row>
-    <row r="462" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:44" ht="15.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -23042,7 +23048,7 @@
       <c r="AQ462" s="1"/>
       <c r="AR462" s="1"/>
     </row>
-    <row r="463" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:44" ht="15.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -23088,7 +23094,7 @@
       <c r="AQ463" s="1"/>
       <c r="AR463" s="1"/>
     </row>
-    <row r="464" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:44" ht="15.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -23134,7 +23140,7 @@
       <c r="AQ464" s="1"/>
       <c r="AR464" s="1"/>
     </row>
-    <row r="465" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:44" ht="15.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -23180,7 +23186,7 @@
       <c r="AQ465" s="1"/>
       <c r="AR465" s="1"/>
     </row>
-    <row r="466" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:44" ht="15.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -23226,7 +23232,7 @@
       <c r="AQ466" s="1"/>
       <c r="AR466" s="1"/>
     </row>
-    <row r="467" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:44" ht="15.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -23272,7 +23278,7 @@
       <c r="AQ467" s="1"/>
       <c r="AR467" s="1"/>
     </row>
-    <row r="468" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:44" ht="15.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -23318,7 +23324,7 @@
       <c r="AQ468" s="1"/>
       <c r="AR468" s="1"/>
     </row>
-    <row r="469" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:44" ht="15.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -23364,7 +23370,7 @@
       <c r="AQ469" s="1"/>
       <c r="AR469" s="1"/>
     </row>
-    <row r="470" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:44" ht="15.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -23410,7 +23416,7 @@
       <c r="AQ470" s="1"/>
       <c r="AR470" s="1"/>
     </row>
-    <row r="471" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:44" ht="15.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -23456,7 +23462,7 @@
       <c r="AQ471" s="1"/>
       <c r="AR471" s="1"/>
     </row>
-    <row r="472" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:44" ht="15.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -23502,7 +23508,7 @@
       <c r="AQ472" s="1"/>
       <c r="AR472" s="1"/>
     </row>
-    <row r="473" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:44" ht="15.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -23548,7 +23554,7 @@
       <c r="AQ473" s="1"/>
       <c r="AR473" s="1"/>
     </row>
-    <row r="474" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:44" ht="15.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -23594,7 +23600,7 @@
       <c r="AQ474" s="1"/>
       <c r="AR474" s="1"/>
     </row>
-    <row r="475" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:44" ht="15.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -23640,7 +23646,7 @@
       <c r="AQ475" s="1"/>
       <c r="AR475" s="1"/>
     </row>
-    <row r="476" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:44" ht="15.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -23686,7 +23692,7 @@
       <c r="AQ476" s="1"/>
       <c r="AR476" s="1"/>
     </row>
-    <row r="477" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:44" ht="15.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -23732,7 +23738,7 @@
       <c r="AQ477" s="1"/>
       <c r="AR477" s="1"/>
     </row>
-    <row r="478" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:44" ht="15.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -23778,7 +23784,7 @@
       <c r="AQ478" s="1"/>
       <c r="AR478" s="1"/>
     </row>
-    <row r="479" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:44" ht="15.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -23824,7 +23830,7 @@
       <c r="AQ479" s="1"/>
       <c r="AR479" s="1"/>
     </row>
-    <row r="480" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:44" ht="15.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -23870,7 +23876,7 @@
       <c r="AQ480" s="1"/>
       <c r="AR480" s="1"/>
     </row>
-    <row r="481" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:44" ht="15.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -23916,7 +23922,7 @@
       <c r="AQ481" s="1"/>
       <c r="AR481" s="1"/>
     </row>
-    <row r="482" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:44" ht="15.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -23962,7 +23968,7 @@
       <c r="AQ482" s="1"/>
       <c r="AR482" s="1"/>
     </row>
-    <row r="483" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:44" ht="15.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -24008,7 +24014,7 @@
       <c r="AQ483" s="1"/>
       <c r="AR483" s="1"/>
     </row>
-    <row r="484" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:44" ht="15.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -24054,7 +24060,7 @@
       <c r="AQ484" s="1"/>
       <c r="AR484" s="1"/>
     </row>
-    <row r="485" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:44" ht="15.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -24100,7 +24106,7 @@
       <c r="AQ485" s="1"/>
       <c r="AR485" s="1"/>
     </row>
-    <row r="486" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:44" ht="15.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -24146,7 +24152,7 @@
       <c r="AQ486" s="1"/>
       <c r="AR486" s="1"/>
     </row>
-    <row r="487" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:44" ht="15.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -24192,7 +24198,7 @@
       <c r="AQ487" s="1"/>
       <c r="AR487" s="1"/>
     </row>
-    <row r="488" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:44" ht="15.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -24238,7 +24244,7 @@
       <c r="AQ488" s="1"/>
       <c r="AR488" s="1"/>
     </row>
-    <row r="489" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:44" ht="15.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -24284,7 +24290,7 @@
       <c r="AQ489" s="1"/>
       <c r="AR489" s="1"/>
     </row>
-    <row r="490" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:44" ht="15.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -24330,7 +24336,7 @@
       <c r="AQ490" s="1"/>
       <c r="AR490" s="1"/>
     </row>
-    <row r="491" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:44" ht="15.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -24376,7 +24382,7 @@
       <c r="AQ491" s="1"/>
       <c r="AR491" s="1"/>
     </row>
-    <row r="492" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:44" ht="15.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -24422,7 +24428,7 @@
       <c r="AQ492" s="1"/>
       <c r="AR492" s="1"/>
     </row>
-    <row r="493" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:44" ht="15.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -24468,7 +24474,7 @@
       <c r="AQ493" s="1"/>
       <c r="AR493" s="1"/>
     </row>
-    <row r="494" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:44" ht="15.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -24514,7 +24520,7 @@
       <c r="AQ494" s="1"/>
       <c r="AR494" s="1"/>
     </row>
-    <row r="495" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:44" ht="15.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -24560,7 +24566,7 @@
       <c r="AQ495" s="1"/>
       <c r="AR495" s="1"/>
     </row>
-    <row r="496" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:44" ht="15.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -24606,7 +24612,7 @@
       <c r="AQ496" s="1"/>
       <c r="AR496" s="1"/>
     </row>
-    <row r="497" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:44" ht="15.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -24652,7 +24658,7 @@
       <c r="AQ497" s="1"/>
       <c r="AR497" s="1"/>
     </row>
-    <row r="498" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:44" ht="15.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -24698,7 +24704,7 @@
       <c r="AQ498" s="1"/>
       <c r="AR498" s="1"/>
     </row>
-    <row r="499" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:44" ht="15.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -24744,7 +24750,7 @@
       <c r="AQ499" s="1"/>
       <c r="AR499" s="1"/>
     </row>
-    <row r="500" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:44" ht="15.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -24790,7 +24796,7 @@
       <c r="AQ500" s="1"/>
       <c r="AR500" s="1"/>
     </row>
-    <row r="501" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:44" ht="15.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -24836,7 +24842,7 @@
       <c r="AQ501" s="1"/>
       <c r="AR501" s="1"/>
     </row>
-    <row r="502" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:44" ht="15.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -24882,7 +24888,7 @@
       <c r="AQ502" s="1"/>
       <c r="AR502" s="1"/>
     </row>
-    <row r="503" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:44" ht="15.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -24928,7 +24934,7 @@
       <c r="AQ503" s="1"/>
       <c r="AR503" s="1"/>
     </row>
-    <row r="504" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:44" ht="15.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -24974,7 +24980,7 @@
       <c r="AQ504" s="1"/>
       <c r="AR504" s="1"/>
     </row>
-    <row r="505" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:44" ht="15.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -25020,7 +25026,7 @@
       <c r="AQ505" s="1"/>
       <c r="AR505" s="1"/>
     </row>
-    <row r="506" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:44" ht="15.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -25066,7 +25072,7 @@
       <c r="AQ506" s="1"/>
       <c r="AR506" s="1"/>
     </row>
-    <row r="507" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:44" ht="15.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -25112,7 +25118,7 @@
       <c r="AQ507" s="1"/>
       <c r="AR507" s="1"/>
     </row>
-    <row r="508" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:44" ht="15.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -25158,7 +25164,7 @@
       <c r="AQ508" s="1"/>
       <c r="AR508" s="1"/>
     </row>
-    <row r="509" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:44" ht="15.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -25204,7 +25210,7 @@
       <c r="AQ509" s="1"/>
       <c r="AR509" s="1"/>
     </row>
-    <row r="510" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:44" ht="15.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -25250,7 +25256,7 @@
       <c r="AQ510" s="1"/>
       <c r="AR510" s="1"/>
     </row>
-    <row r="511" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:44" ht="15.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -25296,7 +25302,7 @@
       <c r="AQ511" s="1"/>
       <c r="AR511" s="1"/>
     </row>
-    <row r="512" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:44" ht="15.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -25342,7 +25348,7 @@
       <c r="AQ512" s="1"/>
       <c r="AR512" s="1"/>
     </row>
-    <row r="513" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:44" ht="15.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -25388,7 +25394,7 @@
       <c r="AQ513" s="1"/>
       <c r="AR513" s="1"/>
     </row>
-    <row r="514" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:44" ht="15.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -25434,7 +25440,7 @@
       <c r="AQ514" s="1"/>
       <c r="AR514" s="1"/>
     </row>
-    <row r="515" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:44" ht="15.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -25480,7 +25486,7 @@
       <c r="AQ515" s="1"/>
       <c r="AR515" s="1"/>
     </row>
-    <row r="516" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:44" ht="15.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -25526,7 +25532,7 @@
       <c r="AQ516" s="1"/>
       <c r="AR516" s="1"/>
     </row>
-    <row r="517" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:44" ht="15.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -25572,7 +25578,7 @@
       <c r="AQ517" s="1"/>
       <c r="AR517" s="1"/>
     </row>
-    <row r="518" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:44" ht="15.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -25618,7 +25624,7 @@
       <c r="AQ518" s="1"/>
       <c r="AR518" s="1"/>
     </row>
-    <row r="519" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:44" ht="15.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -25664,7 +25670,7 @@
       <c r="AQ519" s="1"/>
       <c r="AR519" s="1"/>
     </row>
-    <row r="520" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:44" ht="15.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -25710,7 +25716,7 @@
       <c r="AQ520" s="1"/>
       <c r="AR520" s="1"/>
     </row>
-    <row r="521" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:44" ht="15.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -25756,7 +25762,7 @@
       <c r="AQ521" s="1"/>
       <c r="AR521" s="1"/>
     </row>
-    <row r="522" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:44" ht="15.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -25802,7 +25808,7 @@
       <c r="AQ522" s="1"/>
       <c r="AR522" s="1"/>
     </row>
-    <row r="523" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:44" ht="15.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -25848,7 +25854,7 @@
       <c r="AQ523" s="1"/>
       <c r="AR523" s="1"/>
     </row>
-    <row r="524" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:44" ht="15.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -25894,7 +25900,7 @@
       <c r="AQ524" s="1"/>
       <c r="AR524" s="1"/>
     </row>
-    <row r="525" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:44" ht="15.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -25940,7 +25946,7 @@
       <c r="AQ525" s="1"/>
       <c r="AR525" s="1"/>
     </row>
-    <row r="526" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:44" ht="15.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -25986,7 +25992,7 @@
       <c r="AQ526" s="1"/>
       <c r="AR526" s="1"/>
     </row>
-    <row r="527" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:44" ht="15.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -26032,7 +26038,7 @@
       <c r="AQ527" s="1"/>
       <c r="AR527" s="1"/>
     </row>
-    <row r="528" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:44" ht="15.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -26078,7 +26084,7 @@
       <c r="AQ528" s="1"/>
       <c r="AR528" s="1"/>
     </row>
-    <row r="529" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:44" ht="15.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -26124,7 +26130,7 @@
       <c r="AQ529" s="1"/>
       <c r="AR529" s="1"/>
     </row>
-    <row r="530" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:44" ht="15.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -26170,7 +26176,7 @@
       <c r="AQ530" s="1"/>
       <c r="AR530" s="1"/>
     </row>
-    <row r="531" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:44" ht="15.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -26216,7 +26222,7 @@
       <c r="AQ531" s="1"/>
       <c r="AR531" s="1"/>
     </row>
-    <row r="532" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:44" ht="15.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -26262,7 +26268,7 @@
       <c r="AQ532" s="1"/>
       <c r="AR532" s="1"/>
     </row>
-    <row r="533" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:44" ht="15.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -26308,7 +26314,7 @@
       <c r="AQ533" s="1"/>
       <c r="AR533" s="1"/>
     </row>
-    <row r="534" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:44" ht="15.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -26354,7 +26360,7 @@
       <c r="AQ534" s="1"/>
       <c r="AR534" s="1"/>
     </row>
-    <row r="535" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:44" ht="15.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -26400,7 +26406,7 @@
       <c r="AQ535" s="1"/>
       <c r="AR535" s="1"/>
     </row>
-    <row r="536" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:44" ht="15.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -26446,7 +26452,7 @@
       <c r="AQ536" s="1"/>
       <c r="AR536" s="1"/>
     </row>
-    <row r="537" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:44" ht="15.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -26492,7 +26498,7 @@
       <c r="AQ537" s="1"/>
       <c r="AR537" s="1"/>
     </row>
-    <row r="538" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:44" ht="15.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -26538,7 +26544,7 @@
       <c r="AQ538" s="1"/>
       <c r="AR538" s="1"/>
     </row>
-    <row r="539" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:44" ht="15.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -26584,7 +26590,7 @@
       <c r="AQ539" s="1"/>
       <c r="AR539" s="1"/>
     </row>
-    <row r="540" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:44" ht="15.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -26630,7 +26636,7 @@
       <c r="AQ540" s="1"/>
       <c r="AR540" s="1"/>
     </row>
-    <row r="541" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:44" ht="15.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -26676,7 +26682,7 @@
       <c r="AQ541" s="1"/>
       <c r="AR541" s="1"/>
     </row>
-    <row r="542" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:44" ht="15.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -26722,7 +26728,7 @@
       <c r="AQ542" s="1"/>
       <c r="AR542" s="1"/>
     </row>
-    <row r="543" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:44" ht="15.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -26768,7 +26774,7 @@
       <c r="AQ543" s="1"/>
       <c r="AR543" s="1"/>
     </row>
-    <row r="544" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:44" ht="15.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -26814,7 +26820,7 @@
       <c r="AQ544" s="1"/>
       <c r="AR544" s="1"/>
     </row>
-    <row r="545" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:44" ht="15.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -26860,7 +26866,7 @@
       <c r="AQ545" s="1"/>
       <c r="AR545" s="1"/>
     </row>
-    <row r="546" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:44" ht="15.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -26906,7 +26912,7 @@
       <c r="AQ546" s="1"/>
       <c r="AR546" s="1"/>
     </row>
-    <row r="547" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:44" ht="15.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -26952,7 +26958,7 @@
       <c r="AQ547" s="1"/>
       <c r="AR547" s="1"/>
     </row>
-    <row r="548" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:44" ht="15.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -26998,7 +27004,7 @@
       <c r="AQ548" s="1"/>
       <c r="AR548" s="1"/>
     </row>
-    <row r="549" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:44" ht="15.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -27044,7 +27050,7 @@
       <c r="AQ549" s="1"/>
       <c r="AR549" s="1"/>
     </row>
-    <row r="550" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:44" ht="15.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -27090,7 +27096,7 @@
       <c r="AQ550" s="1"/>
       <c r="AR550" s="1"/>
     </row>
-    <row r="551" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:44" ht="15.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -27136,7 +27142,7 @@
       <c r="AQ551" s="1"/>
       <c r="AR551" s="1"/>
     </row>
-    <row r="552" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:44" ht="15.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -27182,7 +27188,7 @@
       <c r="AQ552" s="1"/>
       <c r="AR552" s="1"/>
     </row>
-    <row r="553" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:44" ht="15.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -27228,7 +27234,7 @@
       <c r="AQ553" s="1"/>
       <c r="AR553" s="1"/>
     </row>
-    <row r="554" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:44" ht="15.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -27274,7 +27280,7 @@
       <c r="AQ554" s="1"/>
       <c r="AR554" s="1"/>
     </row>
-    <row r="555" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:44" ht="15.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -27320,7 +27326,7 @@
       <c r="AQ555" s="1"/>
       <c r="AR555" s="1"/>
     </row>
-    <row r="556" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:44" ht="15.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -27366,7 +27372,7 @@
       <c r="AQ556" s="1"/>
       <c r="AR556" s="1"/>
     </row>
-    <row r="557" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:44" ht="15.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -27412,7 +27418,7 @@
       <c r="AQ557" s="1"/>
       <c r="AR557" s="1"/>
     </row>
-    <row r="558" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:44" ht="15.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -27458,7 +27464,7 @@
       <c r="AQ558" s="1"/>
       <c r="AR558" s="1"/>
     </row>
-    <row r="559" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:44" ht="15.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -27504,7 +27510,7 @@
       <c r="AQ559" s="1"/>
       <c r="AR559" s="1"/>
     </row>
-    <row r="560" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:44" ht="15.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -27550,7 +27556,7 @@
       <c r="AQ560" s="1"/>
       <c r="AR560" s="1"/>
     </row>
-    <row r="561" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:44" ht="15.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -27596,7 +27602,7 @@
       <c r="AQ561" s="1"/>
       <c r="AR561" s="1"/>
     </row>
-    <row r="562" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:44" ht="15.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -27642,7 +27648,7 @@
       <c r="AQ562" s="1"/>
       <c r="AR562" s="1"/>
     </row>
-    <row r="563" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:44" ht="15.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -27688,7 +27694,7 @@
       <c r="AQ563" s="1"/>
       <c r="AR563" s="1"/>
     </row>
-    <row r="564" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:44" ht="15.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -27734,7 +27740,7 @@
       <c r="AQ564" s="1"/>
       <c r="AR564" s="1"/>
     </row>
-    <row r="565" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:44" ht="15.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -27780,7 +27786,7 @@
       <c r="AQ565" s="1"/>
       <c r="AR565" s="1"/>
     </row>
-    <row r="566" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:44" ht="15.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -27826,7 +27832,7 @@
       <c r="AQ566" s="1"/>
       <c r="AR566" s="1"/>
     </row>
-    <row r="567" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:44" ht="15.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -27872,7 +27878,7 @@
       <c r="AQ567" s="1"/>
       <c r="AR567" s="1"/>
     </row>
-    <row r="568" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:44" ht="15.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -27918,7 +27924,7 @@
       <c r="AQ568" s="1"/>
       <c r="AR568" s="1"/>
     </row>
-    <row r="569" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:44" ht="15.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -27964,7 +27970,7 @@
       <c r="AQ569" s="1"/>
       <c r="AR569" s="1"/>
     </row>
-    <row r="570" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:44" ht="15.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -28010,7 +28016,7 @@
       <c r="AQ570" s="1"/>
       <c r="AR570" s="1"/>
     </row>
-    <row r="571" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:44" ht="15.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -28056,7 +28062,7 @@
       <c r="AQ571" s="1"/>
       <c r="AR571" s="1"/>
     </row>
-    <row r="572" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:44" ht="15.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -28102,7 +28108,7 @@
       <c r="AQ572" s="1"/>
       <c r="AR572" s="1"/>
     </row>
-    <row r="573" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:44" ht="15.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -28148,7 +28154,7 @@
       <c r="AQ573" s="1"/>
       <c r="AR573" s="1"/>
     </row>
-    <row r="574" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:44" ht="15.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -28194,7 +28200,7 @@
       <c r="AQ574" s="1"/>
       <c r="AR574" s="1"/>
     </row>
-    <row r="575" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:44" ht="15.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -28240,7 +28246,7 @@
       <c r="AQ575" s="1"/>
       <c r="AR575" s="1"/>
     </row>
-    <row r="576" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:44" ht="15.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -28286,7 +28292,7 @@
       <c r="AQ576" s="1"/>
       <c r="AR576" s="1"/>
     </row>
-    <row r="577" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:44" ht="15.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -28332,7 +28338,7 @@
       <c r="AQ577" s="1"/>
       <c r="AR577" s="1"/>
     </row>
-    <row r="578" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:44" ht="15.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -28378,7 +28384,7 @@
       <c r="AQ578" s="1"/>
       <c r="AR578" s="1"/>
     </row>
-    <row r="579" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:44" ht="15.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -28424,7 +28430,7 @@
       <c r="AQ579" s="1"/>
       <c r="AR579" s="1"/>
     </row>
-    <row r="580" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:44" ht="15.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -28470,7 +28476,7 @@
       <c r="AQ580" s="1"/>
       <c r="AR580" s="1"/>
     </row>
-    <row r="581" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:44" ht="15.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -28516,7 +28522,7 @@
       <c r="AQ581" s="1"/>
       <c r="AR581" s="1"/>
     </row>
-    <row r="582" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:44" ht="15.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -28562,7 +28568,7 @@
       <c r="AQ582" s="1"/>
       <c r="AR582" s="1"/>
     </row>
-    <row r="583" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:44" ht="15.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -28608,7 +28614,7 @@
       <c r="AQ583" s="1"/>
       <c r="AR583" s="1"/>
     </row>
-    <row r="584" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:44" ht="15.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -28654,7 +28660,7 @@
       <c r="AQ584" s="1"/>
       <c r="AR584" s="1"/>
     </row>
-    <row r="585" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:44" ht="15.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -28700,7 +28706,7 @@
       <c r="AQ585" s="1"/>
       <c r="AR585" s="1"/>
     </row>
-    <row r="586" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:44" ht="15.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -28746,7 +28752,7 @@
       <c r="AQ586" s="1"/>
       <c r="AR586" s="1"/>
     </row>
-    <row r="587" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:44" ht="15.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -28792,7 +28798,7 @@
       <c r="AQ587" s="1"/>
       <c r="AR587" s="1"/>
     </row>
-    <row r="588" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:44" ht="15.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -28838,7 +28844,7 @@
       <c r="AQ588" s="1"/>
       <c r="AR588" s="1"/>
     </row>
-    <row r="589" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:44" ht="15.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -28884,7 +28890,7 @@
       <c r="AQ589" s="1"/>
       <c r="AR589" s="1"/>
     </row>
-    <row r="590" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:44" ht="15.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -28930,7 +28936,7 @@
       <c r="AQ590" s="1"/>
       <c r="AR590" s="1"/>
     </row>
-    <row r="591" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:44" ht="15.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -28976,7 +28982,7 @@
       <c r="AQ591" s="1"/>
       <c r="AR591" s="1"/>
     </row>
-    <row r="592" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:44" ht="15.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -29022,7 +29028,7 @@
       <c r="AQ592" s="1"/>
       <c r="AR592" s="1"/>
     </row>
-    <row r="593" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:44" ht="15.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -29068,7 +29074,7 @@
       <c r="AQ593" s="1"/>
       <c r="AR593" s="1"/>
     </row>
-    <row r="594" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:44" ht="15.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -29114,7 +29120,7 @@
       <c r="AQ594" s="1"/>
       <c r="AR594" s="1"/>
     </row>
-    <row r="595" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:44" ht="15.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -29160,7 +29166,7 @@
       <c r="AQ595" s="1"/>
       <c r="AR595" s="1"/>
     </row>
-    <row r="596" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:44" ht="15.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -29206,7 +29212,7 @@
       <c r="AQ596" s="1"/>
       <c r="AR596" s="1"/>
     </row>
-    <row r="597" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:44" ht="15.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -29252,7 +29258,7 @@
       <c r="AQ597" s="1"/>
       <c r="AR597" s="1"/>
     </row>
-    <row r="598" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:44" ht="15.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -29298,7 +29304,7 @@
       <c r="AQ598" s="1"/>
       <c r="AR598" s="1"/>
     </row>
-    <row r="599" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:44" ht="15.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -29344,7 +29350,7 @@
       <c r="AQ599" s="1"/>
       <c r="AR599" s="1"/>
     </row>
-    <row r="600" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:44" ht="15.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -29390,7 +29396,7 @@
       <c r="AQ600" s="1"/>
       <c r="AR600" s="1"/>
     </row>
-    <row r="601" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:44" ht="15.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -29436,7 +29442,7 @@
       <c r="AQ601" s="1"/>
       <c r="AR601" s="1"/>
     </row>
-    <row r="602" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:44" ht="15.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -29482,7 +29488,7 @@
       <c r="AQ602" s="1"/>
       <c r="AR602" s="1"/>
     </row>
-    <row r="603" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:44" ht="15.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -29528,7 +29534,7 @@
       <c r="AQ603" s="1"/>
       <c r="AR603" s="1"/>
     </row>
-    <row r="604" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:44" ht="15.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -29574,7 +29580,7 @@
       <c r="AQ604" s="1"/>
       <c r="AR604" s="1"/>
     </row>
-    <row r="605" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:44" ht="15.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -29620,7 +29626,7 @@
       <c r="AQ605" s="1"/>
       <c r="AR605" s="1"/>
     </row>
-    <row r="606" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:44" ht="15.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -29666,7 +29672,7 @@
       <c r="AQ606" s="1"/>
       <c r="AR606" s="1"/>
     </row>
-    <row r="607" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:44" ht="15.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -29712,7 +29718,7 @@
       <c r="AQ607" s="1"/>
       <c r="AR607" s="1"/>
     </row>
-    <row r="608" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:44" ht="15.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -29758,7 +29764,7 @@
       <c r="AQ608" s="1"/>
       <c r="AR608" s="1"/>
     </row>
-    <row r="609" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:44" ht="15.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -29804,7 +29810,7 @@
       <c r="AQ609" s="1"/>
       <c r="AR609" s="1"/>
     </row>
-    <row r="610" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:44" ht="15.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -29850,7 +29856,7 @@
       <c r="AQ610" s="1"/>
       <c r="AR610" s="1"/>
     </row>
-    <row r="611" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:44" ht="15.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -29896,7 +29902,7 @@
       <c r="AQ611" s="1"/>
       <c r="AR611" s="1"/>
     </row>
-    <row r="612" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:44" ht="15.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -29942,7 +29948,7 @@
       <c r="AQ612" s="1"/>
       <c r="AR612" s="1"/>
     </row>
-    <row r="613" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:44" ht="15.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -29988,7 +29994,7 @@
       <c r="AQ613" s="1"/>
       <c r="AR613" s="1"/>
     </row>
-    <row r="614" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:44" ht="15.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -30034,7 +30040,7 @@
       <c r="AQ614" s="1"/>
       <c r="AR614" s="1"/>
     </row>
-    <row r="615" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:44" ht="15.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -30080,7 +30086,7 @@
       <c r="AQ615" s="1"/>
       <c r="AR615" s="1"/>
     </row>
-    <row r="616" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:44" ht="15.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -30126,7 +30132,7 @@
       <c r="AQ616" s="1"/>
       <c r="AR616" s="1"/>
     </row>
-    <row r="617" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:44" ht="15.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -30172,7 +30178,7 @@
       <c r="AQ617" s="1"/>
       <c r="AR617" s="1"/>
     </row>
-    <row r="618" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:44" ht="15.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -30218,7 +30224,7 @@
       <c r="AQ618" s="1"/>
       <c r="AR618" s="1"/>
     </row>
-    <row r="619" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:44" ht="15.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -30264,7 +30270,7 @@
       <c r="AQ619" s="1"/>
       <c r="AR619" s="1"/>
     </row>
-    <row r="620" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:44" ht="15.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -30310,7 +30316,7 @@
       <c r="AQ620" s="1"/>
       <c r="AR620" s="1"/>
     </row>
-    <row r="621" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:44" ht="15.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -30356,7 +30362,7 @@
       <c r="AQ621" s="1"/>
       <c r="AR621" s="1"/>
     </row>
-    <row r="622" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:44" ht="15.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -30402,7 +30408,7 @@
       <c r="AQ622" s="1"/>
       <c r="AR622" s="1"/>
     </row>
-    <row r="623" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:44" ht="15.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -30448,7 +30454,7 @@
       <c r="AQ623" s="1"/>
       <c r="AR623" s="1"/>
     </row>
-    <row r="624" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:44" ht="15.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -30494,7 +30500,7 @@
       <c r="AQ624" s="1"/>
       <c r="AR624" s="1"/>
     </row>
-    <row r="625" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:44" ht="15.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -30540,7 +30546,7 @@
       <c r="AQ625" s="1"/>
       <c r="AR625" s="1"/>
     </row>
-    <row r="626" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:44" ht="15.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -30586,7 +30592,7 @@
       <c r="AQ626" s="1"/>
       <c r="AR626" s="1"/>
     </row>
-    <row r="627" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:44" ht="15.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -30632,7 +30638,7 @@
       <c r="AQ627" s="1"/>
       <c r="AR627" s="1"/>
     </row>
-    <row r="628" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:44" ht="15.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -30678,7 +30684,7 @@
       <c r="AQ628" s="1"/>
       <c r="AR628" s="1"/>
     </row>
-    <row r="629" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:44" ht="15.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -30724,7 +30730,7 @@
       <c r="AQ629" s="1"/>
       <c r="AR629" s="1"/>
     </row>
-    <row r="630" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:44" ht="15.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -30770,7 +30776,7 @@
       <c r="AQ630" s="1"/>
       <c r="AR630" s="1"/>
     </row>
-    <row r="631" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:44" ht="15.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -30816,7 +30822,7 @@
       <c r="AQ631" s="1"/>
       <c r="AR631" s="1"/>
     </row>
-    <row r="632" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:44" ht="15.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -30862,7 +30868,7 @@
       <c r="AQ632" s="1"/>
       <c r="AR632" s="1"/>
     </row>
-    <row r="633" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:44" ht="15.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -30908,7 +30914,7 @@
       <c r="AQ633" s="1"/>
       <c r="AR633" s="1"/>
     </row>
-    <row r="634" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:44" ht="15.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -30954,7 +30960,7 @@
       <c r="AQ634" s="1"/>
       <c r="AR634" s="1"/>
     </row>
-    <row r="635" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:44" ht="15.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -31000,7 +31006,7 @@
       <c r="AQ635" s="1"/>
       <c r="AR635" s="1"/>
     </row>
-    <row r="636" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:44" ht="15.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -31046,7 +31052,7 @@
       <c r="AQ636" s="1"/>
       <c r="AR636" s="1"/>
     </row>
-    <row r="637" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:44" ht="15.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -31092,7 +31098,7 @@
       <c r="AQ637" s="1"/>
       <c r="AR637" s="1"/>
     </row>
-    <row r="638" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:44" ht="15.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -31138,7 +31144,7 @@
       <c r="AQ638" s="1"/>
       <c r="AR638" s="1"/>
     </row>
-    <row r="639" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:44" ht="15.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -31184,7 +31190,7 @@
       <c r="AQ639" s="1"/>
       <c r="AR639" s="1"/>
     </row>
-    <row r="640" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:44" ht="15.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -31230,7 +31236,7 @@
       <c r="AQ640" s="1"/>
       <c r="AR640" s="1"/>
     </row>
-    <row r="641" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:44" ht="15.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -31276,7 +31282,7 @@
       <c r="AQ641" s="1"/>
       <c r="AR641" s="1"/>
     </row>
-    <row r="642" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:44" ht="15.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -31322,7 +31328,7 @@
       <c r="AQ642" s="1"/>
       <c r="AR642" s="1"/>
     </row>
-    <row r="643" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:44" ht="15.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -31368,7 +31374,7 @@
       <c r="AQ643" s="1"/>
       <c r="AR643" s="1"/>
     </row>
-    <row r="644" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:44" ht="15.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -31414,7 +31420,7 @@
       <c r="AQ644" s="1"/>
       <c r="AR644" s="1"/>
     </row>
-    <row r="645" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:44" ht="15.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -31460,7 +31466,7 @@
       <c r="AQ645" s="1"/>
       <c r="AR645" s="1"/>
     </row>
-    <row r="646" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:44" ht="15.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -31506,7 +31512,7 @@
       <c r="AQ646" s="1"/>
       <c r="AR646" s="1"/>
     </row>
-    <row r="647" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:44" ht="15.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -31552,7 +31558,7 @@
       <c r="AQ647" s="1"/>
       <c r="AR647" s="1"/>
     </row>
-    <row r="648" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:44" ht="15.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -31598,7 +31604,7 @@
       <c r="AQ648" s="1"/>
       <c r="AR648" s="1"/>
     </row>
-    <row r="649" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:44" ht="15.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -31644,7 +31650,7 @@
       <c r="AQ649" s="1"/>
       <c r="AR649" s="1"/>
     </row>
-    <row r="650" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:44" ht="15.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -31690,7 +31696,7 @@
       <c r="AQ650" s="1"/>
       <c r="AR650" s="1"/>
     </row>
-    <row r="651" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:44" ht="15.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -31736,7 +31742,7 @@
       <c r="AQ651" s="1"/>
       <c r="AR651" s="1"/>
     </row>
-    <row r="652" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:44" ht="15.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -31782,7 +31788,7 @@
       <c r="AQ652" s="1"/>
       <c r="AR652" s="1"/>
     </row>
-    <row r="653" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:44" ht="15.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -31828,7 +31834,7 @@
       <c r="AQ653" s="1"/>
       <c r="AR653" s="1"/>
     </row>
-    <row r="654" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:44" ht="15.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -31874,7 +31880,7 @@
       <c r="AQ654" s="1"/>
       <c r="AR654" s="1"/>
     </row>
-    <row r="655" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:44" ht="15.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -31920,7 +31926,7 @@
       <c r="AQ655" s="1"/>
       <c r="AR655" s="1"/>
     </row>
-    <row r="656" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:44" ht="15.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -31966,7 +31972,7 @@
       <c r="AQ656" s="1"/>
       <c r="AR656" s="1"/>
     </row>
-    <row r="657" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:44" ht="15.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -32012,7 +32018,7 @@
       <c r="AQ657" s="1"/>
       <c r="AR657" s="1"/>
     </row>
-    <row r="658" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:44" ht="15.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -32058,7 +32064,7 @@
       <c r="AQ658" s="1"/>
       <c r="AR658" s="1"/>
     </row>
-    <row r="659" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:44" ht="15.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -32104,7 +32110,7 @@
       <c r="AQ659" s="1"/>
       <c r="AR659" s="1"/>
     </row>
-    <row r="660" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:44" ht="15.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -32150,7 +32156,7 @@
       <c r="AQ660" s="1"/>
       <c r="AR660" s="1"/>
     </row>
-    <row r="661" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:44" ht="15.75">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -32196,7 +32202,7 @@
       <c r="AQ661" s="1"/>
       <c r="AR661" s="1"/>
     </row>
-    <row r="662" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:44" ht="15.75">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -32242,7 +32248,7 @@
       <c r="AQ662" s="1"/>
       <c r="AR662" s="1"/>
     </row>
-    <row r="663" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:44" ht="15.75">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -32288,7 +32294,7 @@
       <c r="AQ663" s="1"/>
       <c r="AR663" s="1"/>
     </row>
-    <row r="664" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:44" ht="15.75">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -32334,7 +32340,7 @@
       <c r="AQ664" s="1"/>
       <c r="AR664" s="1"/>
     </row>
-    <row r="665" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:44" ht="15.75">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -32380,7 +32386,7 @@
       <c r="AQ665" s="1"/>
       <c r="AR665" s="1"/>
     </row>
-    <row r="666" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:44" ht="15.75">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -32426,7 +32432,7 @@
       <c r="AQ666" s="1"/>
       <c r="AR666" s="1"/>
     </row>
-    <row r="667" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:44" ht="15.75">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -32472,7 +32478,7 @@
       <c r="AQ667" s="1"/>
       <c r="AR667" s="1"/>
     </row>
-    <row r="668" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:44" ht="15.75">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -32518,7 +32524,7 @@
       <c r="AQ668" s="1"/>
       <c r="AR668" s="1"/>
     </row>
-    <row r="669" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:44" ht="15.75">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -32564,7 +32570,7 @@
       <c r="AQ669" s="1"/>
       <c r="AR669" s="1"/>
     </row>
-    <row r="670" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:44" ht="15.75">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -32610,7 +32616,7 @@
       <c r="AQ670" s="1"/>
       <c r="AR670" s="1"/>
     </row>
-    <row r="671" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:44" ht="15.75">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -32656,7 +32662,7 @@
       <c r="AQ671" s="1"/>
       <c r="AR671" s="1"/>
     </row>
-    <row r="672" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:44" ht="15.75">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -32702,7 +32708,7 @@
       <c r="AQ672" s="1"/>
       <c r="AR672" s="1"/>
     </row>
-    <row r="673" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:44" ht="15.75">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -32748,7 +32754,7 @@
       <c r="AQ673" s="1"/>
       <c r="AR673" s="1"/>
     </row>
-    <row r="674" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:44" ht="15.75">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -32794,7 +32800,7 @@
       <c r="AQ674" s="1"/>
       <c r="AR674" s="1"/>
     </row>
-    <row r="675" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:44" ht="15.75">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -32840,7 +32846,7 @@
       <c r="AQ675" s="1"/>
       <c r="AR675" s="1"/>
     </row>
-    <row r="676" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:44" ht="15.75">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -32886,7 +32892,7 @@
       <c r="AQ676" s="1"/>
       <c r="AR676" s="1"/>
     </row>
-    <row r="677" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:44" ht="15.75">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -32932,7 +32938,7 @@
       <c r="AQ677" s="1"/>
       <c r="AR677" s="1"/>
     </row>
-    <row r="678" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:44" ht="15.75">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -32978,7 +32984,7 @@
       <c r="AQ678" s="1"/>
       <c r="AR678" s="1"/>
     </row>
-    <row r="679" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:44" ht="15.75">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -33024,7 +33030,7 @@
       <c r="AQ679" s="1"/>
       <c r="AR679" s="1"/>
     </row>
-    <row r="680" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:44" ht="15.75">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -33070,7 +33076,7 @@
       <c r="AQ680" s="1"/>
       <c r="AR680" s="1"/>
     </row>
-    <row r="681" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:44" ht="15.75">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -33116,7 +33122,7 @@
       <c r="AQ681" s="1"/>
       <c r="AR681" s="1"/>
     </row>
-    <row r="682" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:44" ht="15.75">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -33162,7 +33168,7 @@
       <c r="AQ682" s="1"/>
       <c r="AR682" s="1"/>
     </row>
-    <row r="683" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:44" ht="15.75">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -33208,7 +33214,7 @@
       <c r="AQ683" s="1"/>
       <c r="AR683" s="1"/>
     </row>
-    <row r="684" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:44" ht="15.75">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -33254,7 +33260,7 @@
       <c r="AQ684" s="1"/>
       <c r="AR684" s="1"/>
     </row>
-    <row r="685" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:44" ht="15.75">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -33300,7 +33306,7 @@
       <c r="AQ685" s="1"/>
       <c r="AR685" s="1"/>
     </row>
-    <row r="686" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:44" ht="15.75">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -33346,7 +33352,7 @@
       <c r="AQ686" s="1"/>
       <c r="AR686" s="1"/>
     </row>
-    <row r="687" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:44" ht="15.75">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -33392,7 +33398,7 @@
       <c r="AQ687" s="1"/>
       <c r="AR687" s="1"/>
     </row>
-    <row r="688" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:44" ht="15.75">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -33438,7 +33444,7 @@
       <c r="AQ688" s="1"/>
       <c r="AR688" s="1"/>
     </row>
-    <row r="689" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:44" ht="15.75">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -33484,7 +33490,7 @@
       <c r="AQ689" s="1"/>
       <c r="AR689" s="1"/>
     </row>
-    <row r="690" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:44" ht="15.75">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -33530,7 +33536,7 @@
       <c r="AQ690" s="1"/>
       <c r="AR690" s="1"/>
     </row>
-    <row r="691" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:44" ht="15.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -33576,7 +33582,7 @@
       <c r="AQ691" s="1"/>
       <c r="AR691" s="1"/>
     </row>
-    <row r="692" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:44" ht="15.75">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -33622,7 +33628,7 @@
       <c r="AQ692" s="1"/>
       <c r="AR692" s="1"/>
     </row>
-    <row r="693" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:44" ht="15.75">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -33668,7 +33674,7 @@
       <c r="AQ693" s="1"/>
       <c r="AR693" s="1"/>
     </row>
-    <row r="694" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:44" ht="15.75">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -33714,7 +33720,7 @@
       <c r="AQ694" s="1"/>
       <c r="AR694" s="1"/>
     </row>
-    <row r="695" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:44" ht="15.75">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -33760,7 +33766,7 @@
       <c r="AQ695" s="1"/>
       <c r="AR695" s="1"/>
     </row>
-    <row r="696" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:44" ht="15.75">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -33806,7 +33812,7 @@
       <c r="AQ696" s="1"/>
       <c r="AR696" s="1"/>
     </row>
-    <row r="697" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:44" ht="15.75">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -33852,7 +33858,7 @@
       <c r="AQ697" s="1"/>
       <c r="AR697" s="1"/>
     </row>
-    <row r="698" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:44" ht="15.75">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -33898,7 +33904,7 @@
       <c r="AQ698" s="1"/>
       <c r="AR698" s="1"/>
     </row>
-    <row r="699" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:44" ht="15.75">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -33944,7 +33950,7 @@
       <c r="AQ699" s="1"/>
       <c r="AR699" s="1"/>
     </row>
-    <row r="700" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:44" ht="15.75">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -33990,7 +33996,7 @@
       <c r="AQ700" s="1"/>
       <c r="AR700" s="1"/>
     </row>
-    <row r="701" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:44" ht="15.75">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -34036,7 +34042,7 @@
       <c r="AQ701" s="1"/>
       <c r="AR701" s="1"/>
     </row>
-    <row r="702" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:44" ht="15.75">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -34082,7 +34088,7 @@
       <c r="AQ702" s="1"/>
       <c r="AR702" s="1"/>
     </row>
-    <row r="703" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:44" ht="15.75">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -34128,7 +34134,7 @@
       <c r="AQ703" s="1"/>
       <c r="AR703" s="1"/>
     </row>
-    <row r="704" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:44" ht="15.75">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -34174,7 +34180,7 @@
       <c r="AQ704" s="1"/>
       <c r="AR704" s="1"/>
     </row>
-    <row r="705" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:44" ht="15.75">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -34220,7 +34226,7 @@
       <c r="AQ705" s="1"/>
       <c r="AR705" s="1"/>
     </row>
-    <row r="706" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:44" ht="15.75">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -34266,7 +34272,7 @@
       <c r="AQ706" s="1"/>
       <c r="AR706" s="1"/>
     </row>
-    <row r="707" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:44" ht="15.75">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -34312,7 +34318,7 @@
       <c r="AQ707" s="1"/>
       <c r="AR707" s="1"/>
     </row>
-    <row r="708" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:44" ht="15.75">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -34358,7 +34364,7 @@
       <c r="AQ708" s="1"/>
       <c r="AR708" s="1"/>
     </row>
-    <row r="709" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:44" ht="15.75">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -34404,7 +34410,7 @@
       <c r="AQ709" s="1"/>
       <c r="AR709" s="1"/>
     </row>
-    <row r="710" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:44" ht="15.75">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -34450,7 +34456,7 @@
       <c r="AQ710" s="1"/>
       <c r="AR710" s="1"/>
     </row>
-    <row r="711" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:44" ht="15.75">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -34496,7 +34502,7 @@
       <c r="AQ711" s="1"/>
       <c r="AR711" s="1"/>
     </row>
-    <row r="712" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:44" ht="15.75">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -34542,7 +34548,7 @@
       <c r="AQ712" s="1"/>
       <c r="AR712" s="1"/>
     </row>
-    <row r="713" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:44" ht="15.75">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -34588,7 +34594,7 @@
       <c r="AQ713" s="1"/>
       <c r="AR713" s="1"/>
     </row>
-    <row r="714" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:44" ht="15.75">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -34634,7 +34640,7 @@
       <c r="AQ714" s="1"/>
       <c r="AR714" s="1"/>
     </row>
-    <row r="715" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:44" ht="15.75">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -34680,7 +34686,7 @@
       <c r="AQ715" s="1"/>
       <c r="AR715" s="1"/>
     </row>
-    <row r="716" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:44" ht="15.75">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -34726,7 +34732,7 @@
       <c r="AQ716" s="1"/>
       <c r="AR716" s="1"/>
     </row>
-    <row r="717" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:44" ht="15.75">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -34772,7 +34778,7 @@
       <c r="AQ717" s="1"/>
       <c r="AR717" s="1"/>
     </row>
-    <row r="718" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:44" ht="15.75">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -34818,7 +34824,7 @@
       <c r="AQ718" s="1"/>
       <c r="AR718" s="1"/>
     </row>
-    <row r="719" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:44" ht="15.75">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -34864,7 +34870,7 @@
       <c r="AQ719" s="1"/>
       <c r="AR719" s="1"/>
     </row>
-    <row r="720" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:44" ht="15.75">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -34910,7 +34916,7 @@
       <c r="AQ720" s="1"/>
       <c r="AR720" s="1"/>
     </row>
-    <row r="721" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:44" ht="15.75">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -34956,7 +34962,7 @@
       <c r="AQ721" s="1"/>
       <c r="AR721" s="1"/>
     </row>
-    <row r="722" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:44" ht="15.75">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -35002,7 +35008,7 @@
       <c r="AQ722" s="1"/>
       <c r="AR722" s="1"/>
     </row>
-    <row r="723" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:44" ht="15.75">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -35048,7 +35054,7 @@
       <c r="AQ723" s="1"/>
       <c r="AR723" s="1"/>
     </row>
-    <row r="724" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:44" ht="15.75">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -35094,7 +35100,7 @@
       <c r="AQ724" s="1"/>
       <c r="AR724" s="1"/>
     </row>
-    <row r="725" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:44" ht="15.75">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -35140,7 +35146,7 @@
       <c r="AQ725" s="1"/>
       <c r="AR725" s="1"/>
     </row>
-    <row r="726" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:44" ht="15.75">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -35186,7 +35192,7 @@
       <c r="AQ726" s="1"/>
       <c r="AR726" s="1"/>
     </row>
-    <row r="727" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:44" ht="15.75">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -35232,7 +35238,7 @@
       <c r="AQ727" s="1"/>
       <c r="AR727" s="1"/>
     </row>
-    <row r="728" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:44" ht="15.75">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -35278,7 +35284,7 @@
       <c r="AQ728" s="1"/>
       <c r="AR728" s="1"/>
     </row>
-    <row r="729" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:44" ht="15.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -35324,7 +35330,7 @@
       <c r="AQ729" s="1"/>
       <c r="AR729" s="1"/>
     </row>
-    <row r="730" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:44" ht="15.75">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -35370,7 +35376,7 @@
       <c r="AQ730" s="1"/>
       <c r="AR730" s="1"/>
     </row>
-    <row r="731" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:44" ht="15.75">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -35416,7 +35422,7 @@
       <c r="AQ731" s="1"/>
       <c r="AR731" s="1"/>
     </row>
-    <row r="732" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:44" ht="15.75">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -35462,7 +35468,7 @@
       <c r="AQ732" s="1"/>
       <c r="AR732" s="1"/>
     </row>
-    <row r="733" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:44" ht="15.75">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -35508,7 +35514,7 @@
       <c r="AQ733" s="1"/>
       <c r="AR733" s="1"/>
     </row>
-    <row r="734" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:44" ht="15.75">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -35554,7 +35560,7 @@
       <c r="AQ734" s="1"/>
       <c r="AR734" s="1"/>
     </row>
-    <row r="735" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:44" ht="15.75">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -35600,7 +35606,7 @@
       <c r="AQ735" s="1"/>
       <c r="AR735" s="1"/>
     </row>
-    <row r="736" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:44" ht="15.75">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -35646,7 +35652,7 @@
       <c r="AQ736" s="1"/>
       <c r="AR736" s="1"/>
     </row>
-    <row r="737" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:44" ht="15.75">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -35692,7 +35698,7 @@
       <c r="AQ737" s="1"/>
       <c r="AR737" s="1"/>
     </row>
-    <row r="738" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:44" ht="15.75">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -35738,7 +35744,7 @@
       <c r="AQ738" s="1"/>
       <c r="AR738" s="1"/>
     </row>
-    <row r="739" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:44" ht="15.75">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -35784,7 +35790,7 @@
       <c r="AQ739" s="1"/>
       <c r="AR739" s="1"/>
     </row>
-    <row r="740" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:44" ht="15.75">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -35830,7 +35836,7 @@
       <c r="AQ740" s="1"/>
       <c r="AR740" s="1"/>
     </row>
-    <row r="741" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:44" ht="15.75">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -35876,7 +35882,7 @@
       <c r="AQ741" s="1"/>
       <c r="AR741" s="1"/>
     </row>
-    <row r="742" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:44" ht="15.75">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -35922,7 +35928,7 @@
       <c r="AQ742" s="1"/>
       <c r="AR742" s="1"/>
     </row>
-    <row r="743" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:44" ht="15.75">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -35968,7 +35974,7 @@
       <c r="AQ743" s="1"/>
       <c r="AR743" s="1"/>
     </row>
-    <row r="744" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:44" ht="15.75">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -36014,7 +36020,7 @@
       <c r="AQ744" s="1"/>
       <c r="AR744" s="1"/>
     </row>
-    <row r="745" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:44" ht="15.75">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -36060,7 +36066,7 @@
       <c r="AQ745" s="1"/>
       <c r="AR745" s="1"/>
     </row>
-    <row r="746" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:44" ht="15.75">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -36106,7 +36112,7 @@
       <c r="AQ746" s="1"/>
       <c r="AR746" s="1"/>
     </row>
-    <row r="747" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:44" ht="15.75">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -36152,7 +36158,7 @@
       <c r="AQ747" s="1"/>
       <c r="AR747" s="1"/>
     </row>
-    <row r="748" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:44" ht="15.75">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -36198,7 +36204,7 @@
       <c r="AQ748" s="1"/>
       <c r="AR748" s="1"/>
     </row>
-    <row r="749" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:44" ht="15.75">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -36244,7 +36250,7 @@
       <c r="AQ749" s="1"/>
       <c r="AR749" s="1"/>
     </row>
-    <row r="750" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:44" ht="15.75">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -36290,7 +36296,7 @@
       <c r="AQ750" s="1"/>
       <c r="AR750" s="1"/>
     </row>
-    <row r="751" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:44" ht="15.75">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -36336,7 +36342,7 @@
       <c r="AQ751" s="1"/>
       <c r="AR751" s="1"/>
     </row>
-    <row r="752" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:44" ht="15.75">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -36382,7 +36388,7 @@
       <c r="AQ752" s="1"/>
       <c r="AR752" s="1"/>
     </row>
-    <row r="753" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:44" ht="15.75">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -36428,7 +36434,7 @@
       <c r="AQ753" s="1"/>
       <c r="AR753" s="1"/>
     </row>
-    <row r="754" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:44" ht="15.75">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -36474,7 +36480,7 @@
       <c r="AQ754" s="1"/>
       <c r="AR754" s="1"/>
     </row>
-    <row r="755" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:44" ht="15.75">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -36520,7 +36526,7 @@
       <c r="AQ755" s="1"/>
       <c r="AR755" s="1"/>
     </row>
-    <row r="756" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:44" ht="15.75">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -36566,7 +36572,7 @@
       <c r="AQ756" s="1"/>
       <c r="AR756" s="1"/>
     </row>
-    <row r="757" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:44" ht="15.75">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -36612,7 +36618,7 @@
       <c r="AQ757" s="1"/>
       <c r="AR757" s="1"/>
     </row>
-    <row r="758" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:44" ht="15.75">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -36658,7 +36664,7 @@
       <c r="AQ758" s="1"/>
       <c r="AR758" s="1"/>
     </row>
-    <row r="759" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:44" ht="15.75">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -36704,7 +36710,7 @@
       <c r="AQ759" s="1"/>
       <c r="AR759" s="1"/>
     </row>
-    <row r="760" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:44" ht="15.75">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -36750,7 +36756,7 @@
       <c r="AQ760" s="1"/>
       <c r="AR760" s="1"/>
     </row>
-    <row r="761" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:44" ht="15.75">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -36796,7 +36802,7 @@
       <c r="AQ761" s="1"/>
       <c r="AR761" s="1"/>
     </row>
-    <row r="762" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:44" ht="15.75">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -36842,7 +36848,7 @@
       <c r="AQ762" s="1"/>
       <c r="AR762" s="1"/>
     </row>
-    <row r="763" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:44" ht="15.75">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -36888,7 +36894,7 @@
       <c r="AQ763" s="1"/>
       <c r="AR763" s="1"/>
     </row>
-    <row r="764" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:44" ht="15.75">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -36934,7 +36940,7 @@
       <c r="AQ764" s="1"/>
       <c r="AR764" s="1"/>
     </row>
-    <row r="765" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:44" ht="15.75">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -36980,7 +36986,7 @@
       <c r="AQ765" s="1"/>
       <c r="AR765" s="1"/>
     </row>
-    <row r="766" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:44" ht="15.75">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -37026,7 +37032,7 @@
       <c r="AQ766" s="1"/>
       <c r="AR766" s="1"/>
     </row>
-    <row r="767" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:44" ht="15.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -37072,7 +37078,7 @@
       <c r="AQ767" s="1"/>
       <c r="AR767" s="1"/>
     </row>
-    <row r="768" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:44" ht="15.75">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -37118,7 +37124,7 @@
       <c r="AQ768" s="1"/>
       <c r="AR768" s="1"/>
     </row>
-    <row r="769" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:44" ht="15.75">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -37164,7 +37170,7 @@
       <c r="AQ769" s="1"/>
       <c r="AR769" s="1"/>
     </row>
-    <row r="770" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:44" ht="15.75">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -37210,7 +37216,7 @@
       <c r="AQ770" s="1"/>
       <c r="AR770" s="1"/>
     </row>
-    <row r="771" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:44" ht="15.75">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -37256,7 +37262,7 @@
       <c r="AQ771" s="1"/>
       <c r="AR771" s="1"/>
     </row>
-    <row r="772" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:44" ht="15.75">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -37302,7 +37308,7 @@
       <c r="AQ772" s="1"/>
       <c r="AR772" s="1"/>
     </row>
-    <row r="773" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:44" ht="15.75">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -37348,7 +37354,7 @@
       <c r="AQ773" s="1"/>
       <c r="AR773" s="1"/>
     </row>
-    <row r="774" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:44" ht="15.75">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -37394,7 +37400,7 @@
       <c r="AQ774" s="1"/>
       <c r="AR774" s="1"/>
     </row>
-    <row r="775" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:44" ht="15.75">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -37440,7 +37446,7 @@
       <c r="AQ775" s="1"/>
       <c r="AR775" s="1"/>
     </row>
-    <row r="776" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:44" ht="15.75">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -37486,7 +37492,7 @@
       <c r="AQ776" s="1"/>
       <c r="AR776" s="1"/>
     </row>
-    <row r="777" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:44" ht="15.75">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -37532,7 +37538,7 @@
       <c r="AQ777" s="1"/>
       <c r="AR777" s="1"/>
     </row>
-    <row r="778" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:44" ht="15.75">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -37578,7 +37584,7 @@
       <c r="AQ778" s="1"/>
       <c r="AR778" s="1"/>
     </row>
-    <row r="779" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:44" ht="15.75">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -37624,7 +37630,7 @@
       <c r="AQ779" s="1"/>
       <c r="AR779" s="1"/>
     </row>
-    <row r="780" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:44" ht="15.75">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -37670,7 +37676,7 @@
       <c r="AQ780" s="1"/>
       <c r="AR780" s="1"/>
     </row>
-    <row r="781" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:44" ht="15.75">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -37716,7 +37722,7 @@
       <c r="AQ781" s="1"/>
       <c r="AR781" s="1"/>
     </row>
-    <row r="782" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:44" ht="15.75">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -37762,7 +37768,7 @@
       <c r="AQ782" s="1"/>
       <c r="AR782" s="1"/>
     </row>
-    <row r="783" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:44" ht="15.75">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -37808,7 +37814,7 @@
       <c r="AQ783" s="1"/>
       <c r="AR783" s="1"/>
     </row>
-    <row r="784" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:44" ht="15.75">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -37854,7 +37860,7 @@
       <c r="AQ784" s="1"/>
       <c r="AR784" s="1"/>
     </row>
-    <row r="785" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:44" ht="15.75">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -37900,7 +37906,7 @@
       <c r="AQ785" s="1"/>
       <c r="AR785" s="1"/>
     </row>
-    <row r="786" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:44" ht="15.75">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -37946,7 +37952,7 @@
       <c r="AQ786" s="1"/>
       <c r="AR786" s="1"/>
     </row>
-    <row r="787" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:44" ht="15.75">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -37992,7 +37998,7 @@
       <c r="AQ787" s="1"/>
       <c r="AR787" s="1"/>
     </row>
-    <row r="788" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:44" ht="15.75">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -38038,7 +38044,7 @@
       <c r="AQ788" s="1"/>
       <c r="AR788" s="1"/>
     </row>
-    <row r="789" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:44" ht="15.75">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -38084,7 +38090,7 @@
       <c r="AQ789" s="1"/>
       <c r="AR789" s="1"/>
     </row>
-    <row r="790" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:44" ht="15.75">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -38130,7 +38136,7 @@
       <c r="AQ790" s="1"/>
       <c r="AR790" s="1"/>
     </row>
-    <row r="791" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:44" ht="15.75">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -38176,7 +38182,7 @@
       <c r="AQ791" s="1"/>
       <c r="AR791" s="1"/>
     </row>
-    <row r="792" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:44" ht="15.75">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -38222,7 +38228,7 @@
       <c r="AQ792" s="1"/>
       <c r="AR792" s="1"/>
     </row>
-    <row r="793" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:44" ht="15.75">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -38268,7 +38274,7 @@
       <c r="AQ793" s="1"/>
       <c r="AR793" s="1"/>
     </row>
-    <row r="794" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:44" ht="15.75">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -38314,7 +38320,7 @@
       <c r="AQ794" s="1"/>
       <c r="AR794" s="1"/>
     </row>
-    <row r="795" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:44" ht="15.75">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -38360,7 +38366,7 @@
       <c r="AQ795" s="1"/>
       <c r="AR795" s="1"/>
     </row>
-    <row r="796" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:44" ht="15.75">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -38406,7 +38412,7 @@
       <c r="AQ796" s="1"/>
       <c r="AR796" s="1"/>
     </row>
-    <row r="797" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:44" ht="15.75">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -38452,7 +38458,7 @@
       <c r="AQ797" s="1"/>
       <c r="AR797" s="1"/>
     </row>
-    <row r="798" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:44" ht="15.75">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -38498,7 +38504,7 @@
       <c r="AQ798" s="1"/>
       <c r="AR798" s="1"/>
     </row>
-    <row r="799" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:44" ht="15.75">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -38544,7 +38550,7 @@
       <c r="AQ799" s="1"/>
       <c r="AR799" s="1"/>
     </row>
-    <row r="800" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:44" ht="15.75">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -38590,7 +38596,7 @@
       <c r="AQ800" s="1"/>
       <c r="AR800" s="1"/>
     </row>
-    <row r="801" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:44" ht="15.75">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -38636,7 +38642,7 @@
       <c r="AQ801" s="1"/>
       <c r="AR801" s="1"/>
     </row>
-    <row r="802" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:44" ht="15.75">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -38682,7 +38688,7 @@
       <c r="AQ802" s="1"/>
       <c r="AR802" s="1"/>
     </row>
-    <row r="803" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:44" ht="15.75">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -38728,7 +38734,7 @@
       <c r="AQ803" s="1"/>
       <c r="AR803" s="1"/>
     </row>
-    <row r="804" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:44" ht="15.75">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -38774,7 +38780,7 @@
       <c r="AQ804" s="1"/>
       <c r="AR804" s="1"/>
     </row>
-    <row r="805" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:44" ht="15.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -38820,7 +38826,7 @@
       <c r="AQ805" s="1"/>
       <c r="AR805" s="1"/>
     </row>
-    <row r="806" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:44" ht="15.75">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -38866,7 +38872,7 @@
       <c r="AQ806" s="1"/>
       <c r="AR806" s="1"/>
     </row>
-    <row r="807" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:44" ht="15.75">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -38912,7 +38918,7 @@
       <c r="AQ807" s="1"/>
       <c r="AR807" s="1"/>
     </row>
-    <row r="808" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:44" ht="15.75">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -38958,7 +38964,7 @@
       <c r="AQ808" s="1"/>
       <c r="AR808" s="1"/>
     </row>
-    <row r="809" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:44" ht="15.75">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -39004,7 +39010,7 @@
       <c r="AQ809" s="1"/>
       <c r="AR809" s="1"/>
     </row>
-    <row r="810" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:44" ht="15.75">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -39050,7 +39056,7 @@
       <c r="AQ810" s="1"/>
       <c r="AR810" s="1"/>
     </row>
-    <row r="811" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:44" ht="15.75">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -39096,7 +39102,7 @@
       <c r="AQ811" s="1"/>
       <c r="AR811" s="1"/>
     </row>
-    <row r="812" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:44" ht="15.75">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -39142,7 +39148,7 @@
       <c r="AQ812" s="1"/>
       <c r="AR812" s="1"/>
     </row>
-    <row r="813" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:44" ht="15.75">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -39188,7 +39194,7 @@
       <c r="AQ813" s="1"/>
       <c r="AR813" s="1"/>
     </row>
-    <row r="814" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:44" ht="15.75">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -39234,7 +39240,7 @@
       <c r="AQ814" s="1"/>
       <c r="AR814" s="1"/>
     </row>
-    <row r="815" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:44" ht="15.75">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -39280,7 +39286,7 @@
       <c r="AQ815" s="1"/>
       <c r="AR815" s="1"/>
     </row>
-    <row r="816" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:44" ht="15.75">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -39326,7 +39332,7 @@
       <c r="AQ816" s="1"/>
       <c r="AR816" s="1"/>
     </row>
-    <row r="817" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:44" ht="15.75">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -39372,7 +39378,7 @@
       <c r="AQ817" s="1"/>
       <c r="AR817" s="1"/>
     </row>
-    <row r="818" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:44" ht="15.75">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -39418,7 +39424,7 @@
       <c r="AQ818" s="1"/>
       <c r="AR818" s="1"/>
     </row>
-    <row r="819" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:44" ht="15.75">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -39464,7 +39470,7 @@
       <c r="AQ819" s="1"/>
       <c r="AR819" s="1"/>
     </row>
-    <row r="820" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:44" ht="15.75">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -39510,7 +39516,7 @@
       <c r="AQ820" s="1"/>
       <c r="AR820" s="1"/>
     </row>
-    <row r="821" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:44" ht="15.75">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -39556,7 +39562,7 @@
       <c r="AQ821" s="1"/>
       <c r="AR821" s="1"/>
     </row>
-    <row r="822" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:44" ht="15.75">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -39602,7 +39608,7 @@
       <c r="AQ822" s="1"/>
       <c r="AR822" s="1"/>
     </row>
-    <row r="823" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:44" ht="15.75">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -39648,7 +39654,7 @@
       <c r="AQ823" s="1"/>
       <c r="AR823" s="1"/>
     </row>
-    <row r="824" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:44" ht="15.75">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -39694,7 +39700,7 @@
       <c r="AQ824" s="1"/>
       <c r="AR824" s="1"/>
     </row>
-    <row r="825" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:44" ht="15.75">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -39740,7 +39746,7 @@
       <c r="AQ825" s="1"/>
       <c r="AR825" s="1"/>
     </row>
-    <row r="826" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:44" ht="15.75">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -39786,7 +39792,7 @@
       <c r="AQ826" s="1"/>
       <c r="AR826" s="1"/>
     </row>
-    <row r="827" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:44" ht="15.75">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -39832,7 +39838,7 @@
       <c r="AQ827" s="1"/>
       <c r="AR827" s="1"/>
     </row>
-    <row r="828" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:44" ht="15.75">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -39878,7 +39884,7 @@
       <c r="AQ828" s="1"/>
       <c r="AR828" s="1"/>
     </row>
-    <row r="829" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:44" ht="15.75">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -39924,7 +39930,7 @@
       <c r="AQ829" s="1"/>
       <c r="AR829" s="1"/>
     </row>
-    <row r="830" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:44" ht="15.75">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -39970,7 +39976,7 @@
       <c r="AQ830" s="1"/>
       <c r="AR830" s="1"/>
     </row>
-    <row r="831" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:44" ht="15.75">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -40016,7 +40022,7 @@
       <c r="AQ831" s="1"/>
       <c r="AR831" s="1"/>
     </row>
-    <row r="832" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:44" ht="15.75">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -40062,7 +40068,7 @@
       <c r="AQ832" s="1"/>
       <c r="AR832" s="1"/>
     </row>
-    <row r="833" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:44" ht="15.75">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -40108,7 +40114,7 @@
       <c r="AQ833" s="1"/>
       <c r="AR833" s="1"/>
     </row>
-    <row r="834" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:44" ht="15.75">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -40154,7 +40160,7 @@
       <c r="AQ834" s="1"/>
       <c r="AR834" s="1"/>
     </row>
-    <row r="835" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:44" ht="15.75">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -40200,7 +40206,7 @@
       <c r="AQ835" s="1"/>
       <c r="AR835" s="1"/>
     </row>
-    <row r="836" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:44" ht="15.75">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -40246,7 +40252,7 @@
       <c r="AQ836" s="1"/>
       <c r="AR836" s="1"/>
     </row>
-    <row r="837" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:44" ht="15.75">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -40292,7 +40298,7 @@
       <c r="AQ837" s="1"/>
       <c r="AR837" s="1"/>
     </row>
-    <row r="838" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:44" ht="15.75">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -40338,7 +40344,7 @@
       <c r="AQ838" s="1"/>
       <c r="AR838" s="1"/>
     </row>
-    <row r="839" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:44" ht="15.75">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -40384,7 +40390,7 @@
       <c r="AQ839" s="1"/>
       <c r="AR839" s="1"/>
     </row>
-    <row r="840" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:44" ht="15.75">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -40430,7 +40436,7 @@
       <c r="AQ840" s="1"/>
       <c r="AR840" s="1"/>
     </row>
-    <row r="841" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:44" ht="15.75">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -40476,7 +40482,7 @@
       <c r="AQ841" s="1"/>
       <c r="AR841" s="1"/>
     </row>
-    <row r="842" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:44" ht="15.75">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -40522,7 +40528,7 @@
       <c r="AQ842" s="1"/>
       <c r="AR842" s="1"/>
     </row>
-    <row r="843" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:44" ht="15.75">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -40568,7 +40574,7 @@
       <c r="AQ843" s="1"/>
       <c r="AR843" s="1"/>
     </row>
-    <row r="844" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:44" ht="15.75">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -40614,7 +40620,7 @@
       <c r="AQ844" s="1"/>
       <c r="AR844" s="1"/>
     </row>
-    <row r="845" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:44" ht="15.75">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -40660,7 +40666,7 @@
       <c r="AQ845" s="1"/>
       <c r="AR845" s="1"/>
     </row>
-    <row r="846" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:44" ht="15.75">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -40706,7 +40712,7 @@
       <c r="AQ846" s="1"/>
       <c r="AR846" s="1"/>
     </row>
-    <row r="847" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:44" ht="15.75">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -40752,7 +40758,7 @@
       <c r="AQ847" s="1"/>
       <c r="AR847" s="1"/>
     </row>
-    <row r="848" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:44" ht="15.75">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -40798,7 +40804,7 @@
       <c r="AQ848" s="1"/>
       <c r="AR848" s="1"/>
     </row>
-    <row r="849" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:44" ht="15.75">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -40844,7 +40850,7 @@
       <c r="AQ849" s="1"/>
       <c r="AR849" s="1"/>
     </row>
-    <row r="850" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:44" ht="15.75">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -40890,7 +40896,7 @@
       <c r="AQ850" s="1"/>
       <c r="AR850" s="1"/>
     </row>
-    <row r="851" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:44" ht="15.75">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -40936,7 +40942,7 @@
       <c r="AQ851" s="1"/>
       <c r="AR851" s="1"/>
     </row>
-    <row r="852" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:44" ht="15.75">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -40982,7 +40988,7 @@
       <c r="AQ852" s="1"/>
       <c r="AR852" s="1"/>
     </row>
-    <row r="853" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:44" ht="15.75">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -41028,7 +41034,7 @@
       <c r="AQ853" s="1"/>
       <c r="AR853" s="1"/>
     </row>
-    <row r="854" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:44" ht="15.75">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -41074,7 +41080,7 @@
       <c r="AQ854" s="1"/>
       <c r="AR854" s="1"/>
     </row>
-    <row r="855" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:44" ht="15.75">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -41120,7 +41126,7 @@
       <c r="AQ855" s="1"/>
       <c r="AR855" s="1"/>
     </row>
-    <row r="856" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:44" ht="15.75">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -41166,7 +41172,7 @@
       <c r="AQ856" s="1"/>
       <c r="AR856" s="1"/>
     </row>
-    <row r="857" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:44" ht="15.75">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -41212,7 +41218,7 @@
       <c r="AQ857" s="1"/>
       <c r="AR857" s="1"/>
     </row>
-    <row r="858" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:44" ht="15.75">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -41258,7 +41264,7 @@
       <c r="AQ858" s="1"/>
       <c r="AR858" s="1"/>
     </row>
-    <row r="859" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:44" ht="15.75">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -41304,7 +41310,7 @@
       <c r="AQ859" s="1"/>
       <c r="AR859" s="1"/>
     </row>
-    <row r="860" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:44" ht="15.75">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -41350,7 +41356,7 @@
       <c r="AQ860" s="1"/>
       <c r="AR860" s="1"/>
     </row>
-    <row r="861" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:44" ht="15.75">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -41396,7 +41402,7 @@
       <c r="AQ861" s="1"/>
       <c r="AR861" s="1"/>
     </row>
-    <row r="862" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:44" ht="15.75">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -41442,7 +41448,7 @@
       <c r="AQ862" s="1"/>
       <c r="AR862" s="1"/>
     </row>
-    <row r="863" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:44" ht="15.75">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -41488,7 +41494,7 @@
       <c r="AQ863" s="1"/>
       <c r="AR863" s="1"/>
     </row>
-    <row r="864" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:44" ht="15.75">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -41534,7 +41540,7 @@
       <c r="AQ864" s="1"/>
       <c r="AR864" s="1"/>
     </row>
-    <row r="865" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:44" ht="15.75">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -41580,7 +41586,7 @@
       <c r="AQ865" s="1"/>
       <c r="AR865" s="1"/>
     </row>
-    <row r="866" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:44" ht="15.75">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -41626,7 +41632,7 @@
       <c r="AQ866" s="1"/>
       <c r="AR866" s="1"/>
     </row>
-    <row r="867" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:44" ht="15.75">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -41672,7 +41678,7 @@
       <c r="AQ867" s="1"/>
       <c r="AR867" s="1"/>
     </row>
-    <row r="868" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:44" ht="15.75">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -41718,7 +41724,7 @@
       <c r="AQ868" s="1"/>
       <c r="AR868" s="1"/>
     </row>
-    <row r="869" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:44" ht="15.75">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -41764,7 +41770,7 @@
       <c r="AQ869" s="1"/>
       <c r="AR869" s="1"/>
     </row>
-    <row r="870" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:44" ht="15.75">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -41810,7 +41816,7 @@
       <c r="AQ870" s="1"/>
       <c r="AR870" s="1"/>
     </row>
-    <row r="871" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:44" ht="15.75">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -41856,7 +41862,7 @@
       <c r="AQ871" s="1"/>
       <c r="AR871" s="1"/>
     </row>
-    <row r="872" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:44" ht="15.75">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -41902,7 +41908,7 @@
       <c r="AQ872" s="1"/>
       <c r="AR872" s="1"/>
     </row>
-    <row r="873" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:44" ht="15.75">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -41948,7 +41954,7 @@
       <c r="AQ873" s="1"/>
       <c r="AR873" s="1"/>
     </row>
-    <row r="874" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:44" ht="15.75">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -41994,7 +42000,7 @@
       <c r="AQ874" s="1"/>
       <c r="AR874" s="1"/>
     </row>
-    <row r="875" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:44" ht="15.75">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -42040,7 +42046,7 @@
       <c r="AQ875" s="1"/>
       <c r="AR875" s="1"/>
     </row>
-    <row r="876" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:44" ht="15.75">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -42086,7 +42092,7 @@
       <c r="AQ876" s="1"/>
       <c r="AR876" s="1"/>
     </row>
-    <row r="877" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:44" ht="15.75">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -42132,7 +42138,7 @@
       <c r="AQ877" s="1"/>
       <c r="AR877" s="1"/>
     </row>
-    <row r="878" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:44" ht="15.75">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -42178,7 +42184,7 @@
       <c r="AQ878" s="1"/>
       <c r="AR878" s="1"/>
     </row>
-    <row r="879" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:44" ht="15.75">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -42224,7 +42230,7 @@
       <c r="AQ879" s="1"/>
       <c r="AR879" s="1"/>
     </row>
-    <row r="880" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:44" ht="15.75">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -42270,7 +42276,7 @@
       <c r="AQ880" s="1"/>
       <c r="AR880" s="1"/>
     </row>
-    <row r="881" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:44" ht="15.75">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -42316,7 +42322,7 @@
       <c r="AQ881" s="1"/>
       <c r="AR881" s="1"/>
     </row>
-    <row r="882" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:44" ht="15.75">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -42362,7 +42368,7 @@
       <c r="AQ882" s="1"/>
       <c r="AR882" s="1"/>
     </row>
-    <row r="883" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:44" ht="15.75">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -42408,7 +42414,7 @@
       <c r="AQ883" s="1"/>
       <c r="AR883" s="1"/>
     </row>
-    <row r="884" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:44" ht="15.75">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -42454,7 +42460,7 @@
       <c r="AQ884" s="1"/>
       <c r="AR884" s="1"/>
     </row>
-    <row r="885" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:44" ht="15.75">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -42500,7 +42506,7 @@
       <c r="AQ885" s="1"/>
       <c r="AR885" s="1"/>
     </row>
-    <row r="886" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:44" ht="15.75">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -42546,7 +42552,7 @@
       <c r="AQ886" s="1"/>
       <c r="AR886" s="1"/>
     </row>
-    <row r="887" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:44" ht="15.75">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -42592,7 +42598,7 @@
       <c r="AQ887" s="1"/>
       <c r="AR887" s="1"/>
     </row>
-    <row r="888" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:44" ht="15.75">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -42638,7 +42644,7 @@
       <c r="AQ888" s="1"/>
       <c r="AR888" s="1"/>
     </row>
-    <row r="889" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:44" ht="15.75">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -42684,7 +42690,7 @@
       <c r="AQ889" s="1"/>
       <c r="AR889" s="1"/>
     </row>
-    <row r="890" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:44" ht="15.75">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -42730,7 +42736,7 @@
       <c r="AQ890" s="1"/>
       <c r="AR890" s="1"/>
     </row>
-    <row r="891" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:44" ht="15.75">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -42776,7 +42782,7 @@
       <c r="AQ891" s="1"/>
       <c r="AR891" s="1"/>
     </row>
-    <row r="892" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:44" ht="15.75">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -42822,7 +42828,7 @@
       <c r="AQ892" s="1"/>
       <c r="AR892" s="1"/>
     </row>
-    <row r="893" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:44" ht="15.75">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -42868,7 +42874,7 @@
       <c r="AQ893" s="1"/>
       <c r="AR893" s="1"/>
     </row>
-    <row r="894" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:44" ht="15.75">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -42914,7 +42920,7 @@
       <c r="AQ894" s="1"/>
       <c r="AR894" s="1"/>
     </row>
-    <row r="895" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:44" ht="15.75">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -42960,7 +42966,7 @@
       <c r="AQ895" s="1"/>
       <c r="AR895" s="1"/>
     </row>
-    <row r="896" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:44" ht="15.75">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -43006,7 +43012,7 @@
       <c r="AQ896" s="1"/>
       <c r="AR896" s="1"/>
     </row>
-    <row r="897" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:44" ht="15.75">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -43052,7 +43058,7 @@
       <c r="AQ897" s="1"/>
       <c r="AR897" s="1"/>
     </row>
-    <row r="898" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:44" ht="15.75">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -43098,7 +43104,7 @@
       <c r="AQ898" s="1"/>
       <c r="AR898" s="1"/>
     </row>
-    <row r="899" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:44" ht="15.75">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -43144,7 +43150,7 @@
       <c r="AQ899" s="1"/>
       <c r="AR899" s="1"/>
     </row>
-    <row r="900" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:44" ht="15.75">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -43190,7 +43196,7 @@
       <c r="AQ900" s="1"/>
       <c r="AR900" s="1"/>
     </row>
-    <row r="901" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:44" ht="15.75">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -43236,7 +43242,7 @@
       <c r="AQ901" s="1"/>
       <c r="AR901" s="1"/>
     </row>
-    <row r="902" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:44" ht="15.75">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -43282,7 +43288,7 @@
       <c r="AQ902" s="1"/>
       <c r="AR902" s="1"/>
     </row>
-    <row r="903" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:44" ht="15.75">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -43328,7 +43334,7 @@
       <c r="AQ903" s="1"/>
       <c r="AR903" s="1"/>
     </row>
-    <row r="904" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:44" ht="15.75">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -43374,7 +43380,7 @@
       <c r="AQ904" s="1"/>
       <c r="AR904" s="1"/>
     </row>
-    <row r="905" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:44" ht="15.75">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -43420,7 +43426,7 @@
       <c r="AQ905" s="1"/>
       <c r="AR905" s="1"/>
     </row>
-    <row r="906" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:44" ht="15.75">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -43466,7 +43472,7 @@
       <c r="AQ906" s="1"/>
       <c r="AR906" s="1"/>
     </row>
-    <row r="907" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:44" ht="15.75">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -43512,7 +43518,7 @@
       <c r="AQ907" s="1"/>
       <c r="AR907" s="1"/>
     </row>
-    <row r="908" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:44" ht="15.75">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -43558,7 +43564,7 @@
       <c r="AQ908" s="1"/>
       <c r="AR908" s="1"/>
     </row>
-    <row r="909" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:44" ht="15.75">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -43604,7 +43610,7 @@
       <c r="AQ909" s="1"/>
       <c r="AR909" s="1"/>
     </row>
-    <row r="910" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:44" ht="15.75">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -43650,7 +43656,7 @@
       <c r="AQ910" s="1"/>
       <c r="AR910" s="1"/>
     </row>
-    <row r="911" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:44" ht="15.75">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -43696,7 +43702,7 @@
       <c r="AQ911" s="1"/>
       <c r="AR911" s="1"/>
     </row>
-    <row r="912" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:44" ht="15.75">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -43742,7 +43748,7 @@
       <c r="AQ912" s="1"/>
       <c r="AR912" s="1"/>
     </row>
-    <row r="913" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:44" ht="15.75">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -43788,7 +43794,7 @@
       <c r="AQ913" s="1"/>
       <c r="AR913" s="1"/>
     </row>
-    <row r="914" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:44" ht="15.75">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -43834,7 +43840,7 @@
       <c r="AQ914" s="1"/>
       <c r="AR914" s="1"/>
     </row>
-    <row r="915" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:44" ht="15.75">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -43880,7 +43886,7 @@
       <c r="AQ915" s="1"/>
       <c r="AR915" s="1"/>
     </row>
-    <row r="916" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:44" ht="15.75">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -43926,7 +43932,7 @@
       <c r="AQ916" s="1"/>
       <c r="AR916" s="1"/>
     </row>
-    <row r="917" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:44" ht="15.75">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -43972,7 +43978,7 @@
       <c r="AQ917" s="1"/>
       <c r="AR917" s="1"/>
     </row>
-    <row r="918" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:44" ht="15.75">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -44018,7 +44024,7 @@
       <c r="AQ918" s="1"/>
       <c r="AR918" s="1"/>
     </row>
-    <row r="919" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:44" ht="15.75">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -44064,7 +44070,7 @@
       <c r="AQ919" s="1"/>
       <c r="AR919" s="1"/>
     </row>
-    <row r="920" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:44" ht="15.75">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -44110,7 +44116,7 @@
       <c r="AQ920" s="1"/>
       <c r="AR920" s="1"/>
     </row>
-    <row r="921" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:44" ht="15.75">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -44156,7 +44162,7 @@
       <c r="AQ921" s="1"/>
       <c r="AR921" s="1"/>
     </row>
-    <row r="922" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:44" ht="15.75">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -44202,7 +44208,7 @@
       <c r="AQ922" s="1"/>
       <c r="AR922" s="1"/>
     </row>
-    <row r="923" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:44" ht="15.75">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -44248,7 +44254,7 @@
       <c r="AQ923" s="1"/>
       <c r="AR923" s="1"/>
     </row>
-    <row r="924" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:44" ht="15.75">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -44294,7 +44300,7 @@
       <c r="AQ924" s="1"/>
       <c r="AR924" s="1"/>
     </row>
-    <row r="925" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:44" ht="15.75">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -44340,7 +44346,7 @@
       <c r="AQ925" s="1"/>
       <c r="AR925" s="1"/>
     </row>
-    <row r="926" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:44" ht="15.75">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -44386,7 +44392,7 @@
       <c r="AQ926" s="1"/>
       <c r="AR926" s="1"/>
     </row>
-    <row r="927" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:44" ht="15.75">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -44432,7 +44438,7 @@
       <c r="AQ927" s="1"/>
       <c r="AR927" s="1"/>
     </row>
-    <row r="928" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:44" ht="15.75">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -44478,7 +44484,7 @@
       <c r="AQ928" s="1"/>
       <c r="AR928" s="1"/>
     </row>
-    <row r="929" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:44" ht="15.75">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -44524,7 +44530,7 @@
       <c r="AQ929" s="1"/>
       <c r="AR929" s="1"/>
     </row>
-    <row r="930" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:44" ht="15.75">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -44570,7 +44576,7 @@
       <c r="AQ930" s="1"/>
       <c r="AR930" s="1"/>
     </row>
-    <row r="931" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:44" ht="15.75">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -44616,7 +44622,7 @@
       <c r="AQ931" s="1"/>
       <c r="AR931" s="1"/>
     </row>
-    <row r="932" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:44" ht="15.75">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -44662,7 +44668,7 @@
       <c r="AQ932" s="1"/>
       <c r="AR932" s="1"/>
     </row>
-    <row r="933" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:44" ht="15.75">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -44708,7 +44714,7 @@
       <c r="AQ933" s="1"/>
       <c r="AR933" s="1"/>
     </row>
-    <row r="934" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:44" ht="15.75">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -44754,7 +44760,7 @@
       <c r="AQ934" s="1"/>
       <c r="AR934" s="1"/>
     </row>
-    <row r="935" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:44" ht="15.75">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -44800,7 +44806,7 @@
       <c r="AQ935" s="1"/>
       <c r="AR935" s="1"/>
     </row>
-    <row r="936" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:44" ht="15.75">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -44846,7 +44852,7 @@
       <c r="AQ936" s="1"/>
       <c r="AR936" s="1"/>
     </row>
-    <row r="937" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:44" ht="15.75">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -44892,7 +44898,7 @@
       <c r="AQ937" s="1"/>
       <c r="AR937" s="1"/>
     </row>
-    <row r="938" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:44" ht="15.75">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -44938,7 +44944,7 @@
       <c r="AQ938" s="1"/>
       <c r="AR938" s="1"/>
     </row>
-    <row r="939" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:44" ht="15.75">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -44984,7 +44990,7 @@
       <c r="AQ939" s="1"/>
       <c r="AR939" s="1"/>
     </row>
-    <row r="940" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:44" ht="15.75">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -45030,7 +45036,7 @@
       <c r="AQ940" s="1"/>
       <c r="AR940" s="1"/>
     </row>
-    <row r="941" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:44" ht="15.75">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -45076,7 +45082,7 @@
       <c r="AQ941" s="1"/>
       <c r="AR941" s="1"/>
     </row>
-    <row r="942" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:44" ht="15.75">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -45122,7 +45128,7 @@
       <c r="AQ942" s="1"/>
       <c r="AR942" s="1"/>
     </row>
-    <row r="943" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:44" ht="15.75">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -45168,7 +45174,7 @@
       <c r="AQ943" s="1"/>
       <c r="AR943" s="1"/>
     </row>
-    <row r="944" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:44" ht="15.75">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -45214,7 +45220,7 @@
       <c r="AQ944" s="1"/>
       <c r="AR944" s="1"/>
     </row>
-    <row r="945" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:44" ht="15.75">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -45260,7 +45266,7 @@
       <c r="AQ945" s="1"/>
       <c r="AR945" s="1"/>
     </row>
-    <row r="946" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:44" ht="15.75">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -45306,7 +45312,7 @@
       <c r="AQ946" s="1"/>
       <c r="AR946" s="1"/>
     </row>
-    <row r="947" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:44" ht="15.75">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -45352,7 +45358,7 @@
       <c r="AQ947" s="1"/>
       <c r="AR947" s="1"/>
     </row>
-    <row r="948" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:44" ht="15.75">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -45398,7 +45404,7 @@
       <c r="AQ948" s="1"/>
       <c r="AR948" s="1"/>
     </row>
-    <row r="949" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:44" ht="15.75">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -45444,7 +45450,7 @@
       <c r="AQ949" s="1"/>
       <c r="AR949" s="1"/>
     </row>
-    <row r="950" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:44" ht="15.75">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -45490,7 +45496,7 @@
       <c r="AQ950" s="1"/>
       <c r="AR950" s="1"/>
     </row>
-    <row r="951" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:44" ht="15.75">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -45536,7 +45542,7 @@
       <c r="AQ951" s="1"/>
       <c r="AR951" s="1"/>
     </row>
-    <row r="952" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:44" ht="15.75">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -45582,7 +45588,7 @@
       <c r="AQ952" s="1"/>
       <c r="AR952" s="1"/>
     </row>
-    <row r="953" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:44" ht="15.75">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -45628,7 +45634,7 @@
       <c r="AQ953" s="1"/>
       <c r="AR953" s="1"/>
     </row>
-    <row r="954" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:44" ht="15.75">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -45674,7 +45680,7 @@
       <c r="AQ954" s="1"/>
       <c r="AR954" s="1"/>
     </row>
-    <row r="955" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:44" ht="15.75">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -45720,7 +45726,7 @@
       <c r="AQ955" s="1"/>
       <c r="AR955" s="1"/>
     </row>
-    <row r="956" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:44" ht="15.75">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -45766,7 +45772,7 @@
       <c r="AQ956" s="1"/>
       <c r="AR956" s="1"/>
     </row>
-    <row r="957" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:44" ht="15.75">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -45812,7 +45818,7 @@
       <c r="AQ957" s="1"/>
       <c r="AR957" s="1"/>
     </row>
-    <row r="958" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:44" ht="15.75">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -45858,7 +45864,7 @@
       <c r="AQ958" s="1"/>
       <c r="AR958" s="1"/>
     </row>
-    <row r="959" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:44" ht="15.75">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -45904,7 +45910,7 @@
       <c r="AQ959" s="1"/>
       <c r="AR959" s="1"/>
     </row>
-    <row r="960" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:44" ht="15.75">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -45950,7 +45956,7 @@
       <c r="AQ960" s="1"/>
       <c r="AR960" s="1"/>
     </row>
-    <row r="961" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:44" ht="15.75">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -45996,7 +46002,7 @@
       <c r="AQ961" s="1"/>
       <c r="AR961" s="1"/>
     </row>
-    <row r="962" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:44" ht="15.75">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -46042,7 +46048,7 @@
       <c r="AQ962" s="1"/>
       <c r="AR962" s="1"/>
     </row>
-    <row r="963" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:44" ht="15.75">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -46088,7 +46094,7 @@
       <c r="AQ963" s="1"/>
       <c r="AR963" s="1"/>
     </row>
-    <row r="964" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:44" ht="15.75">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -46134,7 +46140,7 @@
       <c r="AQ964" s="1"/>
       <c r="AR964" s="1"/>
     </row>
-    <row r="965" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:44" ht="15.75">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -46180,7 +46186,7 @@
       <c r="AQ965" s="1"/>
       <c r="AR965" s="1"/>
     </row>
-    <row r="966" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:44" ht="15.75">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -46226,7 +46232,7 @@
       <c r="AQ966" s="1"/>
       <c r="AR966" s="1"/>
     </row>
-    <row r="967" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:44" ht="15.75">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -46272,7 +46278,7 @@
       <c r="AQ967" s="1"/>
       <c r="AR967" s="1"/>
     </row>
-    <row r="968" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:44" ht="15.75">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -46318,7 +46324,7 @@
       <c r="AQ968" s="1"/>
       <c r="AR968" s="1"/>
     </row>
-    <row r="969" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:44" ht="15.75">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -46364,7 +46370,7 @@
       <c r="AQ969" s="1"/>
       <c r="AR969" s="1"/>
     </row>
-    <row r="970" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:44" ht="15.75">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -46410,7 +46416,7 @@
       <c r="AQ970" s="1"/>
       <c r="AR970" s="1"/>
     </row>
-    <row r="971" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:44" ht="15.75">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -46456,7 +46462,7 @@
       <c r="AQ971" s="1"/>
       <c r="AR971" s="1"/>
     </row>
-    <row r="972" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:44" ht="15.75">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -46502,7 +46508,7 @@
       <c r="AQ972" s="1"/>
       <c r="AR972" s="1"/>
     </row>
-    <row r="973" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:44" ht="15.75">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -46548,7 +46554,7 @@
       <c r="AQ973" s="1"/>
       <c r="AR973" s="1"/>
     </row>
-    <row r="974" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:44" ht="15.75">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -46594,7 +46600,7 @@
       <c r="AQ974" s="1"/>
       <c r="AR974" s="1"/>
     </row>
-    <row r="975" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:44" ht="15.75">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -46640,7 +46646,7 @@
       <c r="AQ975" s="1"/>
       <c r="AR975" s="1"/>
     </row>
-    <row r="976" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:44" ht="15.75">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -46686,7 +46692,7 @@
       <c r="AQ976" s="1"/>
       <c r="AR976" s="1"/>
     </row>
-    <row r="977" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:44" ht="15.75">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -46732,7 +46738,7 @@
       <c r="AQ977" s="1"/>
       <c r="AR977" s="1"/>
     </row>
-    <row r="978" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:44" ht="15.75">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -46778,7 +46784,7 @@
       <c r="AQ978" s="1"/>
       <c r="AR978" s="1"/>
     </row>
-    <row r="979" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:44" ht="15.75">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -46824,7 +46830,7 @@
       <c r="AQ979" s="1"/>
       <c r="AR979" s="1"/>
     </row>
-    <row r="980" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:44" ht="15.75">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -46870,7 +46876,7 @@
       <c r="AQ980" s="1"/>
       <c r="AR980" s="1"/>
     </row>
-    <row r="981" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:44" ht="15.75">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -46916,7 +46922,7 @@
       <c r="AQ981" s="1"/>
       <c r="AR981" s="1"/>
     </row>
-    <row r="982" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:44" ht="15.75">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -46962,7 +46968,7 @@
       <c r="AQ982" s="1"/>
       <c r="AR982" s="1"/>
     </row>
-    <row r="983" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:44" ht="15.75">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -47008,7 +47014,7 @@
       <c r="AQ983" s="1"/>
       <c r="AR983" s="1"/>
     </row>
-    <row r="984" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:44" ht="15.75">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -47054,7 +47060,7 @@
       <c r="AQ984" s="1"/>
       <c r="AR984" s="1"/>
     </row>
-    <row r="985" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:44" ht="15.75">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -47100,7 +47106,7 @@
       <c r="AQ985" s="1"/>
       <c r="AR985" s="1"/>
     </row>
-    <row r="986" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:44" ht="15.75">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -47146,7 +47152,7 @@
       <c r="AQ986" s="1"/>
       <c r="AR986" s="1"/>
     </row>
-    <row r="987" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:44" ht="15.75">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -47192,7 +47198,7 @@
       <c r="AQ987" s="1"/>
       <c r="AR987" s="1"/>
     </row>
-    <row r="988" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:44" ht="15.75">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -47238,7 +47244,7 @@
       <c r="AQ988" s="1"/>
       <c r="AR988" s="1"/>
     </row>
-    <row r="989" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:44" ht="15.75">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -47284,7 +47290,7 @@
       <c r="AQ989" s="1"/>
       <c r="AR989" s="1"/>
     </row>
-    <row r="990" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:44" ht="15.75">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -47330,7 +47336,7 @@
       <c r="AQ990" s="1"/>
       <c r="AR990" s="1"/>
     </row>
-    <row r="991" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:44" ht="15.75">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -47376,7 +47382,7 @@
       <c r="AQ991" s="1"/>
       <c r="AR991" s="1"/>
     </row>
-    <row r="992" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:44" ht="15.75">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -47422,7 +47428,7 @@
       <c r="AQ992" s="1"/>
       <c r="AR992" s="1"/>
     </row>
-    <row r="993" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:44" ht="15.75">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -47468,7 +47474,7 @@
       <c r="AQ993" s="1"/>
       <c r="AR993" s="1"/>
     </row>
-    <row r="994" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:44" ht="15.75">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -47514,7 +47520,7 @@
       <c r="AQ994" s="1"/>
       <c r="AR994" s="1"/>
     </row>
-    <row r="995" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:44" ht="15.75">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -47560,7 +47566,7 @@
       <c r="AQ995" s="1"/>
       <c r="AR995" s="1"/>
     </row>
-    <row r="996" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:44" ht="15.75">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -47606,7 +47612,7 @@
       <c r="AQ996" s="1"/>
       <c r="AR996" s="1"/>
     </row>
-    <row r="997" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:44" ht="15.75">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -47652,7 +47658,7 @@
       <c r="AQ997" s="1"/>
       <c r="AR997" s="1"/>
     </row>
-    <row r="998" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:44" ht="15.75">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -47698,7 +47704,7 @@
       <c r="AQ998" s="1"/>
       <c r="AR998" s="1"/>
     </row>
-    <row r="999" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:44" ht="15.75">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -47744,7 +47750,7 @@
       <c r="AQ999" s="1"/>
       <c r="AR999" s="1"/>
     </row>
-    <row r="1000" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:44" ht="15.75">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -47790,7 +47796,7 @@
       <c r="AQ1000" s="1"/>
       <c r="AR1000" s="1"/>
     </row>
-    <row r="1001" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:44" ht="15.75">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -47836,7 +47842,7 @@
       <c r="AQ1001" s="1"/>
       <c r="AR1001" s="1"/>
     </row>
-    <row r="1002" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:44" ht="15.75">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
@@ -47882,7 +47888,7 @@
       <c r="AQ1002" s="1"/>
       <c r="AR1002" s="1"/>
     </row>
-    <row r="1003" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:44" ht="15.75">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
@@ -47928,7 +47934,7 @@
       <c r="AQ1003" s="1"/>
       <c r="AR1003" s="1"/>
     </row>
-    <row r="1004" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:44" ht="15.75">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -47974,7 +47980,7 @@
       <c r="AQ1004" s="1"/>
       <c r="AR1004" s="1"/>
     </row>
-    <row r="1005" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:44" ht="15.75">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -48020,7 +48026,7 @@
       <c r="AQ1005" s="1"/>
       <c r="AR1005" s="1"/>
     </row>
-    <row r="1006" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:44" ht="15.75">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
@@ -48066,7 +48072,7 @@
       <c r="AQ1006" s="1"/>
       <c r="AR1006" s="1"/>
     </row>
-    <row r="1007" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:44" ht="15.75">
       <c r="A1007" s="1"/>
       <c r="B1007" s="1"/>
       <c r="C1007" s="1"/>
@@ -48112,7 +48118,7 @@
       <c r="AQ1007" s="1"/>
       <c r="AR1007" s="1"/>
     </row>
-    <row r="1008" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:44" ht="15.75">
       <c r="A1008" s="1"/>
       <c r="B1008" s="1"/>
       <c r="C1008" s="1"/>
@@ -48158,7 +48164,7 @@
       <c r="AQ1008" s="1"/>
       <c r="AR1008" s="1"/>
     </row>
-    <row r="1009" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:44" ht="15.75">
       <c r="A1009" s="1"/>
       <c r="B1009" s="1"/>
       <c r="C1009" s="1"/>
@@ -48204,7 +48210,7 @@
       <c r="AQ1009" s="1"/>
       <c r="AR1009" s="1"/>
     </row>
-    <row r="1010" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:44" ht="15.75">
       <c r="A1010" s="1"/>
       <c r="B1010" s="1"/>
       <c r="C1010" s="1"/>
@@ -48250,7 +48256,7 @@
       <c r="AQ1010" s="1"/>
       <c r="AR1010" s="1"/>
     </row>
-    <row r="1011" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:44" ht="15.75">
       <c r="A1011" s="1"/>
       <c r="B1011" s="1"/>
       <c r="C1011" s="1"/>
@@ -48296,7 +48302,7 @@
       <c r="AQ1011" s="1"/>
       <c r="AR1011" s="1"/>
     </row>
-    <row r="1012" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:44" ht="15.75">
       <c r="A1012" s="1"/>
       <c r="B1012" s="1"/>
       <c r="C1012" s="1"/>
@@ -48342,7 +48348,7 @@
       <c r="AQ1012" s="1"/>
       <c r="AR1012" s="1"/>
     </row>
-    <row r="1013" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:44" ht="15.75">
       <c r="A1013" s="1"/>
       <c r="B1013" s="1"/>
       <c r="C1013" s="1"/>
@@ -48388,7 +48394,7 @@
       <c r="AQ1013" s="1"/>
       <c r="AR1013" s="1"/>
     </row>
-    <row r="1014" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:44" ht="15.75">
       <c r="A1014" s="1"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
@@ -48434,7 +48440,7 @@
       <c r="AQ1014" s="1"/>
       <c r="AR1014" s="1"/>
     </row>
-    <row r="1015" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:44" ht="15.75">
       <c r="A1015" s="1"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
@@ -48480,7 +48486,7 @@
       <c r="AQ1015" s="1"/>
       <c r="AR1015" s="1"/>
     </row>
-    <row r="1016" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:44" ht="15.75">
       <c r="A1016" s="1"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
@@ -48526,7 +48532,7 @@
       <c r="AQ1016" s="1"/>
       <c r="AR1016" s="1"/>
     </row>
-    <row r="1017" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:44" ht="15.75">
       <c r="A1017" s="1"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
@@ -48572,7 +48578,7 @@
       <c r="AQ1017" s="1"/>
       <c r="AR1017" s="1"/>
     </row>
-    <row r="1018" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:44" ht="15.75">
       <c r="A1018" s="1"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
@@ -48618,7 +48624,7 @@
       <c r="AQ1018" s="1"/>
       <c r="AR1018" s="1"/>
     </row>
-    <row r="1019" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:44" ht="15.75">
       <c r="A1019" s="1"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
@@ -48664,7 +48670,7 @@
       <c r="AQ1019" s="1"/>
       <c r="AR1019" s="1"/>
     </row>
-    <row r="1020" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:44" ht="15.75">
       <c r="A1020" s="1"/>
       <c r="B1020" s="1"/>
       <c r="C1020" s="1"/>
@@ -48710,7 +48716,7 @@
       <c r="AQ1020" s="1"/>
       <c r="AR1020" s="1"/>
     </row>
-    <row r="1021" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:44" ht="15.75">
       <c r="A1021" s="1"/>
       <c r="B1021" s="1"/>
       <c r="C1021" s="1"/>
@@ -48756,7 +48762,7 @@
       <c r="AQ1021" s="1"/>
       <c r="AR1021" s="1"/>
     </row>
-    <row r="1022" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:44" ht="15.75">
       <c r="A1022" s="1"/>
       <c r="B1022" s="1"/>
       <c r="C1022" s="1"/>
@@ -48802,7 +48808,7 @@
       <c r="AQ1022" s="1"/>
       <c r="AR1022" s="1"/>
     </row>
-    <row r="1023" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:44" ht="15.75">
       <c r="A1023" s="1"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
@@ -48848,7 +48854,7 @@
       <c r="AQ1023" s="1"/>
       <c r="AR1023" s="1"/>
     </row>
-    <row r="1024" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:44" ht="15.75">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
@@ -48894,7 +48900,7 @@
       <c r="AQ1024" s="1"/>
       <c r="AR1024" s="1"/>
     </row>
-    <row r="1025" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:44" ht="15.75">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
@@ -48940,7 +48946,7 @@
       <c r="AQ1025" s="1"/>
       <c r="AR1025" s="1"/>
     </row>
-    <row r="1026" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:44" ht="15.75">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
@@ -48986,7 +48992,7 @@
       <c r="AQ1026" s="1"/>
       <c r="AR1026" s="1"/>
     </row>
-    <row r="1027" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:44" ht="15.75">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
@@ -49032,7 +49038,7 @@
       <c r="AQ1027" s="1"/>
       <c r="AR1027" s="1"/>
     </row>
-    <row r="1028" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:44" ht="15.75">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
@@ -49078,7 +49084,7 @@
       <c r="AQ1028" s="1"/>
       <c r="AR1028" s="1"/>
     </row>
-    <row r="1029" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:44" ht="15.75">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
@@ -49124,7 +49130,7 @@
       <c r="AQ1029" s="1"/>
       <c r="AR1029" s="1"/>
     </row>
-    <row r="1030" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:44" ht="15.75">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
@@ -49170,7 +49176,7 @@
       <c r="AQ1030" s="1"/>
       <c r="AR1030" s="1"/>
     </row>
-    <row r="1031" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:44" ht="15.75">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
@@ -49216,7 +49222,7 @@
       <c r="AQ1031" s="1"/>
       <c r="AR1031" s="1"/>
     </row>
-    <row r="1032" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:44" ht="15.75">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -49262,7 +49268,7 @@
       <c r="AQ1032" s="1"/>
       <c r="AR1032" s="1"/>
     </row>
-    <row r="1033" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:44" ht="15.75">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -49308,7 +49314,7 @@
       <c r="AQ1033" s="1"/>
       <c r="AR1033" s="1"/>
     </row>
-    <row r="1034" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:44" ht="15.75">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -49354,7 +49360,7 @@
       <c r="AQ1034" s="1"/>
       <c r="AR1034" s="1"/>
     </row>
-    <row r="1035" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:44" ht="15.75">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -49400,7 +49406,7 @@
       <c r="AQ1035" s="1"/>
       <c r="AR1035" s="1"/>
     </row>
-    <row r="1036" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:44" ht="15.75">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -49446,7 +49452,7 @@
       <c r="AQ1036" s="1"/>
       <c r="AR1036" s="1"/>
     </row>
-    <row r="1037" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:44" ht="15.75">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -49492,7 +49498,7 @@
       <c r="AQ1037" s="1"/>
       <c r="AR1037" s="1"/>
     </row>
-    <row r="1038" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:44" ht="15.75">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -49538,7 +49544,7 @@
       <c r="AQ1038" s="1"/>
       <c r="AR1038" s="1"/>
     </row>
-    <row r="1039" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:44" ht="15.75">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -49584,7 +49590,7 @@
       <c r="AQ1039" s="1"/>
       <c r="AR1039" s="1"/>
     </row>
-    <row r="1040" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:44" ht="15.75">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -49630,7 +49636,7 @@
       <c r="AQ1040" s="1"/>
       <c r="AR1040" s="1"/>
     </row>
-    <row r="1041" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:44" ht="15.75">
       <c r="A1041" s="1"/>
       <c r="B1041" s="1"/>
       <c r="C1041" s="1"/>
@@ -49676,7 +49682,7 @@
       <c r="AQ1041" s="1"/>
       <c r="AR1041" s="1"/>
     </row>
-    <row r="1042" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:44" ht="15.75">
       <c r="A1042" s="1"/>
       <c r="B1042" s="1"/>
       <c r="C1042" s="1"/>
@@ -49722,7 +49728,7 @@
       <c r="AQ1042" s="1"/>
       <c r="AR1042" s="1"/>
     </row>
-    <row r="1043" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:44" ht="15.75">
       <c r="A1043" s="1"/>
       <c r="B1043" s="1"/>
       <c r="C1043" s="1"/>
@@ -49768,7 +49774,7 @@
       <c r="AQ1043" s="1"/>
       <c r="AR1043" s="1"/>
     </row>
-    <row r="1044" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:44" ht="15.75">
       <c r="A1044" s="1"/>
       <c r="B1044" s="1"/>
       <c r="C1044" s="1"/>
@@ -49814,7 +49820,7 @@
       <c r="AQ1044" s="1"/>
       <c r="AR1044" s="1"/>
     </row>
-    <row r="1045" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:44" ht="15.75">
       <c r="A1045" s="1"/>
       <c r="B1045" s="1"/>
       <c r="C1045" s="1"/>
@@ -49860,7 +49866,7 @@
       <c r="AQ1045" s="1"/>
       <c r="AR1045" s="1"/>
     </row>
-    <row r="1046" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:44" ht="15.75">
       <c r="A1046" s="1"/>
       <c r="B1046" s="1"/>
       <c r="C1046" s="1"/>
@@ -49906,7 +49912,7 @@
       <c r="AQ1046" s="1"/>
       <c r="AR1046" s="1"/>
     </row>
-    <row r="1047" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:44" ht="15.75">
       <c r="A1047" s="1"/>
       <c r="B1047" s="1"/>
       <c r="C1047" s="1"/>
@@ -49952,7 +49958,7 @@
       <c r="AQ1047" s="1"/>
       <c r="AR1047" s="1"/>
     </row>
-    <row r="1048" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:44" ht="15.75">
       <c r="A1048" s="1"/>
       <c r="B1048" s="1"/>
       <c r="C1048" s="1"/>
@@ -49998,7 +50004,7 @@
       <c r="AQ1048" s="1"/>
       <c r="AR1048" s="1"/>
     </row>
-    <row r="1049" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:44" ht="15.75">
       <c r="A1049" s="1"/>
       <c r="B1049" s="1"/>
       <c r="C1049" s="1"/>
@@ -50044,7 +50050,7 @@
       <c r="AQ1049" s="1"/>
       <c r="AR1049" s="1"/>
     </row>
-    <row r="1050" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:44" ht="15.75">
       <c r="A1050" s="1"/>
       <c r="B1050" s="1"/>
       <c r="C1050" s="1"/>
@@ -50090,7 +50096,7 @@
       <c r="AQ1050" s="1"/>
       <c r="AR1050" s="1"/>
     </row>
-    <row r="1051" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:44" ht="15.75">
       <c r="A1051" s="1"/>
       <c r="B1051" s="1"/>
       <c r="C1051" s="1"/>
@@ -50136,7 +50142,7 @@
       <c r="AQ1051" s="1"/>
       <c r="AR1051" s="1"/>
     </row>
-    <row r="1052" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:44" ht="15.75">
       <c r="A1052" s="1"/>
       <c r="B1052" s="1"/>
       <c r="C1052" s="1"/>
@@ -50182,7 +50188,7 @@
       <c r="AQ1052" s="1"/>
       <c r="AR1052" s="1"/>
     </row>
-    <row r="1053" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:44" ht="15.75">
       <c r="A1053" s="1"/>
       <c r="B1053" s="1"/>
       <c r="C1053" s="1"/>
@@ -50228,7 +50234,7 @@
       <c r="AQ1053" s="1"/>
       <c r="AR1053" s="1"/>
     </row>
-    <row r="1054" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:44" ht="15.75">
       <c r="A1054" s="1"/>
       <c r="B1054" s="1"/>
       <c r="C1054" s="1"/>
@@ -50274,7 +50280,7 @@
       <c r="AQ1054" s="1"/>
       <c r="AR1054" s="1"/>
     </row>
-    <row r="1055" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:44" ht="15.75">
       <c r="A1055" s="1"/>
       <c r="B1055" s="1"/>
       <c r="C1055" s="1"/>
@@ -50320,7 +50326,7 @@
       <c r="AQ1055" s="1"/>
       <c r="AR1055" s="1"/>
     </row>
-    <row r="1056" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:44" ht="15.75">
       <c r="A1056" s="1"/>
       <c r="B1056" s="1"/>
       <c r="C1056" s="1"/>
@@ -50366,7 +50372,7 @@
       <c r="AQ1056" s="1"/>
       <c r="AR1056" s="1"/>
     </row>
-    <row r="1057" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:44" ht="15.75">
       <c r="A1057" s="1"/>
       <c r="B1057" s="1"/>
       <c r="C1057" s="1"/>
@@ -50412,7 +50418,7 @@
       <c r="AQ1057" s="1"/>
       <c r="AR1057" s="1"/>
     </row>
-    <row r="1058" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:44" ht="15.75">
       <c r="A1058" s="1"/>
       <c r="B1058" s="1"/>
       <c r="C1058" s="1"/>
@@ -50458,7 +50464,7 @@
       <c r="AQ1058" s="1"/>
       <c r="AR1058" s="1"/>
     </row>
-    <row r="1059" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:44" ht="15.75">
       <c r="A1059" s="1"/>
       <c r="B1059" s="1"/>
       <c r="C1059" s="1"/>
@@ -50504,7 +50510,7 @@
       <c r="AQ1059" s="1"/>
       <c r="AR1059" s="1"/>
     </row>
-    <row r="1060" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:44" ht="15.75">
       <c r="A1060" s="1"/>
       <c r="B1060" s="1"/>
       <c r="C1060" s="1"/>
@@ -50550,7 +50556,7 @@
       <c r="AQ1060" s="1"/>
       <c r="AR1060" s="1"/>
     </row>
-    <row r="1061" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:44" ht="15.75">
       <c r="A1061" s="1"/>
       <c r="B1061" s="1"/>
       <c r="C1061" s="1"/>
@@ -50596,7 +50602,7 @@
       <c r="AQ1061" s="1"/>
       <c r="AR1061" s="1"/>
     </row>
-    <row r="1062" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:44" ht="15.75">
       <c r="A1062" s="1"/>
       <c r="B1062" s="1"/>
       <c r="C1062" s="1"/>
@@ -50642,7 +50648,7 @@
       <c r="AQ1062" s="1"/>
       <c r="AR1062" s="1"/>
     </row>
-    <row r="1063" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:44" ht="15.75">
       <c r="A1063" s="1"/>
       <c r="B1063" s="1"/>
       <c r="C1063" s="1"/>
@@ -50688,7 +50694,7 @@
       <c r="AQ1063" s="1"/>
       <c r="AR1063" s="1"/>
     </row>
-    <row r="1064" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:44" ht="15.75">
       <c r="A1064" s="1"/>
       <c r="B1064" s="1"/>
       <c r="C1064" s="1"/>
@@ -50734,7 +50740,7 @@
       <c r="AQ1064" s="1"/>
       <c r="AR1064" s="1"/>
     </row>
-    <row r="1065" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:44" ht="15.75">
       <c r="A1065" s="1"/>
       <c r="B1065" s="1"/>
       <c r="C1065" s="1"/>
@@ -50780,7 +50786,7 @@
       <c r="AQ1065" s="1"/>
       <c r="AR1065" s="1"/>
     </row>
-    <row r="1066" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:44" ht="15.75">
       <c r="A1066" s="1"/>
       <c r="B1066" s="1"/>
       <c r="C1066" s="1"/>
@@ -50826,7 +50832,7 @@
       <c r="AQ1066" s="1"/>
       <c r="AR1066" s="1"/>
     </row>
-    <row r="1067" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:44" ht="15.75">
       <c r="A1067" s="1"/>
       <c r="B1067" s="1"/>
       <c r="C1067" s="1"/>
@@ -50872,7 +50878,7 @@
       <c r="AQ1067" s="1"/>
       <c r="AR1067" s="1"/>
     </row>
-    <row r="1068" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:44" ht="15.75">
       <c r="A1068" s="1"/>
       <c r="B1068" s="1"/>
       <c r="C1068" s="1"/>
